--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>6.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-17.85714285714285</v>
+      </c>
       <c r="L12" t="n">
         <v>28.39000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>6.899999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-24.52830188679246</v>
+      </c>
       <c r="L13" t="n">
         <v>28.33000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>7.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-15.78947368421049</v>
+      </c>
       <c r="L14" t="n">
         <v>28.26000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>8.5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-5.882352941176413</v>
+      </c>
       <c r="L15" t="n">
         <v>28.07000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>9.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>28.14000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>9.599999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.14893617021275</v>
+      </c>
       <c r="L17" t="n">
         <v>28.15000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>9.699999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.43902439024394</v>
+      </c>
       <c r="L18" t="n">
         <v>28.23000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>9.699999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.43902439024394</v>
+      </c>
       <c r="L19" t="n">
         <v>28.24000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>9.799999999999997</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>27.27272727272726</v>
+      </c>
       <c r="L20" t="n">
         <v>28.24000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>10.2</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>13.51351351351353</v>
+      </c>
       <c r="L21" t="n">
         <v>28.29000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>10.4</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-2.857142857142898</v>
+      </c>
       <c r="L22" t="n">
         <v>28.32000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>10.7</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.081632653061246</v>
+        <v>-12.50000000000007</v>
       </c>
       <c r="L23" t="n">
         <v>28.34000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>10.8</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.8695652173913</v>
+        <v>30.43478260869561</v>
       </c>
       <c r="L24" t="n">
         <v>28.31000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>11.2</v>
       </c>
       <c r="K25" t="n">
-        <v>-17.02127659574469</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L25" t="n">
         <v>28.34</v>
@@ -1564,7 +1586,7 @@
         <v>11.4</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.49999999999999</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L26" t="n">
         <v>28.25</v>
@@ -1613,7 +1635,7 @@
         <v>11.9</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.128205128205155</v>
+        <v>-18.18181818181823</v>
       </c>
       <c r="L27" t="n">
         <v>28.2</v>
@@ -1662,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>7.042253521126759</v>
+        <v>-13.04347826086955</v>
       </c>
       <c r="L28" t="n">
         <v>28.17</v>
@@ -1711,7 +1733,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-8.823529411764722</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L29" t="n">
         <v>28.09999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>12.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-10.14492753623187</v>
+        <v>-13.04347826086955</v>
       </c>
       <c r="L30" t="n">
         <v>28.02999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>12.9</v>
       </c>
       <c r="K31" t="n">
-        <v>9.374999999999964</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="L31" t="n">
         <v>28.03999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="K32" t="n">
-        <v>7.692307692307693</v>
+        <v>-4.347826086956428</v>
       </c>
       <c r="L32" t="n">
         <v>28.06</v>
@@ -1911,7 +1933,7 @@
         <v>13.1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-13.04347826086959</v>
       </c>
       <c r="L33" t="n">
         <v>28.04</v>
@@ -1962,7 +1984,7 @@
         <v>13.6</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.03278688524592</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L34" t="n">
         <v>27.96</v>
@@ -2013,7 +2035,7 @@
         <v>14.2</v>
       </c>
       <c r="K35" t="n">
-        <v>8.771929824561399</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L35" t="n">
         <v>27.98</v>
@@ -2064,7 +2086,7 @@
         <v>15.3</v>
       </c>
       <c r="K36" t="n">
-        <v>-27.58620689655173</v>
+        <v>-35.29411764705878</v>
       </c>
       <c r="L36" t="n">
         <v>27.91</v>
@@ -2115,7 +2137,7 @@
         <v>16.2</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.12121212121212</v>
+        <v>-9.523809523809575</v>
       </c>
       <c r="L37" t="n">
         <v>27.88</v>
@@ -2166,7 +2188,7 @@
         <v>16.3</v>
       </c>
       <c r="K38" t="n">
-        <v>-12.12121212121212</v>
+        <v>-2.564102564102513</v>
       </c>
       <c r="L38" t="n">
         <v>27.83</v>
@@ -2217,7 +2239,7 @@
         <v>16.4</v>
       </c>
       <c r="K39" t="n">
-        <v>-10.44776119402989</v>
+        <v>2.564102564102513</v>
       </c>
       <c r="L39" t="n">
         <v>27.83</v>
@@ -2268,7 +2290,7 @@
         <v>16.4</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.090909090909111</v>
+        <v>-8.571428571428601</v>
       </c>
       <c r="L40" t="n">
         <v>27.84</v>
@@ -2319,7 +2341,7 @@
         <v>18</v>
       </c>
       <c r="K41" t="n">
-        <v>-23.07692307692308</v>
+        <v>-36.00000000000004</v>
       </c>
       <c r="L41" t="n">
         <v>27.65</v>
@@ -2370,7 +2392,7 @@
         <v>19.4</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.222222222222215</v>
+        <v>-4.761904761904779</v>
       </c>
       <c r="L42" t="n">
         <v>27.61</v>
@@ -2421,7 +2443,7 @@
         <v>19.7</v>
       </c>
       <c r="K43" t="n">
-        <v>-8.8888888888889</v>
+        <v>-1.639344262295107</v>
       </c>
       <c r="L43" t="n">
         <v>27.54999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>-22.33009708737866</v>
+        <v>-30.43478260869571</v>
       </c>
       <c r="L44" t="n">
         <v>27.4</v>
@@ -2523,7 +2545,7 @@
         <v>21.99999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>-9.259259259259268</v>
+        <v>-1.49253731343286</v>
       </c>
       <c r="L45" t="n">
         <v>27.27999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>22.29999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.587155963302756</v>
+        <v>-11.47540983606558</v>
       </c>
       <c r="L46" t="n">
         <v>27.29999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>22.29999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.615384615384622</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L47" t="n">
         <v>27.22999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>23.19999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.85714285714288</v>
+        <v>-23.52941176470587</v>
       </c>
       <c r="L48" t="n">
         <v>27.07999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>23.19999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.81481481481481</v>
+        <v>-23.52941176470587</v>
       </c>
       <c r="L49" t="n">
         <v>26.91999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>23.89999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.017543859649137</v>
+        <v>11.86440677966101</v>
       </c>
       <c r="L50" t="n">
         <v>26.82999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>24.09999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.928571428571438</v>
+        <v>-10.63829787234044</v>
       </c>
       <c r="L51" t="n">
         <v>26.91999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>24.39999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-10.52631578947372</v>
+        <v>-10.63829787234044</v>
       </c>
       <c r="L52" t="n">
         <v>26.83999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>24.79999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.82051282051283</v>
+        <v>13.51351351351353</v>
       </c>
       <c r="L53" t="n">
         <v>26.74999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>24.99999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.017543859649137</v>
+        <v>-6.666666666666651</v>
       </c>
       <c r="L54" t="n">
         <v>26.81999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>25.09999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.76146788990828</v>
+        <v>-21.4285714285714</v>
       </c>
       <c r="L55" t="n">
         <v>26.79</v>
@@ -3084,7 +3106,7 @@
         <v>25.39999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>-6.930693069306935</v>
+        <v>-29.03225806451614</v>
       </c>
       <c r="L56" t="n">
         <v>26.7</v>
@@ -3135,7 +3157,7 @@
         <v>25.39999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.39130434782609</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>26.61</v>
@@ -3186,7 +3208,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.278350515463954</v>
+        <v>21.4285714285714</v>
       </c>
       <c r="L58" t="n">
         <v>26.67</v>
@@ -3237,7 +3259,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.41666666666668</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L59" t="n">
         <v>26.73</v>
@@ -3288,7 +3310,7 @@
         <v>26.79999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>-17.30769230769231</v>
+        <v>-40.74074074074078</v>
       </c>
       <c r="L60" t="n">
         <v>26.64</v>
@@ -3339,7 +3361,7 @@
         <v>27.39999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>4.255319148936162</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>26.59</v>
@@ -3390,7 +3412,7 @@
         <v>27.79999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.142857142857127</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L62" t="n">
         <v>26.61</v>
@@ -3441,7 +3463,7 @@
         <v>27.99999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.024096385542175</v>
+        <v>6.666666666666651</v>
       </c>
       <c r="L63" t="n">
         <v>26.65</v>
@@ -3492,7 +3514,7 @@
         <v>28.49999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>5.405405405405393</v>
+        <v>-5.882352941176556</v>
       </c>
       <c r="L64" t="n">
         <v>26.62</v>
@@ -3543,7 +3565,7 @@
         <v>28.59999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-6.060606060606045</v>
+        <v>6.24999999999998</v>
       </c>
       <c r="L65" t="n">
         <v>26.61</v>
@@ -3594,7 +3616,7 @@
         <v>28.79999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.692307692307701</v>
+        <v>11.7647058823529</v>
       </c>
       <c r="L66" t="n">
         <v>26.65</v>
@@ -3645,7 +3667,7 @@
         <v>28.89999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.090909090909072</v>
+        <v>-10.3448275862068</v>
       </c>
       <c r="L67" t="n">
         <v>26.68</v>
@@ -3696,7 +3718,7 @@
         <v>29.29999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>-1.639344262295107</v>
+        <v>-21.21212121212119</v>
       </c>
       <c r="L68" t="n">
         <v>26.61</v>
@@ -3747,7 +3769,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>1.587301587301555</v>
+        <v>11.11111111111099</v>
       </c>
       <c r="L69" t="n">
         <v>26.56</v>
@@ -3798,7 +3820,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.084745762711881</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>26.61999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>30.19999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.639344262295048</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>26.66</v>
@@ -3900,7 +3922,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-10.44776119402984</v>
+        <v>-22.58064516129026</v>
       </c>
       <c r="L72" t="n">
         <v>26.56999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>31.19999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.124999999999988</v>
+        <v>-3.703703703703616</v>
       </c>
       <c r="L73" t="n">
         <v>26.51</v>
@@ -4002,7 +4024,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>-1.538461538461505</v>
+        <v>3.448275862069008</v>
       </c>
       <c r="L74" t="n">
         <v>26.53</v>
@@ -4053,7 +4075,7 @@
         <v>31.69999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>3.030303030303017</v>
+        <v>3.448275862069008</v>
       </c>
       <c r="L75" t="n">
         <v>26.56</v>
@@ -4104,7 +4126,7 @@
         <v>31.69999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>7.936507936507931</v>
+        <v>7.142857142857098</v>
       </c>
       <c r="L76" t="n">
         <v>26.57</v>
@@ -4155,7 +4177,7 @@
         <v>31.79999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>9.374999999999964</v>
+        <v>27.99999999999993</v>
       </c>
       <c r="L77" t="n">
         <v>26.6</v>
@@ -4206,7 +4228,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>4.91803278688525</v>
+        <v>30.76923076923069</v>
       </c>
       <c r="L78" t="n">
         <v>26.7</v>
@@ -4257,7 +4279,7 @@
         <v>32.3</v>
       </c>
       <c r="K79" t="n">
-        <v>7.936507936507923</v>
+        <v>27.99999999999985</v>
       </c>
       <c r="L79" t="n">
         <v>26.8</v>
@@ -4308,7 +4330,7 @@
         <v>32.7</v>
       </c>
       <c r="K80" t="n">
-        <v>28.81355932203379</v>
+        <v>27.99999999999982</v>
       </c>
       <c r="L80" t="n">
         <v>26.91</v>
@@ -4359,7 +4381,7 @@
         <v>33.5</v>
       </c>
       <c r="K81" t="n">
-        <v>4.918032786885242</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L81" t="n">
         <v>26.9</v>
@@ -4410,7 +4432,7 @@
         <v>33.6</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L82" t="n">
         <v>26.99</v>
@@ -4461,7 +4483,7 @@
         <v>33.7</v>
       </c>
       <c r="K83" t="n">
-        <v>5.263157894736839</v>
+        <v>27.27272727272705</v>
       </c>
       <c r="L83" t="n">
         <v>27.08</v>
@@ -4512,7 +4534,7 @@
         <v>33.8</v>
       </c>
       <c r="K84" t="n">
-        <v>13.20754716981135</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>27.13</v>
@@ -4563,7 +4585,7 @@
         <v>33.89999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>13.2075471698113</v>
+        <v>18.18181818181812</v>
       </c>
       <c r="L85" t="n">
         <v>27.17</v>
@@ -4614,7 +4636,7 @@
         <v>34.09999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>5.660377358490571</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L86" t="n">
         <v>27.19</v>
@@ -4665,7 +4687,7 @@
         <v>34.49999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-24.99999999999993</v>
       </c>
       <c r="L87" t="n">
         <v>27.16</v>
@@ -4716,7 +4738,7 @@
         <v>34.89999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571428</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L88" t="n">
         <v>27.14</v>
@@ -4767,7 +4789,7 @@
         <v>35.29999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>3.448275862069012</v>
+        <v>-46.15384615384636</v>
       </c>
       <c r="L89" t="n">
         <v>27.06000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>35.69999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>5.084745762711875</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>26.98000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>36.09999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-8.474576271186443</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L91" t="n">
         <v>26.94000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>36.29999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>3.846153846153833</v>
+        <v>-30.76923076923095</v>
       </c>
       <c r="L92" t="n">
         <v>26.87</v>
@@ -4971,7 +4993,7 @@
         <v>36.29999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>1.960784313725449</v>
+        <v>-28.00000000000019</v>
       </c>
       <c r="L93" t="n">
         <v>26.79</v>
@@ -5022,7 +5044,7 @@
         <v>36.89999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>7.407407407407383</v>
+        <v>-6.666666666666643</v>
       </c>
       <c r="L94" t="n">
         <v>26.78</v>
@@ -5073,7 +5095,7 @@
         <v>36.89999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>3.846153846153833</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>26.76</v>
@@ -5124,7 +5146,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>7.407407407407378</v>
+        <v>23.07692307692298</v>
       </c>
       <c r="L96" t="n">
         <v>26.78</v>
@@ -5175,7 +5197,7 @@
         <v>37.8</v>
       </c>
       <c r="K97" t="n">
-        <v>-6.666666666666635</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L97" t="n">
         <v>26.77</v>
@@ -5226,7 +5248,7 @@
         <v>38.5</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>18.74999999999988</v>
       </c>
       <c r="L98" t="n">
         <v>26.79</v>
@@ -5277,7 +5299,7 @@
         <v>38.6</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.587301587301553</v>
+        <v>10.34482758620688</v>
       </c>
       <c r="L99" t="n">
         <v>26.86</v>
@@ -5328,7 +5350,7 @@
         <v>38.6</v>
       </c>
       <c r="K100" t="n">
-        <v>-8.474576271186443</v>
+        <v>27.99999999999982</v>
       </c>
       <c r="L100" t="n">
         <v>26.89</v>
@@ -5379,7 +5401,7 @@
         <v>38.8</v>
       </c>
       <c r="K101" t="n">
-        <v>9.433962264150948</v>
+        <v>43.99999999999994</v>
       </c>
       <c r="L101" t="n">
         <v>26.98</v>
@@ -5430,7 +5452,7 @@
         <v>39</v>
       </c>
       <c r="K102" t="n">
-        <v>3.703703703703692</v>
+        <v>33.33333333333329</v>
       </c>
       <c r="L102" t="n">
         <v>27.07</v>
@@ -5481,7 +5503,7 @@
         <v>39.2</v>
       </c>
       <c r="K103" t="n">
-        <v>5.454545454545467</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L103" t="n">
         <v>27.18</v>
@@ -5532,7 +5554,7 @@
         <v>39.5</v>
       </c>
       <c r="K104" t="n">
-        <v>12.28070175438595</v>
+        <v>30.76923076923069</v>
       </c>
       <c r="L104" t="n">
         <v>27.26</v>
@@ -5583,7 +5605,7 @@
         <v>39.90000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>3.333333333333314</v>
+        <v>7.142857142857088</v>
       </c>
       <c r="L105" t="n">
         <v>27.3</v>
@@ -5634,7 +5656,7 @@
         <v>40</v>
       </c>
       <c r="K106" t="n">
-        <v>5.084745762711871</v>
+        <v>36.36363636363635</v>
       </c>
       <c r="L106" t="n">
         <v>27.31</v>
@@ -5685,7 +5707,7 @@
         <v>40</v>
       </c>
       <c r="K107" t="n">
-        <v>12.7272727272727</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L107" t="n">
         <v>27.39</v>
@@ -5736,7 +5758,7 @@
         <v>40.40000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-1.818181818181839</v>
+        <v>-22.22222222222229</v>
       </c>
       <c r="L108" t="n">
         <v>27.36</v>
@@ -5787,7 +5809,7 @@
         <v>40.7</v>
       </c>
       <c r="K109" t="n">
-        <v>11.11111111111104</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L109" t="n">
         <v>27.35</v>
@@ -5838,7 +5860,7 @@
         <v>41</v>
       </c>
       <c r="K110" t="n">
-        <v>9.433962264150923</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>27.37</v>
@@ -5889,7 +5911,7 @@
         <v>41.2</v>
       </c>
       <c r="K111" t="n">
-        <v>13.72549019607837</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>27.35</v>
@@ -5940,7 +5962,7 @@
         <v>41.60000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>9.43396226415091</v>
+        <v>-25</v>
       </c>
       <c r="L112" t="n">
         <v>27.31</v>
@@ -5991,7 +6013,7 @@
         <v>41.60000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>9.43396226415091</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L113" t="n">
         <v>27.24999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>42.00000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.80392156862742</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L114" t="n">
         <v>27.11999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>42.40000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.818181818181839</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L115" t="n">
         <v>27.06999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>42.90000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-13.79310344827585</v>
+        <v>-31.0344827586207</v>
       </c>
       <c r="L116" t="n">
         <v>26.97999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>43.40000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>7.142857142857107</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>26.93999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>43.60000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-9.803921568627434</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L118" t="n">
         <v>26.91999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>43.7</v>
       </c>
       <c r="K119" t="n">
-        <v>-13.72549019607841</v>
+        <v>-33.33333333333325</v>
       </c>
       <c r="L119" t="n">
         <v>26.85999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>43.8</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.53846153846158</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L120" t="n">
         <v>26.77999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>44</v>
       </c>
       <c r="K121" t="n">
-        <v>-19.23076923076922</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>26.69999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>44.2</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.53846153846156</v>
+        <v>-7.692307692307682</v>
       </c>
       <c r="L122" t="n">
         <v>26.67999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>44.2</v>
       </c>
       <c r="K123" t="n">
-        <v>-16.00000000000001</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L123" t="n">
         <v>26.65999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>44.3</v>
       </c>
       <c r="K124" t="n">
-        <v>-20.83333333333331</v>
+        <v>-5.263157894736733</v>
       </c>
       <c r="L124" t="n">
         <v>26.68999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>26.68999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>44.90000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>2.040816326530566</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>26.78999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>45.2</v>
       </c>
       <c r="K127" t="n">
-        <v>-3.84615384615383</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L127" t="n">
         <v>26.81</v>
@@ -6756,7 +6778,7 @@
         <v>45.3</v>
       </c>
       <c r="K128" t="n">
-        <v>2.040816326530642</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L128" t="n">
         <v>26.84</v>
@@ -6807,7 +6829,7 @@
         <v>45.60000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>2.040816326530639</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L129" t="n">
         <v>26.91</v>
@@ -6858,7 +6880,7 @@
         <v>45.60000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>-4.347826086956498</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L130" t="n">
         <v>26.97</v>
@@ -6909,7 +6931,7 @@
         <v>45.7</v>
       </c>
       <c r="K131" t="n">
-        <v>2.222222222222175</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L131" t="n">
         <v>27.06</v>
@@ -6960,7 +6982,7 @@
         <v>45.7</v>
       </c>
       <c r="K132" t="n">
-        <v>12.19512195121953</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L132" t="n">
         <v>27.13</v>
@@ -7011,7 +7033,7 @@
         <v>45.7</v>
       </c>
       <c r="K133" t="n">
-        <v>12.19512195121953</v>
+        <v>42.85714285714275</v>
       </c>
       <c r="L133" t="n">
         <v>27.2</v>
@@ -7062,7 +7084,7 @@
         <v>46</v>
       </c>
       <c r="K134" t="n">
-        <v>15.00000000000006</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L134" t="n">
         <v>27.23</v>
@@ -7113,7 +7135,7 @@
         <v>46.2</v>
       </c>
       <c r="K135" t="n">
-        <v>10.52631578947375</v>
+        <v>-7.692307692307546</v>
       </c>
       <c r="L135" t="n">
         <v>27.27</v>
@@ -7164,7 +7186,7 @@
         <v>46.3</v>
       </c>
       <c r="K136" t="n">
-        <v>29.41176470588243</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L136" t="n">
         <v>27.27</v>
@@ -7215,7 +7237,7 @@
         <v>47</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.555555555555545</v>
+        <v>-17.6470588235295</v>
       </c>
       <c r="L137" t="n">
         <v>27.23</v>
@@ -7266,7 +7288,7 @@
         <v>47.1</v>
       </c>
       <c r="K138" t="n">
-        <v>2.857142857142903</v>
+        <v>-33.33333333333349</v>
       </c>
       <c r="L138" t="n">
         <v>27.21</v>
@@ -7317,7 +7339,7 @@
         <v>47.2</v>
       </c>
       <c r="K139" t="n">
-        <v>2.857142857142796</v>
+        <v>-37.50000000000022</v>
       </c>
       <c r="L139" t="n">
         <v>27.15</v>
@@ -7368,7 +7390,7 @@
         <v>47.3</v>
       </c>
       <c r="K140" t="n">
-        <v>2.857142857142892</v>
+        <v>-37.49999999999984</v>
       </c>
       <c r="L140" t="n">
         <v>27.09999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>47.3</v>
       </c>
       <c r="K141" t="n">
-        <v>9.090909090909101</v>
+        <v>-37.49999999999984</v>
       </c>
       <c r="L141" t="n">
         <v>27.04</v>
@@ -7470,7 +7492,7 @@
         <v>47.3</v>
       </c>
       <c r="K142" t="n">
-        <v>3.225806451612947</v>
+        <v>-37.49999999999984</v>
       </c>
       <c r="L142" t="n">
         <v>26.98</v>
@@ -7521,7 +7543,7 @@
         <v>47.3</v>
       </c>
       <c r="K143" t="n">
-        <v>3.225806451612947</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L143" t="n">
         <v>26.92000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>47.3</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L144" t="n">
         <v>26.89</v>
@@ -7623,7 +7645,7 @@
         <v>47.5</v>
       </c>
       <c r="K145" t="n">
-        <v>3.225806451612955</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L145" t="n">
         <v>26.86</v>
@@ -7674,7 +7696,7 @@
         <v>47.6</v>
       </c>
       <c r="K146" t="n">
-        <v>-11.11111111111102</v>
+        <v>66.66666666666686</v>
       </c>
       <c r="L146" t="n">
         <v>26.83000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>47.8</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.692307692307796</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L147" t="n">
         <v>26.85</v>
@@ -7776,7 +7798,7 @@
         <v>47.8</v>
       </c>
       <c r="K148" t="n">
-        <v>-4.000000000000057</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L148" t="n">
         <v>26.86</v>
@@ -7827,7 +7849,7 @@
         <v>48.00000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>-8.333333333333309</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L149" t="n">
         <v>26.90000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>48.20000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-15.38461538461546</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L150" t="n">
         <v>26.91</v>
@@ -7929,7 +7951,7 @@
         <v>48.30000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-23.07692307692292</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>26.91</v>
@@ -7980,7 +8002,7 @@
         <v>48.40000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-25.9259259259258</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L152" t="n">
         <v>26.9</v>
@@ -8031,7 +8053,7 @@
         <v>48.80000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-35.48387096774177</v>
+        <v>-33.33333333333318</v>
       </c>
       <c r="L153" t="n">
         <v>26.85</v>
@@ -8082,7 +8104,7 @@
         <v>48.80000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-28.57142857142848</v>
+        <v>-53.84615384615332</v>
       </c>
       <c r="L154" t="n">
         <v>26.8</v>
@@ -8133,7 +8155,7 @@
         <v>49.70000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-2.857142857142892</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L155" t="n">
         <v>26.82</v>
@@ -8184,7 +8206,7 @@
         <v>50.50000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>-23.80952380952371</v>
+        <v>-18.51851851851845</v>
       </c>
       <c r="L156" t="n">
         <v>26.74999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-13.51351351351345</v>
+        <v>-24.13793103448263</v>
       </c>
       <c r="L157" t="n">
         <v>26.68</v>
@@ -8286,7 +8308,7 @@
         <v>50.90000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-10.52631578947369</v>
+        <v>-24.13793103448275</v>
       </c>
       <c r="L158" t="n">
         <v>26.63</v>
@@ -8337,7 +8359,7 @@
         <v>51.10000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>-12.82051282051276</v>
+        <v>-24.13793103448263</v>
       </c>
       <c r="L159" t="n">
         <v>26.53999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>51.80000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>2.222222222222165</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L160" t="n">
         <v>26.53999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>52.30000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>-8.000000000000009</v>
+        <v>-7.692307692307685</v>
       </c>
       <c r="L161" t="n">
         <v>26.49999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>52.30000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>-8.000000000000009</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L162" t="n">
         <v>26.46999999999999</v>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.599999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.799999999999997</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.399999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.100000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.900000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>28.58000000000001</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-17.85714285714285</v>
-      </c>
-      <c r="L12" t="n">
-        <v>28.39000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.899999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-24.52830188679246</v>
-      </c>
-      <c r="L13" t="n">
-        <v>28.33000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-15.78947368421049</v>
-      </c>
-      <c r="L14" t="n">
-        <v>28.26000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-5.882352941176413</v>
-      </c>
-      <c r="L15" t="n">
-        <v>28.07000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>28.14000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9.599999999999998</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19.14893617021275</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28.15000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.699999999999996</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.43902439024394</v>
-      </c>
-      <c r="L18" t="n">
-        <v>28.23000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9.699999999999996</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.43902439024394</v>
-      </c>
-      <c r="L19" t="n">
-        <v>28.24000000000002</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>9.799999999999997</v>
-      </c>
-      <c r="K20" t="n">
-        <v>27.27272727272726</v>
-      </c>
-      <c r="L20" t="n">
-        <v>28.24000000000002</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13.51351351351353</v>
-      </c>
-      <c r="L21" t="n">
-        <v>28.29000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>28.43500000000001</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-2.857142857142898</v>
-      </c>
-      <c r="L22" t="n">
-        <v>28.32000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>28.35500000000001</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-12.50000000000007</v>
-      </c>
-      <c r="L23" t="n">
-        <v>28.34000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>28.33500000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>30.43478260869561</v>
-      </c>
-      <c r="L24" t="n">
-        <v>28.31000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>28.28500000000001</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L25" t="n">
-        <v>28.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>28.20500000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-55.55555555555542</v>
-      </c>
-      <c r="L26" t="n">
-        <v>28.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>28.19500000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-18.18181818181823</v>
-      </c>
-      <c r="L27" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>28.17500000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>12</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-13.04347826086955</v>
-      </c>
-      <c r="L28" t="n">
-        <v>28.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>28.20000000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12.40000000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-23.07692307692306</v>
-      </c>
-      <c r="L29" t="n">
-        <v>28.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>28.17000000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="J30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-13.04347826086955</v>
-      </c>
-      <c r="L30" t="n">
-        <v>28.02999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>28.13500000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J31" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12.00000000000001</v>
-      </c>
-      <c r="L31" t="n">
-        <v>28.03999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>28.16500000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>28.30333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>13</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-4.347826086956428</v>
-      </c>
-      <c r="L32" t="n">
-        <v>28.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>28.19000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>28.25666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-13.04347826086959</v>
-      </c>
-      <c r="L33" t="n">
-        <v>28.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>28.19000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>28.23666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L34" t="n">
-        <v>27.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>28.13500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>28.17666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>14.28571428571436</v>
-      </c>
-      <c r="L35" t="n">
-        <v>27.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>28.16000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>28.13000000000001</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-35.29411764705878</v>
-      </c>
-      <c r="L36" t="n">
-        <v>27.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>28.08000000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>28.10000000000001</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J37" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-9.523809523809575</v>
-      </c>
-      <c r="L37" t="n">
-        <v>27.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>28.07666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-2.564102564102513</v>
-      </c>
-      <c r="L38" t="n">
-        <v>27.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>28</v>
-      </c>
-      <c r="N38" t="n">
-        <v>28.07666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.564102564102513</v>
-      </c>
-      <c r="L39" t="n">
-        <v>27.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>27.965</v>
-      </c>
-      <c r="N39" t="n">
-        <v>28.05666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="J40" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-8.571428571428601</v>
-      </c>
-      <c r="L40" t="n">
-        <v>27.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>27.935</v>
-      </c>
-      <c r="N40" t="n">
-        <v>28.03666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>18</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-36.00000000000004</v>
-      </c>
-      <c r="L41" t="n">
-        <v>27.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>27.84499999999999</v>
-      </c>
-      <c r="N41" t="n">
-        <v>27.99333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="J42" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-4.761904761904779</v>
-      </c>
-      <c r="L42" t="n">
-        <v>27.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>27.835</v>
-      </c>
-      <c r="N42" t="n">
-        <v>27.99666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="J43" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-1.639344262295107</v>
-      </c>
-      <c r="L43" t="n">
-        <v>27.54999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>27.79499999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>27.97666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>21.09999999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-30.43478260869571</v>
-      </c>
-      <c r="L44" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="N44" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J45" t="n">
-        <v>21.99999999999999</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-1.49253731343286</v>
-      </c>
-      <c r="L45" t="n">
-        <v>27.27999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="N45" t="n">
-        <v>27.86666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J46" t="n">
-        <v>22.29999999999999</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-11.47540983606558</v>
-      </c>
-      <c r="L46" t="n">
-        <v>27.29999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>27.605</v>
-      </c>
-      <c r="N46" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J47" t="n">
-        <v>22.29999999999999</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-10.00000000000004</v>
-      </c>
-      <c r="L47" t="n">
-        <v>27.22999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>27.555</v>
-      </c>
-      <c r="N47" t="n">
-        <v>27.77</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>23.19999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-23.52941176470587</v>
-      </c>
-      <c r="L48" t="n">
-        <v>27.07999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>27.45499999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>27.69333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>23.19999999999999</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-23.52941176470587</v>
-      </c>
-      <c r="L49" t="n">
-        <v>26.91999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>27.37499999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>27.61666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>23.89999999999999</v>
-      </c>
-      <c r="K50" t="n">
-        <v>11.86440677966101</v>
-      </c>
-      <c r="L50" t="n">
-        <v>26.82999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>27.335</v>
-      </c>
-      <c r="N50" t="n">
-        <v>27.56666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>24.09999999999999</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-10.63829787234044</v>
-      </c>
-      <c r="L51" t="n">
-        <v>26.91999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>27.285</v>
-      </c>
-      <c r="N51" t="n">
-        <v>27.53666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>24.39999999999999</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-10.63829787234044</v>
-      </c>
-      <c r="L52" t="n">
-        <v>26.83999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>27.22499999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>27.50333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>24.79999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>13.51351351351353</v>
-      </c>
-      <c r="L53" t="n">
-        <v>26.74999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="N53" t="n">
-        <v>27.44666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J54" t="n">
-        <v>24.99999999999999</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-6.666666666666651</v>
-      </c>
-      <c r="L54" t="n">
-        <v>26.81999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="N54" t="n">
-        <v>27.39333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.899999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>25.09999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-21.4285714285714</v>
-      </c>
-      <c r="L55" t="n">
-        <v>26.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>27.035</v>
-      </c>
-      <c r="N55" t="n">
-        <v>27.35</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>25.39999999999999</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-29.03225806451614</v>
-      </c>
-      <c r="L56" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>26.99999999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>27.30333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>25.39999999999999</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>26.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>26.91999999999999</v>
-      </c>
-      <c r="N57" t="n">
-        <v>27.23999999999999</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>25.99999999999999</v>
-      </c>
-      <c r="K58" t="n">
-        <v>21.4285714285714</v>
-      </c>
-      <c r="L58" t="n">
-        <v>26.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>26.87499999999999</v>
-      </c>
-      <c r="N58" t="n">
-        <v>27.19333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J59" t="n">
-        <v>25.99999999999999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-4.761904761904842</v>
-      </c>
-      <c r="L59" t="n">
-        <v>26.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>26.825</v>
-      </c>
-      <c r="N59" t="n">
-        <v>27.15999999999999</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-3.399999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>26.79999999999998</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-40.74074074074078</v>
-      </c>
-      <c r="L60" t="n">
-        <v>26.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>26.735</v>
-      </c>
-      <c r="N60" t="n">
-        <v>27.10333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>27.39999999999998</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L61" t="n">
-        <v>26.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>26.755</v>
-      </c>
-      <c r="N61" t="n">
-        <v>27.05333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2551,21 @@
         <v>27.63833333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-2.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>27.79999999999998</v>
-      </c>
-      <c r="K62" t="n">
-        <v>20.0000000000001</v>
-      </c>
-      <c r="L62" t="n">
-        <v>26.61</v>
+        <v>26.6</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>26.725</v>
-      </c>
-      <c r="N62" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2592,21 @@
         <v>27.61</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-2.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>27.99999999999999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.666666666666651</v>
-      </c>
-      <c r="L63" t="n">
-        <v>26.65</v>
+        <v>26.4</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="N63" t="n">
-        <v>26.98333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2636,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>28.49999999999999</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-5.882352941176556</v>
-      </c>
-      <c r="L64" t="n">
-        <v>26.62</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="N64" t="n">
-        <v>26.94666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2672,21 @@
         <v>27.51166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>28.59999999999999</v>
-      </c>
-      <c r="K65" t="n">
-        <v>6.24999999999998</v>
-      </c>
-      <c r="L65" t="n">
-        <v>26.61</v>
+        <v>26.5</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="N65" t="n">
-        <v>26.89333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2713,21 @@
         <v>27.49166666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-2.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>28.79999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11.7647058823529</v>
-      </c>
-      <c r="L66" t="n">
-        <v>26.65</v>
+        <v>26.6</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>26.675</v>
-      </c>
-      <c r="N66" t="n">
-        <v>26.88333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2754,21 @@
         <v>27.45833333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>28.89999999999998</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-10.3448275862068</v>
-      </c>
-      <c r="L67" t="n">
-        <v>26.68</v>
+        <v>26.7</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>26.645</v>
-      </c>
-      <c r="N67" t="n">
-        <v>26.84</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2795,21 @@
         <v>27.43166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-3.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>29.29999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-21.21212121212119</v>
-      </c>
-      <c r="L68" t="n">
-        <v>26.61</v>
+        <v>26.2</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>26.64</v>
-      </c>
-      <c r="N68" t="n">
-        <v>26.78666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2836,21 @@
         <v>27.39666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-3.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>29.49999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>11.11111111111099</v>
-      </c>
-      <c r="L69" t="n">
-        <v>26.56</v>
+        <v>26.4</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>26.645</v>
-      </c>
-      <c r="N69" t="n">
-        <v>26.73666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2877,21 @@
         <v>27.36666666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-2.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>29.79999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>26.61999999999999</v>
+        <v>26.7</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>26.63000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>26.69666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2918,21 @@
         <v>27.35833333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>30.19999999999999</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>26.66</v>
+        <v>26.2</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>26.62500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>26.72333333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2959,21 @@
         <v>27.33500000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-3.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>31.09999999999999</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-22.58064516129026</v>
-      </c>
-      <c r="L72" t="n">
-        <v>26.56999999999999</v>
+        <v>26.2</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>26.59000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>26.67333333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3000,21 @@
         <v>27.30666666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-3.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>31.19999999999999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-3.703703703703616</v>
-      </c>
-      <c r="L73" t="n">
-        <v>26.51</v>
+        <v>26.2</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>26.58000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>26.63666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3041,21 @@
         <v>27.27333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>31.49999999999999</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.448275862069008</v>
-      </c>
-      <c r="L74" t="n">
-        <v>26.53</v>
+        <v>26.6</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>26.57500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>26.65666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3082,21 @@
         <v>27.26000000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-2.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>31.69999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.448275862069008</v>
-      </c>
-      <c r="L75" t="n">
-        <v>26.56</v>
+        <v>26.4</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>26.585</v>
-      </c>
-      <c r="N75" t="n">
-        <v>26.65333333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3123,21 @@
         <v>27.23000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-2.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>31.69999999999999</v>
-      </c>
-      <c r="K76" t="n">
-        <v>7.142857142857098</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26.57</v>
+        <v>26.8</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="N76" t="n">
-        <v>26.64</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3164,21 @@
         <v>27.20000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-2.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>31.79999999999999</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27.99999999999993</v>
-      </c>
-      <c r="L77" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>26.64</v>
-      </c>
-      <c r="N77" t="n">
-        <v>26.63</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3205,21 @@
         <v>27.17666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-2.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>32.09999999999999</v>
-      </c>
-      <c r="K78" t="n">
-        <v>30.76923076923069</v>
-      </c>
-      <c r="L78" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>26.65500000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>26.66</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3246,21 @@
         <v>27.15666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-2.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K79" t="n">
-        <v>27.99999999999985</v>
-      </c>
-      <c r="L79" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>26.68000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>26.69666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3287,21 @@
         <v>27.14500000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>27.99999999999982</v>
-      </c>
-      <c r="L80" t="n">
-        <v>26.91</v>
+        <v>27.8</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>26.765</v>
-      </c>
-      <c r="N80" t="n">
-        <v>26.72333333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3331,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>33.33333333333324</v>
-      </c>
-      <c r="L81" t="n">
-        <v>26.9</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="N81" t="n">
-        <v>26.71666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3370,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>33.33333333333324</v>
-      </c>
-      <c r="L82" t="n">
-        <v>26.99</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="N82" t="n">
-        <v>26.72333333333334</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3409,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J83" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K83" t="n">
-        <v>27.27272727272705</v>
-      </c>
-      <c r="L83" t="n">
-        <v>27.08</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>26.79500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>26.74666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3448,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="J84" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K84" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L84" t="n">
-        <v>27.13</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>26.83000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3487,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J85" t="n">
-        <v>33.89999999999999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>18.18181818181812</v>
-      </c>
-      <c r="L85" t="n">
-        <v>27.17</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>26.86500000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3526,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>34.09999999999999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4.347826086956576</v>
-      </c>
-      <c r="L86" t="n">
-        <v>27.19</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>26.88000000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>26.80333333333334</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3565,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-2.899999999999999</v>
-      </c>
-      <c r="J87" t="n">
-        <v>34.49999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-24.99999999999993</v>
-      </c>
-      <c r="L87" t="n">
-        <v>27.16</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>26.88000000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>26.81333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3604,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>34.89999999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-15.38461538461536</v>
-      </c>
-      <c r="L88" t="n">
-        <v>27.14</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>26.92000000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>26.81666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3643,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.899999999999999</v>
-      </c>
-      <c r="J89" t="n">
-        <v>35.29999999999999</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-46.15384615384636</v>
-      </c>
-      <c r="L89" t="n">
-        <v>27.06000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>26.93000000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>26.80666666666668</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3682,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>35.69999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>26.98000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>26.945</v>
-      </c>
-      <c r="N90" t="n">
-        <v>26.83666666666668</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3718,21 @@
         <v>26.94333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>36.09999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-20.00000000000011</v>
-      </c>
-      <c r="L91" t="n">
-        <v>26.94000000000001</v>
+        <v>26.6</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>26.92000000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>26.83333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3762,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>36.29999999999999</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-30.76923076923095</v>
-      </c>
-      <c r="L92" t="n">
-        <v>26.87</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="N92" t="n">
-        <v>26.81000000000001</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3798,21 @@
         <v>26.88833333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-3.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>36.29999999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-28.00000000000019</v>
-      </c>
-      <c r="L93" t="n">
-        <v>26.79</v>
+        <v>26.4</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>26.935</v>
-      </c>
-      <c r="N93" t="n">
-        <v>26.79333333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3839,21 @@
         <v>26.88000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>36.89999999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-6.666666666666643</v>
-      </c>
-      <c r="L94" t="n">
-        <v>26.78</v>
+        <v>27</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>26.955</v>
-      </c>
-      <c r="N94" t="n">
-        <v>26.81333333333334</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3880,21 @@
         <v>26.86166666666668</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>36.89999999999999</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>26.76</v>
+        <v>27</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>26.965</v>
-      </c>
-      <c r="N95" t="n">
-        <v>26.83000000000001</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,33 +3921,21 @@
         <v>26.86500000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>37.09999999999999</v>
-      </c>
-      <c r="K96" t="n">
-        <v>23.07692307692298</v>
-      </c>
-      <c r="L96" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="M96" t="n">
-        <v>26.98500000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>26.84666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
-        <v>1</v>
-      </c>
+        <v>27.2</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5188,31 +3960,23 @@
         <v>26.84166666666668</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>37.8</v>
+        <v>26.7</v>
       </c>
       <c r="K97" t="n">
-        <v>-17.24137931034479</v>
-      </c>
-      <c r="L97" t="n">
-        <v>26.77</v>
+        <v>27.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>26.96500000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>26.84333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4006,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J98" t="n">
-        <v>38.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>18.74999999999988</v>
-      </c>
-      <c r="L98" t="n">
-        <v>26.79</v>
+        <v>27.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>26.96500000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>26.87666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4044,23 @@
         <v>26.82166666666668</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-2.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>38.6</v>
+        <v>26.5</v>
       </c>
       <c r="K99" t="n">
-        <v>10.34482758620688</v>
-      </c>
-      <c r="L99" t="n">
-        <v>26.86</v>
+        <v>27.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>26.96000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>26.90666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4090,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>38.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>27.99999999999982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>26.89</v>
+        <v>27.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>26.93500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>26.92666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4131,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>38.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>43.99999999999994</v>
-      </c>
-      <c r="L101" t="n">
-        <v>26.98</v>
+        <v>27.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>26.96000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>26.94</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4172,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J102" t="n">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>33.33333333333329</v>
-      </c>
-      <c r="L102" t="n">
-        <v>27.07</v>
+        <v>27.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>26.97000000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>26.97666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4213,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>39.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>21.7391304347825</v>
-      </c>
-      <c r="L103" t="n">
-        <v>27.18</v>
+        <v>27.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>26.985</v>
-      </c>
-      <c r="N103" t="n">
-        <v>27.01666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4254,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="J104" t="n">
-        <v>39.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>30.76923076923069</v>
-      </c>
-      <c r="L104" t="n">
-        <v>27.26</v>
+        <v>27.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="N104" t="n">
-        <v>27.05666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4295,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="J105" t="n">
-        <v>39.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>7.142857142857088</v>
-      </c>
-      <c r="L105" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>27.02999999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>27.07666666666666</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4336,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J106" t="n">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>36.36363636363635</v>
-      </c>
-      <c r="L106" t="n">
-        <v>27.31</v>
+        <v>27.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>27.04499999999999</v>
-      </c>
-      <c r="N106" t="n">
-        <v>27.09333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4377,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J107" t="n">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L107" t="n">
-        <v>27.39</v>
+        <v>27.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>27.07999999999999</v>
-      </c>
-      <c r="N107" t="n">
-        <v>27.10666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,29 +4418,19 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J108" t="n">
-        <v>40.40000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>-22.22222222222229</v>
-      </c>
-      <c r="L108" t="n">
-        <v>27.36</v>
+        <v>27.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>27.07499999999999</v>
-      </c>
-      <c r="N108" t="n">
-        <v>27.09666666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
+        <v>0.983970588235294</v>
       </c>
     </row>
     <row r="109">
@@ -5803,28 +4459,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J109" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-4.761904761904826</v>
-      </c>
-      <c r="L109" t="n">
-        <v>27.35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>27.10499999999999</v>
-      </c>
-      <c r="N109" t="n">
-        <v>27.09</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4494,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>41</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>27.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>27.12999999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4529,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J111" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>27.35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>27.16499999999998</v>
-      </c>
-      <c r="N111" t="n">
-        <v>27.09</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4564,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J112" t="n">
-        <v>41.60000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L112" t="n">
-        <v>27.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>27.18999999999999</v>
-      </c>
-      <c r="N112" t="n">
-        <v>27.08333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4599,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>41.60000000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-42.85714285714278</v>
-      </c>
-      <c r="L113" t="n">
-        <v>27.24999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>27.21499999999999</v>
-      </c>
-      <c r="N113" t="n">
-        <v>27.07333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4634,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>42.00000000000001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-42.85714285714276</v>
-      </c>
-      <c r="L114" t="n">
-        <v>27.11999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>27.18999999999999</v>
-      </c>
-      <c r="N114" t="n">
-        <v>27.05333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4669,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J115" t="n">
-        <v>42.40000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-16.66666666666671</v>
-      </c>
-      <c r="L115" t="n">
-        <v>27.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>27.18499999999998</v>
-      </c>
-      <c r="N115" t="n">
-        <v>27.04333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4704,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J116" t="n">
-        <v>42.90000000000001</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-31.0344827586207</v>
-      </c>
-      <c r="L116" t="n">
-        <v>26.97999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>27.14499999999998</v>
-      </c>
-      <c r="N116" t="n">
-        <v>27.02333333333332</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4739,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J117" t="n">
-        <v>43.40000000000001</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>26.93999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>27.16499999999998</v>
-      </c>
-      <c r="N117" t="n">
-        <v>27.03333333333332</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4774,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J118" t="n">
-        <v>43.60000000000001</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-17.24137931034479</v>
-      </c>
-      <c r="L118" t="n">
-        <v>26.91999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>27.13999999999998</v>
-      </c>
-      <c r="N118" t="n">
-        <v>27.02333333333332</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,31 +4806,21 @@
         <v>26.91500000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-2.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-33.33333333333325</v>
-      </c>
-      <c r="L119" t="n">
-        <v>26.85999999999999</v>
+        <v>26.4</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>27.10499999999998</v>
-      </c>
-      <c r="N119" t="n">
-        <v>27.02333333333332</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6361,31 +4847,21 @@
         <v>26.92500000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-2.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-23.07692307692318</v>
-      </c>
-      <c r="L120" t="n">
-        <v>26.77999999999999</v>
+        <v>26.7</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>27.07499999999999</v>
-      </c>
-      <c r="N120" t="n">
-        <v>27.01333333333332</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,31 +4888,21 @@
         <v>26.92166666666668</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>44</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L121" t="n">
-        <v>26.69999999999999</v>
+        <v>26.5</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>27.02499999999999</v>
-      </c>
-      <c r="N121" t="n">
-        <v>27.00999999999999</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,31 +4929,21 @@
         <v>26.91500000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-2.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-7.692307692307682</v>
-      </c>
-      <c r="L122" t="n">
-        <v>26.67999999999999</v>
+        <v>26.4</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>26.99499999999999</v>
-      </c>
-      <c r="N122" t="n">
-        <v>27.01999999999999</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,31 +4970,21 @@
         <v>26.91166666666668</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-2.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9.090909090909076</v>
-      </c>
-      <c r="L123" t="n">
-        <v>26.65999999999999</v>
+        <v>26.7</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>26.95499999999999</v>
-      </c>
-      <c r="N123" t="n">
-        <v>27.02999999999999</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,31 +5011,21 @@
         <v>26.91833333333334</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-2.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-5.263157894736733</v>
-      </c>
-      <c r="L124" t="n">
-        <v>26.68999999999999</v>
+        <v>26.8</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>26.90499999999999</v>
-      </c>
-      <c r="N124" t="n">
-        <v>27.02333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6616,31 +5052,21 @@
         <v>26.92500000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-2.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>44.40000000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>26.68999999999999</v>
+        <v>26.8</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="N125" t="n">
-        <v>27.01999999999999</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +5093,21 @@
         <v>26.93666666666668</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-2.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>44.90000000000001</v>
-      </c>
-      <c r="K126" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>26.78999999999999</v>
+        <v>27.4</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>26.885</v>
-      </c>
-      <c r="N126" t="n">
-        <v>27.02666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,31 +5134,21 @@
         <v>26.94500000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>-2.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="K127" t="n">
-        <v>25.00000000000022</v>
-      </c>
-      <c r="L127" t="n">
-        <v>26.81</v>
+        <v>26.6</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>26.875</v>
-      </c>
-      <c r="N127" t="n">
-        <v>27.04666666666666</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5178,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J128" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="K128" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L128" t="n">
-        <v>26.84</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="N128" t="n">
-        <v>27.03999999999999</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6820,31 +5214,21 @@
         <v>26.97333333333334</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-2.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>45.60000000000001</v>
-      </c>
-      <c r="K129" t="n">
-        <v>33.3333333333332</v>
-      </c>
-      <c r="L129" t="n">
-        <v>26.91</v>
+        <v>27.3</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>26.885</v>
-      </c>
-      <c r="N129" t="n">
-        <v>27.03999999999999</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,31 +5255,21 @@
         <v>26.98333333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-2.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>45.60000000000001</v>
-      </c>
-      <c r="K130" t="n">
-        <v>49.99999999999978</v>
-      </c>
-      <c r="L130" t="n">
-        <v>26.97</v>
+        <v>27.3</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>26.87499999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>27.03999999999999</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5299,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="J131" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K131" t="n">
-        <v>46.66666666666661</v>
-      </c>
-      <c r="L131" t="n">
-        <v>27.06</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="N131" t="n">
-        <v>27.03666666666665</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5338,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="J132" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K132" t="n">
-        <v>46.66666666666661</v>
-      </c>
-      <c r="L132" t="n">
-        <v>27.13</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>26.90499999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>27.03999999999999</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5377,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="J133" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K133" t="n">
-        <v>42.85714285714275</v>
-      </c>
-      <c r="L133" t="n">
-        <v>27.2</v>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="N133" t="n">
-        <v>27.03666666666665</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5416,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="J134" t="n">
-        <v>46</v>
-      </c>
-      <c r="K134" t="n">
-        <v>12.50000000000022</v>
-      </c>
-      <c r="L134" t="n">
-        <v>27.23</v>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="N134" t="n">
-        <v>27.01333333333332</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5455,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-7.692307692307546</v>
-      </c>
-      <c r="L135" t="n">
-        <v>27.27</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="N135" t="n">
-        <v>27.00999999999999</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5494,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K136" t="n">
-        <v>27.27272727272715</v>
-      </c>
-      <c r="L136" t="n">
-        <v>27.27</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>27.02999999999999</v>
-      </c>
-      <c r="N136" t="n">
-        <v>27.01333333333332</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5533,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>47</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-17.6470588235295</v>
-      </c>
-      <c r="L137" t="n">
-        <v>27.23</v>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="N137" t="n">
-        <v>26.99333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5572,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J138" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-33.33333333333349</v>
-      </c>
-      <c r="L138" t="n">
-        <v>27.21</v>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>27.025</v>
-      </c>
-      <c r="N138" t="n">
-        <v>26.98999999999999</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5611,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J139" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-37.50000000000022</v>
-      </c>
-      <c r="L139" t="n">
-        <v>27.15</v>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>27.02999999999999</v>
-      </c>
-      <c r="N139" t="n">
-        <v>26.97333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5650,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J140" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-37.49999999999984</v>
-      </c>
-      <c r="L140" t="n">
-        <v>27.09999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>27.03499999999999</v>
-      </c>
-      <c r="N140" t="n">
-        <v>26.94999999999999</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,1099 +5689,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J141" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-37.49999999999984</v>
-      </c>
-      <c r="L141" t="n">
-        <v>27.04</v>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>27.04999999999999</v>
-      </c>
-      <c r="N141" t="n">
-        <v>26.93333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>186.567</v>
-      </c>
-      <c r="G142" t="n">
-        <v>27.00666666666668</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J142" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-37.49999999999984</v>
-      </c>
-      <c r="L142" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="M142" t="n">
-        <v>27.05499999999999</v>
-      </c>
-      <c r="N142" t="n">
-        <v>26.92999999999999</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>27470.9701</v>
-      </c>
-      <c r="G143" t="n">
-        <v>27.00000000000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J143" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-23.07692307692306</v>
-      </c>
-      <c r="L143" t="n">
-        <v>26.92000000000001</v>
-      </c>
-      <c r="M143" t="n">
-        <v>27.05999999999998</v>
-      </c>
-      <c r="N143" t="n">
-        <v>26.92666666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>863.8312</v>
-      </c>
-      <c r="G144" t="n">
-        <v>26.99500000000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J144" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-45.4545454545454</v>
-      </c>
-      <c r="L144" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="M144" t="n">
-        <v>27.05999999999998</v>
-      </c>
-      <c r="N144" t="n">
-        <v>26.93666666666666</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>26.99166666666668</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J145" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L145" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="M145" t="n">
-        <v>27.06499999999998</v>
-      </c>
-      <c r="N145" t="n">
-        <v>26.93999999999999</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
-      <c r="G146" t="n">
-        <v>26.99333333333334</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="J146" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="K146" t="n">
-        <v>66.66666666666686</v>
-      </c>
-      <c r="L146" t="n">
-        <v>26.83000000000001</v>
-      </c>
-      <c r="M146" t="n">
-        <v>27.04999999999998</v>
-      </c>
-      <c r="N146" t="n">
-        <v>26.96333333333332</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4455.7663</v>
-      </c>
-      <c r="G147" t="n">
-        <v>26.99833333333335</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J147" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K147" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L147" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="M147" t="n">
-        <v>27.03999999999998</v>
-      </c>
-      <c r="N147" t="n">
-        <v>26.96333333333332</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>36900.3689</v>
-      </c>
-      <c r="G148" t="n">
-        <v>26.99666666666668</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J148" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K148" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L148" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="M148" t="n">
-        <v>27.03499999999998</v>
-      </c>
-      <c r="N148" t="n">
-        <v>26.96999999999999</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>74.82470000000001</v>
-      </c>
-      <c r="G149" t="n">
-        <v>27.00500000000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="J149" t="n">
-        <v>48.00000000000001</v>
-      </c>
-      <c r="K149" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L149" t="n">
-        <v>26.90000000000001</v>
-      </c>
-      <c r="M149" t="n">
-        <v>27.02499999999998</v>
-      </c>
-      <c r="N149" t="n">
-        <v>26.98666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1714.98</v>
-      </c>
-      <c r="G150" t="n">
-        <v>27.00333333333335</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J150" t="n">
-        <v>48.20000000000001</v>
-      </c>
-      <c r="K150" t="n">
-        <v>11.1111111111108</v>
-      </c>
-      <c r="L150" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="M150" t="n">
-        <v>27.00499999999998</v>
-      </c>
-      <c r="N150" t="n">
-        <v>26.99333333333332</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1002.3059</v>
-      </c>
-      <c r="G151" t="n">
-        <v>27.00666666666668</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="J151" t="n">
-        <v>48.30000000000001</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="M151" t="n">
-        <v>26.97499999999998</v>
-      </c>
-      <c r="N151" t="n">
-        <v>27.00333333333332</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>29749.8127</v>
-      </c>
-      <c r="G152" t="n">
-        <v>27.01166666666668</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J152" t="n">
-        <v>48.40000000000001</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-9.09090909090915</v>
-      </c>
-      <c r="L152" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="M152" t="n">
-        <v>26.93999999999999</v>
-      </c>
-      <c r="N152" t="n">
-        <v>27.00333333333332</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>27.01000000000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J153" t="n">
-        <v>48.80000000000001</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-33.33333333333318</v>
-      </c>
-      <c r="L153" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="M153" t="n">
-        <v>26.88499999999998</v>
-      </c>
-      <c r="N153" t="n">
-        <v>26.98999999999998</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F154" t="n">
-        <v>18419.845</v>
-      </c>
-      <c r="G154" t="n">
-        <v>26.99833333333335</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="J154" t="n">
-        <v>48.80000000000001</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-53.84615384615332</v>
-      </c>
-      <c r="L154" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="M154" t="n">
-        <v>26.84499999999998</v>
-      </c>
-      <c r="N154" t="n">
-        <v>26.97333333333331</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7767.9418</v>
-      </c>
-      <c r="G155" t="n">
-        <v>27.00166666666668</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>49.70000000000001</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4.761904761904641</v>
-      </c>
-      <c r="L155" t="n">
-        <v>26.82</v>
-      </c>
-      <c r="M155" t="n">
-        <v>26.83999999999999</v>
-      </c>
-      <c r="N155" t="n">
-        <v>26.98333333333332</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>26.98833333333335</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J156" t="n">
-        <v>50.50000000000001</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-18.51851851851845</v>
-      </c>
-      <c r="L156" t="n">
-        <v>26.74999999999999</v>
-      </c>
-      <c r="M156" t="n">
-        <v>26.78999999999998</v>
-      </c>
-      <c r="N156" t="n">
-        <v>26.94999999999999</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F157" t="n">
-        <v>143712.4117</v>
-      </c>
-      <c r="G157" t="n">
-        <v>26.98333333333335</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>-3.300000000000001</v>
-      </c>
-      <c r="J157" t="n">
-        <v>50.70000000000002</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-24.13793103448263</v>
-      </c>
-      <c r="L157" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="M157" t="n">
-        <v>26.76499999999999</v>
-      </c>
-      <c r="N157" t="n">
-        <v>26.91999999999998</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E158" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3455.0943</v>
-      </c>
-      <c r="G158" t="n">
-        <v>26.97000000000002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J158" t="n">
-        <v>50.90000000000002</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-24.13793103448275</v>
-      </c>
-      <c r="L158" t="n">
-        <v>26.63</v>
-      </c>
-      <c r="M158" t="n">
-        <v>26.74499999999999</v>
-      </c>
-      <c r="N158" t="n">
-        <v>26.89999999999998</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>26.95166666666669</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>-3.300000000000001</v>
-      </c>
-      <c r="J159" t="n">
-        <v>51.10000000000002</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-24.13793103448263</v>
-      </c>
-      <c r="L159" t="n">
-        <v>26.53999999999999</v>
-      </c>
-      <c r="M159" t="n">
-        <v>26.71999999999999</v>
-      </c>
-      <c r="N159" t="n">
-        <v>26.86333333333332</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F160" t="n">
-        <v>10</v>
-      </c>
-      <c r="G160" t="n">
-        <v>26.94500000000002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="J160" t="n">
-        <v>51.80000000000003</v>
-      </c>
-      <c r="K160" t="n">
-        <v>2.857142857142784</v>
-      </c>
-      <c r="L160" t="n">
-        <v>26.53999999999999</v>
-      </c>
-      <c r="M160" t="n">
-        <v>26.72499999999999</v>
-      </c>
-      <c r="N160" t="n">
-        <v>26.84999999999999</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5715</v>
-      </c>
-      <c r="G161" t="n">
-        <v>26.92666666666669</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J161" t="n">
-        <v>52.30000000000003</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-7.692307692307685</v>
-      </c>
-      <c r="L161" t="n">
-        <v>26.49999999999999</v>
-      </c>
-      <c r="M161" t="n">
-        <v>26.70499999999999</v>
-      </c>
-      <c r="N161" t="n">
-        <v>26.81666666666666</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>636</v>
-      </c>
-      <c r="G162" t="n">
-        <v>26.91166666666669</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="J162" t="n">
-        <v>52.30000000000003</v>
-      </c>
-      <c r="K162" t="n">
-        <v>2.857142857142784</v>
-      </c>
-      <c r="L162" t="n">
-        <v>26.46999999999999</v>
-      </c>
-      <c r="M162" t="n">
-        <v>26.68499999999999</v>
-      </c>
-      <c r="N162" t="n">
-        <v>26.78333333333332</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -2026,14 +2026,20 @@
         <v>28.01666666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2061,14 +2067,20 @@
         <v>27.99499999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +2108,20 @@
         <v>27.96499999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>26.3</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2131,14 +2149,20 @@
         <v>27.96499999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>26.3</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2197,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +2229,20 @@
         <v>27.95166666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2277,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2309,20 @@
         <v>27.91</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2357,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2396,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2435,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2474,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2513,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2481,14 +2545,20 @@
         <v>27.72333333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>26.9</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2593,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,12 +2631,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2598,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
@@ -2672,14 +2746,12 @@
         <v>27.51166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2713,14 +2785,12 @@
         <v>27.49166666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2754,14 +2824,12 @@
         <v>27.45833333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2795,14 +2863,12 @@
         <v>27.43166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2836,14 +2902,12 @@
         <v>27.39666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -2877,14 +2941,12 @@
         <v>27.36666666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -2918,14 +2980,12 @@
         <v>27.35833333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -2959,14 +3019,12 @@
         <v>27.33500000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3000,14 +3058,12 @@
         <v>27.30666666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3047,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
@@ -3082,14 +3138,12 @@
         <v>27.26000000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3123,14 +3177,12 @@
         <v>27.23000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>26.8</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3164,14 +3216,12 @@
         <v>27.20000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>26.9</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3205,14 +3255,12 @@
         <v>27.17666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3246,14 +3294,12 @@
         <v>27.15666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3287,14 +3333,12 @@
         <v>27.14500000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>27.8</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3718,14 +3762,12 @@
         <v>26.94333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3798,14 +3840,12 @@
         <v>26.88833333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3839,14 +3879,12 @@
         <v>26.88000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>27</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3880,14 +3918,12 @@
         <v>26.86166666666668</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>27</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3921,14 +3957,12 @@
         <v>26.86500000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="J96" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3960,22 +3994,14 @@
         <v>26.84166666666668</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K97" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4009,14 +4035,8 @@
         <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4044,22 +4064,14 @@
         <v>26.82166666666668</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4090,17 +4102,11 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4131,17 +4137,11 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4172,17 +4172,11 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4213,17 +4207,11 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4257,14 +4245,8 @@
         <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4295,17 +4277,11 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +4315,8 @@
         <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +4350,8 @@
         <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4418,19 +4382,13 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>0.983970588235294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4459,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4494,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4529,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4564,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4599,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4806,20 +4764,14 @@
         <v>26.91500000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4847,20 +4799,14 @@
         <v>26.92500000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4888,20 +4834,14 @@
         <v>26.92166666666668</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4929,20 +4869,14 @@
         <v>26.91500000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4970,20 +4904,14 @@
         <v>26.91166666666668</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5011,20 +4939,14 @@
         <v>26.91833333333334</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>26.8</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5052,20 +4974,14 @@
         <v>26.92500000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>26.8</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5093,20 +5009,14 @@
         <v>26.93666666666668</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5134,20 +5044,14 @@
         <v>26.94500000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +5086,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5214,20 +5114,14 @@
         <v>26.97333333333334</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5255,20 +5149,14 @@
         <v>26.98333333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5191,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +5226,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +5261,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5296,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +5331,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5366,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5537,11 +5401,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5572,15 +5432,11 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5615,11 +5471,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5654,11 +5506,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5693,11 +5541,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="C2" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E2" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F2" t="n">
-        <v>16001.9321</v>
+        <v>1316.3512</v>
       </c>
       <c r="G2" t="n">
-        <v>28.03499999999999</v>
+        <v>28.02499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="C3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="F3" t="n">
-        <v>13650.7057</v>
+        <v>16001.9321</v>
       </c>
       <c r="G3" t="n">
-        <v>28.02833333333332</v>
+        <v>28.03499999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>28.6</v>
       </c>
       <c r="C4" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
         <v>28.6</v>
       </c>
       <c r="F4" t="n">
-        <v>26278.2847</v>
+        <v>13650.7057</v>
       </c>
       <c r="G4" t="n">
-        <v>28.03499999999998</v>
+        <v>28.02833333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C5" t="n">
         <v>29.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D5" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E5" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="F5" t="n">
-        <v>65605.7038</v>
+        <v>26278.2847</v>
       </c>
       <c r="G5" t="n">
-        <v>28.04499999999998</v>
+        <v>28.03499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9</v>
+        <v>29.5</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="F6" t="n">
-        <v>40845.1435</v>
+        <v>65605.7038</v>
       </c>
       <c r="G6" t="n">
-        <v>28.01833333333332</v>
+        <v>28.04499999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="C7" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3</v>
+        <v>28.3</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F7" t="n">
-        <v>41147.4683</v>
+        <v>40845.1435</v>
       </c>
       <c r="G7" t="n">
-        <v>28.00499999999998</v>
+        <v>28.01833333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>28.6</v>
       </c>
-      <c r="C8" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D8" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E8" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F8" t="n">
-        <v>17092.2837</v>
+        <v>41147.4683</v>
       </c>
       <c r="G8" t="n">
-        <v>27.98666666666664</v>
+        <v>28.00499999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C9" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E9" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>17092.2837</v>
       </c>
       <c r="G9" t="n">
-        <v>27.97166666666664</v>
+        <v>27.98666666666664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C10" t="n">
         <v>28.5</v>
@@ -722,10 +722,10 @@
         <v>28.5</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F10" t="n">
-        <v>30516.0825</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
         <v>27.97166666666664</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="E11" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>13963.8671</v>
+        <v>30516.0825</v>
       </c>
       <c r="G11" t="n">
-        <v>27.95666666666664</v>
+        <v>27.97166666666664</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C12" t="n">
         <v>27.6</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E12" t="n">
         <v>27.6</v>
       </c>
       <c r="F12" t="n">
-        <v>31907.5937</v>
+        <v>13963.8671</v>
       </c>
       <c r="G12" t="n">
-        <v>27.94999999999997</v>
+        <v>27.95666666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E13" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F13" t="n">
-        <v>28.8642</v>
+        <v>31907.5937</v>
       </c>
       <c r="G13" t="n">
-        <v>27.93999999999998</v>
+        <v>27.94999999999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C14" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F14" t="n">
-        <v>1486.9565</v>
+        <v>28.8642</v>
       </c>
       <c r="G14" t="n">
-        <v>27.94499999999998</v>
+        <v>27.93999999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>27.6</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E15" t="n">
         <v>27.6</v>
       </c>
       <c r="F15" t="n">
-        <v>5441.2619</v>
+        <v>1486.9565</v>
       </c>
       <c r="G15" t="n">
-        <v>27.92833333333331</v>
+        <v>27.94499999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>27.6</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D16" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F16" t="n">
-        <v>31861.0096</v>
+        <v>5441.2619</v>
       </c>
       <c r="G16" t="n">
-        <v>27.93833333333331</v>
+        <v>27.92833333333331</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="C17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E17" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>31861.0096</v>
       </c>
       <c r="G17" t="n">
-        <v>27.94999999999997</v>
+        <v>27.93833333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C18" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D18" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="F18" t="n">
-        <v>3325.1577</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>27.96166666666664</v>
+        <v>27.94999999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>28.6</v>
@@ -1037,13 +1037,13 @@
         <v>28.6</v>
       </c>
       <c r="E19" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>598.8111</v>
+        <v>3325.1577</v>
       </c>
       <c r="G19" t="n">
-        <v>27.97166666666664</v>
+        <v>27.96166666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C20" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D20" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E20" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="F20" t="n">
-        <v>2974.968</v>
+        <v>598.8111</v>
       </c>
       <c r="G20" t="n">
-        <v>27.9833333333333</v>
+        <v>27.97166666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>27.8</v>
       </c>
       <c r="C21" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="D21" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="E21" t="n">
         <v>27.8</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>2974.968</v>
       </c>
       <c r="G21" t="n">
-        <v>27.99166666666664</v>
+        <v>27.9833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C22" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="D22" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E22" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F22" t="n">
-        <v>1381.9813</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>27.9933333333333</v>
+        <v>27.99166666666664</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C23" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="D23" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>1381.9813</v>
       </c>
       <c r="G23" t="n">
-        <v>27.99999999999998</v>
+        <v>27.9933333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D24" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E24" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>28.01166666666664</v>
+        <v>27.99999999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C25" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D25" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E25" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F25" t="n">
-        <v>4293.9013</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>28.01666666666664</v>
+        <v>28.01166666666664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C26" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D26" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="E26" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F26" t="n">
-        <v>34270.1896</v>
+        <v>4293.9013</v>
       </c>
       <c r="G26" t="n">
-        <v>28.01499999999998</v>
+        <v>28.01666666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>27.8</v>
       </c>
       <c r="C27" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E27" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F27" t="n">
-        <v>44394.1552</v>
+        <v>34270.1896</v>
       </c>
       <c r="G27" t="n">
-        <v>28.02166666666665</v>
+        <v>28.01499999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C28" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D28" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E28" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>44394.1552</v>
       </c>
       <c r="G28" t="n">
-        <v>28.02999999999998</v>
+        <v>28.02166666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="E29" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2824.5874</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>28.01833333333332</v>
+        <v>28.02999999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F30" t="n">
-        <v>7954.8972</v>
+        <v>2824.5874</v>
       </c>
       <c r="G30" t="n">
-        <v>28.02666666666665</v>
+        <v>28.01833333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>27.8</v>
       </c>
       <c r="C31" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="D31" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E31" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F31" t="n">
-        <v>13114.6062</v>
+        <v>7954.8972</v>
       </c>
       <c r="G31" t="n">
-        <v>28.03499999999998</v>
+        <v>28.02666666666665</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C32" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D32" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E32" t="n">
         <v>27.7</v>
       </c>
       <c r="F32" t="n">
-        <v>34004.1239</v>
+        <v>13114.6062</v>
       </c>
       <c r="G32" t="n">
-        <v>28.03166666666665</v>
+        <v>28.03499999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>27.7</v>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D33" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E33" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F33" t="n">
-        <v>160011</v>
+        <v>34004.1239</v>
       </c>
       <c r="G33" t="n">
-        <v>28.02833333333331</v>
+        <v>28.03166666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C34" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
         <v>27.5</v>
       </c>
       <c r="F34" t="n">
-        <v>5344.2333</v>
+        <v>160011</v>
       </c>
       <c r="G34" t="n">
-        <v>28.02666666666665</v>
+        <v>28.02833333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C35" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="D35" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E35" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F35" t="n">
-        <v>452</v>
+        <v>5344.2333</v>
       </c>
       <c r="G35" t="n">
-        <v>28.03499999999998</v>
+        <v>28.02666666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D36" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F36" t="n">
-        <v>30139.32199068</v>
+        <v>452</v>
       </c>
       <c r="G36" t="n">
-        <v>28.02999999999998</v>
+        <v>28.03499999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C37" t="n">
         <v>27</v>
-      </c>
-      <c r="C37" t="n">
-        <v>27.9</v>
       </c>
       <c r="D37" t="n">
         <v>27.9</v>
@@ -1670,10 +1670,10 @@
         <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>10020</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G37" t="n">
-        <v>28.05166666666666</v>
+        <v>28.02999999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D38" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E38" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
-        <v>34</v>
+        <v>10020</v>
       </c>
       <c r="G38" t="n">
-        <v>28.05999999999999</v>
+        <v>28.05166666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C39" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D39" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E39" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G39" t="n">
-        <v>28.07999999999999</v>
+        <v>28.05999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
       <c r="C40" t="n">
         <v>27.9</v>
@@ -1772,13 +1772,13 @@
         <v>27.9</v>
       </c>
       <c r="E40" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F40" t="n">
-        <v>40010</v>
+        <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>28.09999999999999</v>
+        <v>28.07999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>26.8</v>
       </c>
       <c r="C41" t="n">
-        <v>26.3</v>
+        <v>27.9</v>
       </c>
       <c r="D41" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E41" t="n">
         <v>26.8</v>
       </c>
-      <c r="E41" t="n">
-        <v>26.3</v>
-      </c>
       <c r="F41" t="n">
-        <v>199200.8637</v>
+        <v>40010</v>
       </c>
       <c r="G41" t="n">
-        <v>28.08999999999999</v>
+        <v>28.09999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C42" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="D42" t="n">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="E42" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F42" t="n">
-        <v>3467.7132</v>
+        <v>199200.8637</v>
       </c>
       <c r="G42" t="n">
-        <v>28.10166666666665</v>
+        <v>28.08999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C43" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D43" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E43" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="F43" t="n">
-        <v>6094.27</v>
+        <v>3467.7132</v>
       </c>
       <c r="G43" t="n">
-        <v>28.08999999999999</v>
+        <v>28.10166666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="D44" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E44" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="F44" t="n">
-        <v>160115.8836</v>
+        <v>6094.27</v>
       </c>
       <c r="G44" t="n">
-        <v>28.05499999999999</v>
+        <v>28.08999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="C45" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="E45" t="n">
         <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>213721.6489</v>
+        <v>160115.8836</v>
       </c>
       <c r="G45" t="n">
-        <v>28.03333333333332</v>
+        <v>28.05499999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="C46" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D46" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E46" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F46" t="n">
-        <v>4607.2653</v>
+        <v>213721.6489</v>
       </c>
       <c r="G46" t="n">
-        <v>28.01666666666666</v>
+        <v>28.03333333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C47" t="n">
         <v>27.2</v>
@@ -2017,29 +2017,23 @@
         <v>27.2</v>
       </c>
       <c r="E47" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F47" t="n">
-        <v>11177.5563</v>
+        <v>4607.2653</v>
       </c>
       <c r="G47" t="n">
         <v>28.01666666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2052,35 +2046,29 @@
         <v>26.3</v>
       </c>
       <c r="C48" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="D48" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="E48" t="n">
         <v>26.3</v>
       </c>
       <c r="F48" t="n">
-        <v>11728.8442</v>
+        <v>11177.5563</v>
       </c>
       <c r="G48" t="n">
-        <v>27.99499999999999</v>
+        <v>28.01666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,38 +2078,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C49" t="n">
         <v>26.3</v>
       </c>
       <c r="D49" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E49" t="n">
         <v>26.3</v>
       </c>
       <c r="F49" t="n">
-        <v>5104.3689</v>
+        <v>11728.8442</v>
       </c>
       <c r="G49" t="n">
-        <v>27.96499999999999</v>
+        <v>27.99499999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2131,38 +2113,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E50" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>5104.3689</v>
       </c>
       <c r="G50" t="n">
         <v>27.96499999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C51" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="F51" t="n">
-        <v>7347</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>27.96333333333333</v>
+        <v>27.96499999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2197,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2211,38 +2183,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C52" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D52" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E52" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F52" t="n">
-        <v>6281</v>
+        <v>7347</v>
       </c>
       <c r="G52" t="n">
-        <v>27.95166666666666</v>
+        <v>27.96333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2252,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="C53" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D53" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E53" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F53" t="n">
-        <v>32662.1649</v>
+        <v>6281</v>
       </c>
       <c r="G53" t="n">
-        <v>27.92666666666667</v>
+        <v>27.95166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2277,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2291,38 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C54" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D54" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E54" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2288</v>
+        <v>32662.1649</v>
       </c>
       <c r="G54" t="n">
-        <v>27.91</v>
+        <v>27.92666666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E55" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F55" t="n">
-        <v>4623.5831</v>
+        <v>2288</v>
       </c>
       <c r="G55" t="n">
-        <v>27.89</v>
+        <v>27.91</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2357,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2371,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C56" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D56" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="E56" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F56" t="n">
-        <v>11139.6374</v>
+        <v>4623.5831</v>
       </c>
       <c r="G56" t="n">
-        <v>27.86666666666666</v>
+        <v>27.89</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2396,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2410,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
         <v>26.3</v>
       </c>
       <c r="D57" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E57" t="n">
         <v>26.3</v>
       </c>
       <c r="F57" t="n">
-        <v>837.9124</v>
+        <v>11139.6374</v>
       </c>
       <c r="G57" t="n">
-        <v>27.83833333333333</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2435,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2449,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="C58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="D58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="E58" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>837.9124</v>
       </c>
       <c r="G58" t="n">
-        <v>27.81833333333333</v>
+        <v>27.83833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2474,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="C59" t="n">
         <v>26.9</v>
@@ -2497,27 +2437,27 @@
         <v>26.9</v>
       </c>
       <c r="E59" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F59" t="n">
-        <v>4832.9573</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>27.78166666666667</v>
+        <v>27.81833333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2527,22 +2467,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E60" t="n">
         <v>26.2</v>
       </c>
-      <c r="C60" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>26.1</v>
-      </c>
       <c r="F60" t="n">
-        <v>29222.2723</v>
+        <v>4832.9573</v>
       </c>
       <c r="G60" t="n">
-        <v>27.72333333333334</v>
+        <v>27.78166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2553,10 +2493,12 @@
       <c r="J60" t="n">
         <v>26.9</v>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2568,22 +2510,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C61" t="n">
         <v>26.1</v>
       </c>
-      <c r="C61" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D61" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E61" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F61" t="n">
-        <v>29233.2723</v>
+        <v>29222.2723</v>
       </c>
       <c r="G61" t="n">
-        <v>27.67833333333333</v>
+        <v>27.72333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2592,7 +2534,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,33 +2551,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C62" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D62" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E62" t="n">
-        <v>26.6</v>
+        <v>25.9</v>
       </c>
       <c r="F62" t="n">
-        <v>47856.9107</v>
+        <v>29233.2723</v>
       </c>
       <c r="G62" t="n">
-        <v>27.63833333333333</v>
+        <v>27.67833333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,33 +2592,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C63" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D63" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E63" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F63" t="n">
-        <v>5724.409</v>
+        <v>47856.9107</v>
       </c>
       <c r="G63" t="n">
-        <v>27.61</v>
+        <v>27.63833333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,19 +2636,19 @@
         <v>26.4</v>
       </c>
       <c r="C64" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="D64" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="E64" t="n">
         <v>26.4</v>
       </c>
       <c r="F64" t="n">
-        <v>17351.8087</v>
+        <v>5724.409</v>
       </c>
       <c r="G64" t="n">
-        <v>27.56166666666667</v>
+        <v>27.61</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2713,7 +2657,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2728,22 +2674,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E65" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>17351.8087</v>
       </c>
       <c r="G65" t="n">
-        <v>27.51166666666667</v>
+        <v>27.56166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2752,7 +2698,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2767,22 +2715,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C66" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D66" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E66" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>27.49166666666667</v>
+        <v>27.51166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2791,7 +2739,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,22 +2756,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C67" t="n">
         <v>26.7</v>
-      </c>
-      <c r="C67" t="n">
-        <v>26.6</v>
       </c>
       <c r="D67" t="n">
         <v>26.7</v>
       </c>
       <c r="E67" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="F67" t="n">
-        <v>10528.9406</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n">
-        <v>27.45833333333334</v>
+        <v>27.49166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2830,7 +2780,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,22 +2797,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="C68" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="D68" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="E68" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F68" t="n">
-        <v>3098</v>
+        <v>10528.9406</v>
       </c>
       <c r="G68" t="n">
-        <v>27.43166666666667</v>
+        <v>27.45833333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2869,7 +2821,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,22 +2838,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>3098</v>
       </c>
       <c r="G69" t="n">
-        <v>27.39666666666667</v>
+        <v>27.43166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2908,7 +2862,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2923,22 +2879,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="D70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="E70" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>27.36666666666667</v>
+        <v>27.39666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2947,7 +2903,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,22 +2920,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="C71" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D71" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E71" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="F71" t="n">
-        <v>18133.686</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>27.35833333333334</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2986,7 +2944,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,19 +2964,19 @@
         <v>26.2</v>
       </c>
       <c r="C72" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="D72" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="E72" t="n">
         <v>26.2</v>
       </c>
       <c r="F72" t="n">
-        <v>3584.2294</v>
+        <v>18133.686</v>
       </c>
       <c r="G72" t="n">
-        <v>27.33500000000001</v>
+        <v>27.35833333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3025,7 +2985,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,19 +3005,19 @@
         <v>26.2</v>
       </c>
       <c r="C73" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D73" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E73" t="n">
         <v>26.2</v>
       </c>
       <c r="F73" t="n">
-        <v>3077.373</v>
+        <v>3584.2294</v>
       </c>
       <c r="G73" t="n">
-        <v>27.30666666666668</v>
+        <v>27.33500000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3064,7 +3026,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,33 +3043,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="C74" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="D74" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E74" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>3077.373</v>
       </c>
       <c r="G74" t="n">
-        <v>27.27333333333334</v>
+        <v>27.30666666666668</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,22 +3084,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C75" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="D75" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="E75" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F75" t="n">
-        <v>19951.572</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>27.26000000000001</v>
+        <v>27.27333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3144,7 +3108,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3159,7 +3125,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="C76" t="n">
         <v>26.8</v>
@@ -3168,13 +3134,13 @@
         <v>26.8</v>
       </c>
       <c r="E76" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="F76" t="n">
-        <v>12746.2922</v>
+        <v>19951.572</v>
       </c>
       <c r="G76" t="n">
-        <v>27.23000000000001</v>
+        <v>27.26000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3183,7 +3149,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,22 +3166,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E77" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F77" t="n">
-        <v>10192.8456</v>
+        <v>12746.2922</v>
       </c>
       <c r="G77" t="n">
-        <v>27.20000000000001</v>
+        <v>27.23000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3222,7 +3190,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,22 +3207,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C78" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D78" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E78" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F78" t="n">
-        <v>78792.4642</v>
+        <v>10192.8456</v>
       </c>
       <c r="G78" t="n">
-        <v>27.17666666666668</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3261,7 +3231,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,22 +3248,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="C79" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D79" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E79" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="F79" t="n">
-        <v>27670.7749</v>
+        <v>78792.4642</v>
       </c>
       <c r="G79" t="n">
-        <v>27.15666666666668</v>
+        <v>27.17666666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3300,7 +3272,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3315,22 +3289,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C80" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D80" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E80" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>27670.7749</v>
       </c>
       <c r="G80" t="n">
-        <v>27.14500000000002</v>
+        <v>27.15666666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3339,7 +3313,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3354,22 +3330,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="D81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E81" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F81" t="n">
-        <v>1642.9106</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>27.12666666666668</v>
+        <v>27.14500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3378,7 +3354,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3393,22 +3371,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F82" t="n">
-        <v>3117.1331</v>
+        <v>1642.9106</v>
       </c>
       <c r="G82" t="n">
-        <v>27.11333333333335</v>
+        <v>27.12666666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3417,7 +3395,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3432,22 +3412,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>3117.1331</v>
       </c>
       <c r="G83" t="n">
-        <v>27.09666666666668</v>
+        <v>27.11333333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3456,7 +3436,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,22 +3453,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E84" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1646.8027</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>27.07666666666668</v>
+        <v>27.09666666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3495,7 +3477,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3510,22 +3494,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F85" t="n">
-        <v>2813.2454</v>
+        <v>1646.8027</v>
       </c>
       <c r="G85" t="n">
-        <v>27.06500000000001</v>
+        <v>27.07666666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3534,7 +3518,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,19 +3538,19 @@
         <v>27</v>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D86" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E86" t="n">
         <v>27</v>
       </c>
       <c r="F86" t="n">
-        <v>30317.162</v>
+        <v>2813.2454</v>
       </c>
       <c r="G86" t="n">
-        <v>27.05333333333335</v>
+        <v>27.06500000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3573,7 +3559,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,22 +3576,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="C87" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D87" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E87" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F87" t="n">
-        <v>11981.557</v>
+        <v>30317.162</v>
       </c>
       <c r="G87" t="n">
-        <v>27.02666666666668</v>
+        <v>27.05333333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3612,7 +3600,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3627,22 +3617,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="D88" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>11981.557</v>
       </c>
       <c r="G88" t="n">
-        <v>27.00500000000001</v>
+        <v>27.02666666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3651,7 +3641,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,22 +3658,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E89" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F89" t="n">
-        <v>11511.6919</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>26.98333333333334</v>
+        <v>27.00500000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3690,7 +3682,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3705,22 +3699,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="D90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="E90" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>11511.6919</v>
       </c>
       <c r="G90" t="n">
-        <v>26.97000000000001</v>
+        <v>26.98333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3729,7 +3723,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,22 +3740,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E91" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F91" t="n">
-        <v>258.4363</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>26.94333333333334</v>
+        <v>26.97000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3768,7 +3764,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,19 +3784,19 @@
         <v>26.6</v>
       </c>
       <c r="C92" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="D92" t="n">
         <v>26.6</v>
       </c>
       <c r="E92" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F92" t="n">
-        <v>122069.0901</v>
+        <v>258.4363</v>
       </c>
       <c r="G92" t="n">
-        <v>26.91500000000001</v>
+        <v>26.94333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3807,7 +3805,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,22 +3822,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C93" t="n">
         <v>26.4</v>
       </c>
       <c r="D93" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="E93" t="n">
         <v>26.4</v>
       </c>
       <c r="F93" t="n">
-        <v>3791.1901</v>
+        <v>122069.0901</v>
       </c>
       <c r="G93" t="n">
-        <v>26.88833333333334</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3846,7 +3846,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,22 +3863,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="D94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E94" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>3791.1901</v>
       </c>
       <c r="G94" t="n">
-        <v>26.88000000000001</v>
+        <v>26.88833333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3885,7 +3887,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,10 +3916,10 @@
         <v>27</v>
       </c>
       <c r="F95" t="n">
-        <v>4551.838</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>26.86166666666668</v>
+        <v>26.88000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3924,7 +3928,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,59 +3945,63 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E96" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>4551.838</v>
       </c>
       <c r="G96" t="n">
-        <v>26.86500000000001</v>
+        <v>26.86166666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="C97" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="D97" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="E97" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1622.5388</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>26.84166666666668</v>
+        <v>26.86500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4000,8 +4010,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4011,32 +4027,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="C98" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="D98" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E98" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="F98" t="n">
-        <v>11</v>
+        <v>1622.5388</v>
       </c>
       <c r="G98" t="n">
-        <v>26.83166666666668</v>
+        <v>26.84166666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4046,22 +4068,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E99" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="F99" t="n">
-        <v>6131.77305883</v>
+        <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>26.82166666666668</v>
+        <v>26.83166666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4070,8 +4092,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4081,7 +4109,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="C100" t="n">
         <v>27.3</v>
@@ -4090,13 +4118,13 @@
         <v>27.3</v>
       </c>
       <c r="E100" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2826.896</v>
+        <v>6131.77305883</v>
       </c>
       <c r="G100" t="n">
-        <v>26.81166666666667</v>
+        <v>26.82166666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4105,8 +4133,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4116,22 +4150,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>2826.896</v>
       </c>
       <c r="G101" t="n">
-        <v>26.83166666666667</v>
+        <v>26.81166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4140,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4151,22 +4191,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E102" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F102" t="n">
-        <v>9975</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>26.82500000000001</v>
+        <v>26.83166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4175,8 +4215,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4186,22 +4232,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>9975</v>
       </c>
       <c r="G103" t="n">
-        <v>26.82666666666667</v>
+        <v>26.82500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4210,8 +4256,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4224,29 +4276,35 @@
         <v>27.5</v>
       </c>
       <c r="C104" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D104" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E104" t="n">
         <v>27.5</v>
       </c>
       <c r="F104" t="n">
-        <v>25948.0215</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>26.85666666666667</v>
+        <v>26.82666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4256,22 +4314,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C105" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E105" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>80.9854</v>
+        <v>25948.0215</v>
       </c>
       <c r="G105" t="n">
-        <v>26.86500000000001</v>
+        <v>26.85666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4280,8 +4338,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4291,32 +4355,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E106" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F106" t="n">
-        <v>0.375</v>
+        <v>80.9854</v>
       </c>
       <c r="G106" t="n">
-        <v>26.86666666666667</v>
+        <v>26.86500000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4326,7 +4396,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C107" t="n">
         <v>27.3</v>
@@ -4335,13 +4405,13 @@
         <v>27.3</v>
       </c>
       <c r="E107" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="F107" t="n">
-        <v>1605.3956044</v>
+        <v>0.375</v>
       </c>
       <c r="G107" t="n">
-        <v>26.86833333333334</v>
+        <v>26.86666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4350,10 +4420,16 @@
         <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>1.033022813688213</v>
       </c>
     </row>
     <row r="108">
@@ -4361,28 +4437,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C108" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="D108" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E108" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F108" t="n">
-        <v>432</v>
+        <v>1605.3956044</v>
       </c>
       <c r="G108" t="n">
-        <v>26.87833333333334</v>
+        <v>26.86833333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4399,19 +4475,19 @@
         <v>26.9</v>
       </c>
       <c r="C109" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D109" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E109" t="n">
         <v>26.9</v>
       </c>
       <c r="F109" t="n">
-        <v>5724.5295</v>
+        <v>432</v>
       </c>
       <c r="G109" t="n">
-        <v>26.89333333333334</v>
+        <v>26.87833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4431,22 +4507,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C110" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D110" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E110" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1598.625</v>
+        <v>5724.5295</v>
       </c>
       <c r="G110" t="n">
-        <v>26.90166666666667</v>
+        <v>26.89333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4469,19 +4545,19 @@
         <v>27.3</v>
       </c>
       <c r="C111" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D111" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E111" t="n">
         <v>27.3</v>
       </c>
       <c r="F111" t="n">
-        <v>17.1442</v>
+        <v>1598.625</v>
       </c>
       <c r="G111" t="n">
-        <v>26.90333333333334</v>
+        <v>26.90166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4501,19 +4577,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C112" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="D112" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E112" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="F112" t="n">
-        <v>2032.0765</v>
+        <v>17.1442</v>
       </c>
       <c r="G112" t="n">
         <v>26.90333333333334</v>
@@ -4536,28 +4612,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="C113" t="n">
         <v>26.9</v>
       </c>
       <c r="D113" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E113" t="n">
         <v>26.9</v>
       </c>
-      <c r="E113" t="n">
-        <v>26.5</v>
-      </c>
       <c r="F113" t="n">
-        <v>25973.9344</v>
+        <v>2032.0765</v>
       </c>
       <c r="G113" t="n">
-        <v>26.91000000000001</v>
+        <v>26.90333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4571,22 +4647,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E114" t="n">
         <v>26.5</v>
       </c>
       <c r="F114" t="n">
-        <v>20691.9807</v>
+        <v>25973.9344</v>
       </c>
       <c r="G114" t="n">
-        <v>26.90666666666667</v>
+        <v>26.91000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4606,22 +4682,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>20691.9807</v>
       </c>
       <c r="G115" t="n">
-        <v>26.91166666666668</v>
+        <v>26.90666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4641,22 +4717,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C116" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="D116" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E116" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="F116" t="n">
-        <v>92188.84209999999</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>26.91333333333334</v>
+        <v>26.91166666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4679,19 +4755,19 @@
         <v>26.5</v>
       </c>
       <c r="C117" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="D117" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E117" t="n">
         <v>26.4</v>
       </c>
       <c r="F117" t="n">
-        <v>52993.9772</v>
+        <v>92188.84209999999</v>
       </c>
       <c r="G117" t="n">
-        <v>26.92333333333335</v>
+        <v>26.91333333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4711,22 +4787,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C118" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D118" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E118" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F118" t="n">
-        <v>3025</v>
+        <v>52993.9772</v>
       </c>
       <c r="G118" t="n">
-        <v>26.92000000000001</v>
+        <v>26.92333333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4746,22 +4822,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C119" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D119" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E119" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F119" t="n">
-        <v>55247.2401</v>
+        <v>3025</v>
       </c>
       <c r="G119" t="n">
-        <v>26.91500000000001</v>
+        <v>26.92000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4781,22 +4857,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C120" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D120" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E120" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F120" t="n">
-        <v>11</v>
+        <v>55247.2401</v>
       </c>
       <c r="G120" t="n">
-        <v>26.92500000000001</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4816,22 +4892,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E121" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F121" t="n">
-        <v>6898.9917</v>
+        <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>26.92166666666668</v>
+        <v>26.92500000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4851,22 +4927,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C122" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D122" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E122" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="F122" t="n">
-        <v>3708.3724</v>
+        <v>6898.9917</v>
       </c>
       <c r="G122" t="n">
-        <v>26.91500000000001</v>
+        <v>26.92166666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4886,7 +4962,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C123" t="n">
         <v>26.7</v>
@@ -4895,13 +4971,13 @@
         <v>26.7</v>
       </c>
       <c r="E123" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F123" t="n">
-        <v>7583.5131</v>
+        <v>3708.3724</v>
       </c>
       <c r="G123" t="n">
-        <v>26.91166666666668</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4921,22 +4997,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E124" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>7583.5131</v>
       </c>
       <c r="G124" t="n">
-        <v>26.91833333333334</v>
+        <v>26.91166666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4959,19 +5035,19 @@
         <v>26.8</v>
       </c>
       <c r="C125" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D125" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E125" t="n">
         <v>26.8</v>
       </c>
       <c r="F125" t="n">
-        <v>51148.8747</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>26.92500000000001</v>
+        <v>26.91833333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4991,22 +5067,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="C126" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="D126" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="E126" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>51148.8747</v>
       </c>
       <c r="G126" t="n">
-        <v>26.93666666666668</v>
+        <v>26.92500000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5026,22 +5102,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="C127" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D127" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E127" t="n">
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="F127" t="n">
-        <v>18321.4169</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>26.94500000000001</v>
+        <v>26.93666666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5061,22 +5137,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D128" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E128" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F128" t="n">
-        <v>13597.547</v>
+        <v>18321.4169</v>
       </c>
       <c r="G128" t="n">
-        <v>26.95833333333335</v>
+        <v>26.94500000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5096,22 +5172,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E129" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>13597.547</v>
       </c>
       <c r="G129" t="n">
-        <v>26.97333333333334</v>
+        <v>26.95833333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5143,10 +5219,10 @@
         <v>27.3</v>
       </c>
       <c r="F130" t="n">
-        <v>20689.3065</v>
+        <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>26.98333333333334</v>
+        <v>26.97333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5166,22 +5242,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E131" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>20689.3065</v>
       </c>
       <c r="G131" t="n">
-        <v>26.98833333333334</v>
+        <v>26.98333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5213,10 +5289,10 @@
         <v>27.4</v>
       </c>
       <c r="F132" t="n">
-        <v>6655.6934</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>27.00833333333334</v>
+        <v>26.98833333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5248,10 +5324,10 @@
         <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>365</v>
+        <v>6655.6934</v>
       </c>
       <c r="G133" t="n">
-        <v>27.02666666666668</v>
+        <v>27.00833333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5271,22 +5347,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E134" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F134" t="n">
-        <v>6639.0542</v>
+        <v>365</v>
       </c>
       <c r="G134" t="n">
-        <v>27.03500000000001</v>
+        <v>27.02666666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5306,22 +5382,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E135" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>6639.0542</v>
       </c>
       <c r="G135" t="n">
-        <v>27.04333333333335</v>
+        <v>27.03500000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5344,19 +5420,19 @@
         <v>27.3</v>
       </c>
       <c r="C136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E136" t="n">
         <v>27.3</v>
       </c>
       <c r="F136" t="n">
-        <v>3012.0677</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>27.05333333333335</v>
+        <v>27.04333333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5376,22 +5452,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C137" t="n">
-        <v>26.7</v>
+        <v>27.4</v>
       </c>
       <c r="D137" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E137" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="F137" t="n">
-        <v>92235.2776</v>
+        <v>3012.0677</v>
       </c>
       <c r="G137" t="n">
-        <v>27.05000000000001</v>
+        <v>27.05333333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5411,28 +5487,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C138" t="n">
         <v>26.7</v>
       </c>
-      <c r="C138" t="n">
-        <v>26.8</v>
-      </c>
       <c r="D138" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E138" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F138" t="n">
-        <v>90144.04640000001</v>
+        <v>92235.2776</v>
       </c>
       <c r="G138" t="n">
-        <v>27.04333333333335</v>
+        <v>27.05000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5446,22 +5522,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C139" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D139" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E139" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F139" t="n">
-        <v>9070.986500000001</v>
+        <v>90144.04640000001</v>
       </c>
       <c r="G139" t="n">
-        <v>27.03166666666668</v>
+        <v>27.04333333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5481,22 +5557,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="C140" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D140" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E140" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>9070.986500000001</v>
       </c>
       <c r="G140" t="n">
-        <v>27.01500000000001</v>
+        <v>27.03166666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5516,7 +5592,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C141" t="n">
         <v>26.8</v>
@@ -5525,13 +5601,13 @@
         <v>26.8</v>
       </c>
       <c r="E141" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F141" t="n">
-        <v>8940.5857</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>27.01166666666668</v>
+        <v>27.01500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5546,6 +5622,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8940.5857</v>
+      </c>
+      <c r="G142" t="n">
+        <v>27.01166666666668</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C2" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="D2" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="E2" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1316.3512</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>28.01333333333334</v>
+        <v>4401830.50488321</v>
       </c>
       <c r="H2" t="n">
-        <v>28.02499999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C3" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="D3" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="E3" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="F3" t="n">
-        <v>16001.9321</v>
+        <v>51828.5707</v>
       </c>
       <c r="G3" t="n">
-        <v>28.16666666666667</v>
+        <v>4350001.93418321</v>
       </c>
       <c r="H3" t="n">
-        <v>28.03499999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="E4" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F4" t="n">
-        <v>13650.7057</v>
+        <v>2082.4772</v>
       </c>
       <c r="G4" t="n">
-        <v>28.23333333333334</v>
+        <v>4347919.456983211</v>
       </c>
       <c r="H4" t="n">
-        <v>28.02833333333332</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4</v>
+        <v>27.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F5" t="n">
-        <v>26278.2847</v>
+        <v>917.5228</v>
       </c>
       <c r="G5" t="n">
-        <v>28.31333333333334</v>
+        <v>4347919.456983211</v>
       </c>
       <c r="H5" t="n">
-        <v>28.03499999999998</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="C6" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="D6" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="E6" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="F6" t="n">
-        <v>65605.7038</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>28.48</v>
+        <v>4347909.456983211</v>
       </c>
       <c r="H6" t="n">
-        <v>28.04499999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="C7" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="E7" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="F7" t="n">
-        <v>40845.1435</v>
+        <v>248260.9812</v>
       </c>
       <c r="G7" t="n">
-        <v>28.52</v>
+        <v>4099648.475783211</v>
       </c>
       <c r="H7" t="n">
-        <v>28.01833333333332</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="D8" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="E8" t="n">
         <v>27.3</v>
       </c>
       <c r="F8" t="n">
-        <v>41147.4683</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>28.58666666666667</v>
+        <v>4099658.475783211</v>
       </c>
       <c r="H8" t="n">
-        <v>28.00499999999998</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.6</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +682,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E9" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="F9" t="n">
-        <v>17092.2837</v>
+        <v>13799.9862</v>
       </c>
       <c r="G9" t="n">
-        <v>28.57333333333333</v>
+        <v>4085858.489583211</v>
       </c>
       <c r="H9" t="n">
-        <v>27.98666666666664</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +723,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="C10" t="n">
-        <v>28.5</v>
+        <v>26.7</v>
       </c>
       <c r="D10" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="n">
-        <v>28.5</v>
+        <v>26.7</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>7037.1287</v>
       </c>
       <c r="G10" t="n">
-        <v>28.62666666666667</v>
+        <v>4085858.489583211</v>
       </c>
       <c r="H10" t="n">
-        <v>27.97166666666664</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +766,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>26.7</v>
       </c>
       <c r="C11" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="D11" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>26.7</v>
       </c>
       <c r="F11" t="n">
-        <v>30516.0825</v>
+        <v>15502.2939</v>
       </c>
       <c r="G11" t="n">
-        <v>28.67333333333334</v>
+        <v>4101360.78348321</v>
       </c>
       <c r="H11" t="n">
-        <v>27.97166666666664</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +801,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="C12" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F12" t="n">
-        <v>13963.8671</v>
+        <v>3809.9863</v>
       </c>
       <c r="G12" t="n">
-        <v>28.66666666666667</v>
+        <v>4105170.76978321</v>
       </c>
       <c r="H12" t="n">
-        <v>27.95666666666664</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +836,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="E13" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="F13" t="n">
-        <v>31907.5937</v>
+        <v>308482.332</v>
       </c>
       <c r="G13" t="n">
-        <v>28.64</v>
+        <v>4413653.10178321</v>
       </c>
       <c r="H13" t="n">
-        <v>27.94999999999997</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +871,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E14" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="F14" t="n">
-        <v>28.8642</v>
+        <v>42835.8932</v>
       </c>
       <c r="G14" t="n">
-        <v>28.63333333333334</v>
+        <v>4413653.10178321</v>
       </c>
       <c r="H14" t="n">
-        <v>27.93999999999998</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +906,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="D15" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1486.9565</v>
+        <v>6358.5073</v>
       </c>
       <c r="G15" t="n">
-        <v>28.6</v>
+        <v>4420011.60908321</v>
       </c>
       <c r="H15" t="n">
-        <v>27.94499999999998</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +941,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="D16" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="E16" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>5441.2619</v>
+        <v>52.1428</v>
       </c>
       <c r="G16" t="n">
-        <v>28.46666666666667</v>
+        <v>4420011.60908321</v>
       </c>
       <c r="H16" t="n">
-        <v>27.92833333333331</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +976,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C17" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="D17" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="E17" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F17" t="n">
-        <v>31861.0096</v>
+        <v>16458.6822</v>
       </c>
       <c r="G17" t="n">
-        <v>28.41333333333334</v>
+        <v>4403552.92688321</v>
       </c>
       <c r="H17" t="n">
-        <v>27.93833333333331</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1011,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="C18" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="D18" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="E18" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>14688.7681</v>
       </c>
       <c r="G18" t="n">
-        <v>28.36000000000001</v>
+        <v>4418241.69498321</v>
       </c>
       <c r="H18" t="n">
-        <v>27.94999999999997</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1046,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C19" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="D19" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>3325.1577</v>
+        <v>45.97</v>
       </c>
       <c r="G19" t="n">
-        <v>28.36000000000001</v>
+        <v>4418287.66498321</v>
       </c>
       <c r="H19" t="n">
-        <v>27.96166666666664</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1081,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>598.8111</v>
+        <v>20000</v>
       </c>
       <c r="G20" t="n">
-        <v>28.31333333333334</v>
+        <v>4398287.66498321</v>
       </c>
       <c r="H20" t="n">
-        <v>27.97166666666664</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1116,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C21" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="D21" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E21" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2974.968</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>28.24666666666667</v>
+        <v>4398297.66498321</v>
       </c>
       <c r="H21" t="n">
-        <v>27.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1151,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C22" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D22" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E22" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>28.26000000000001</v>
+        <v>4398307.66498321</v>
       </c>
       <c r="H22" t="n">
-        <v>27.99166666666664</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1186,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C23" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1381.9813</v>
+        <v>392.8571</v>
       </c>
       <c r="G23" t="n">
-        <v>28.21333333333334</v>
+        <v>4398700.52208321</v>
       </c>
       <c r="H23" t="n">
-        <v>27.9933333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1221,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C24" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D24" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>12748.072</v>
       </c>
       <c r="G24" t="n">
-        <v>28.24000000000001</v>
+        <v>4385952.45008321</v>
       </c>
       <c r="H24" t="n">
-        <v>27.99999999999998</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1256,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C25" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="D25" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="E25" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>28.22666666666667</v>
+        <v>4385962.45008321</v>
       </c>
       <c r="H25" t="n">
-        <v>28.01166666666664</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1291,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C26" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D26" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E26" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F26" t="n">
-        <v>4293.9013</v>
+        <v>1152.5736</v>
       </c>
       <c r="G26" t="n">
-        <v>28.18666666666667</v>
+        <v>4384809.87648321</v>
       </c>
       <c r="H26" t="n">
-        <v>28.01666666666664</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1326,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C27" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F27" t="n">
-        <v>34270.1896</v>
+        <v>442</v>
       </c>
       <c r="G27" t="n">
-        <v>28.19333333333334</v>
+        <v>4385251.87648321</v>
       </c>
       <c r="H27" t="n">
-        <v>28.01499999999998</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1361,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="D28" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E28" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>44394.1552</v>
+        <v>22673.9093</v>
       </c>
       <c r="G28" t="n">
-        <v>28.23333333333333</v>
+        <v>4407925.785783211</v>
       </c>
       <c r="H28" t="n">
-        <v>28.02166666666665</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1396,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C29" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="D29" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="E29" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>83923.245</v>
       </c>
       <c r="G29" t="n">
-        <v>28.25333333333333</v>
+        <v>4491849.030783211</v>
       </c>
       <c r="H29" t="n">
-        <v>28.02999999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1431,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="C30" t="n">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="D30" t="n">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="E30" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="F30" t="n">
-        <v>2824.5874</v>
+        <v>1284.3592</v>
       </c>
       <c r="G30" t="n">
-        <v>28.20666666666666</v>
+        <v>4493133.389983211</v>
       </c>
       <c r="H30" t="n">
-        <v>28.01833333333332</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1466,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="C31" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="D31" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="E31" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="F31" t="n">
-        <v>7954.8972</v>
+        <v>1316.3512</v>
       </c>
       <c r="G31" t="n">
-        <v>28.22</v>
+        <v>4491817.03878321</v>
       </c>
       <c r="H31" t="n">
-        <v>28.02666666666665</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1501,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="C32" t="n">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="D32" t="n">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="E32" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="F32" t="n">
-        <v>13114.6062</v>
+        <v>16001.9321</v>
       </c>
       <c r="G32" t="n">
-        <v>28.19333333333333</v>
+        <v>4507818.97088321</v>
       </c>
       <c r="H32" t="n">
-        <v>28.03499999999998</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1536,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="C33" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="D33" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="E33" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="F33" t="n">
-        <v>34004.1239</v>
+        <v>13650.7057</v>
       </c>
       <c r="G33" t="n">
-        <v>28.15333333333333</v>
+        <v>4494168.26518321</v>
       </c>
       <c r="H33" t="n">
-        <v>28.03166666666665</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1571,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="E34" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="F34" t="n">
-        <v>160011</v>
+        <v>26278.2847</v>
       </c>
       <c r="G34" t="n">
-        <v>28.11333333333333</v>
+        <v>4520446.54988321</v>
       </c>
       <c r="H34" t="n">
-        <v>28.02833333333331</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1606,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="C35" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="D35" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="E35" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="F35" t="n">
-        <v>5344.2333</v>
+        <v>65605.7038</v>
       </c>
       <c r="G35" t="n">
-        <v>28.04</v>
+        <v>4586052.25368321</v>
       </c>
       <c r="H35" t="n">
-        <v>28.02666666666665</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1641,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="C36" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D36" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E36" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="F36" t="n">
-        <v>452</v>
+        <v>40845.1435</v>
       </c>
       <c r="G36" t="n">
-        <v>28.01333333333333</v>
+        <v>4545207.11018321</v>
       </c>
       <c r="H36" t="n">
-        <v>28.03499999999998</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1676,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="D37" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F37" t="n">
-        <v>30139.32199068</v>
+        <v>41147.4683</v>
       </c>
       <c r="G37" t="n">
-        <v>27.93999999999999</v>
+        <v>4586354.57848321</v>
       </c>
       <c r="H37" t="n">
-        <v>28.02999999999998</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1711,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="C38" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D38" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="E38" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F38" t="n">
-        <v>10020</v>
+        <v>17092.2837</v>
       </c>
       <c r="G38" t="n">
-        <v>27.93999999999999</v>
+        <v>4569262.29478321</v>
       </c>
       <c r="H38" t="n">
-        <v>28.05166666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1746,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="C39" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="D39" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="E39" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="F39" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>27.91333333333333</v>
+        <v>4569273.29478321</v>
       </c>
       <c r="H39" t="n">
-        <v>28.05999999999999</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1781,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="D40" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="E40" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>30516.0825</v>
       </c>
       <c r="G40" t="n">
-        <v>27.88666666666666</v>
+        <v>4569273.29478321</v>
       </c>
       <c r="H40" t="n">
-        <v>28.07999999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1816,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="C41" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D41" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E41" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="F41" t="n">
-        <v>40010</v>
+        <v>13963.8671</v>
       </c>
       <c r="G41" t="n">
-        <v>27.88666666666666</v>
+        <v>4555309.42768321</v>
       </c>
       <c r="H41" t="n">
-        <v>28.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1851,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="C42" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="D42" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="E42" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="F42" t="n">
-        <v>199200.8637</v>
+        <v>31907.5937</v>
       </c>
       <c r="G42" t="n">
-        <v>27.79333333333333</v>
+        <v>4555309.42768321</v>
       </c>
       <c r="H42" t="n">
-        <v>28.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1886,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="F43" t="n">
-        <v>3467.7132</v>
+        <v>28.8642</v>
       </c>
       <c r="G43" t="n">
-        <v>27.75999999999999</v>
+        <v>4555338.29188321</v>
       </c>
       <c r="H43" t="n">
-        <v>28.10166666666665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1921,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C44" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="D44" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="E44" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F44" t="n">
-        <v>6094.27</v>
+        <v>1486.9565</v>
       </c>
       <c r="G44" t="n">
-        <v>27.69999999999999</v>
+        <v>4556825.24838321</v>
       </c>
       <c r="H44" t="n">
-        <v>28.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1956,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="D45" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="F45" t="n">
-        <v>160115.8836</v>
+        <v>5441.2619</v>
       </c>
       <c r="G45" t="n">
-        <v>27.57333333333333</v>
+        <v>4551383.98648321</v>
       </c>
       <c r="H45" t="n">
-        <v>28.05499999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1991,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C46" t="n">
-        <v>26.9</v>
+        <v>28.6</v>
       </c>
       <c r="D46" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="E46" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="F46" t="n">
-        <v>213721.6489</v>
+        <v>31861.0096</v>
       </c>
       <c r="G46" t="n">
-        <v>27.51333333333332</v>
+        <v>4583244.99608321</v>
       </c>
       <c r="H46" t="n">
-        <v>28.03333333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2026,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.1</v>
+        <v>28.7</v>
       </c>
       <c r="C47" t="n">
-        <v>27.2</v>
+        <v>28.7</v>
       </c>
       <c r="D47" t="n">
-        <v>27.2</v>
+        <v>28.7</v>
       </c>
       <c r="E47" t="n">
-        <v>26.1</v>
+        <v>28.7</v>
       </c>
       <c r="F47" t="n">
-        <v>4607.2653</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>27.44666666666666</v>
+        <v>4583255.99608321</v>
       </c>
       <c r="H47" t="n">
-        <v>28.01666666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2061,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>27.2</v>
+        <v>28.6</v>
       </c>
       <c r="D48" t="n">
-        <v>27.2</v>
+        <v>28.6</v>
       </c>
       <c r="E48" t="n">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="F48" t="n">
-        <v>11177.5563</v>
+        <v>3325.1577</v>
       </c>
       <c r="G48" t="n">
-        <v>27.38666666666666</v>
+        <v>4579930.83838321</v>
       </c>
       <c r="H48" t="n">
-        <v>28.01666666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2096,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="C49" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="D49" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="E49" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="F49" t="n">
-        <v>11728.8442</v>
+        <v>598.8111</v>
       </c>
       <c r="G49" t="n">
-        <v>27.27333333333332</v>
+        <v>4579930.83838321</v>
       </c>
       <c r="H49" t="n">
-        <v>27.99499999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2131,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="C50" t="n">
-        <v>26.3</v>
+        <v>28.5</v>
       </c>
       <c r="D50" t="n">
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="E50" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="F50" t="n">
-        <v>5104.3689</v>
+        <v>2974.968</v>
       </c>
       <c r="G50" t="n">
-        <v>27.19333333333332</v>
+        <v>4576955.87038321</v>
       </c>
       <c r="H50" t="n">
-        <v>27.96499999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2166,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D51" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="E51" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="F51" t="n">
         <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>27.11999999999999</v>
+        <v>4576933.87038321</v>
       </c>
       <c r="H51" t="n">
-        <v>27.96499999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2201,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="C52" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D52" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E52" t="n">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="F52" t="n">
-        <v>7347</v>
+        <v>1381.9813</v>
       </c>
       <c r="G52" t="n">
-        <v>27.13333333333332</v>
+        <v>4575551.889083209</v>
       </c>
       <c r="H52" t="n">
-        <v>27.96333333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2236,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="C53" t="n">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="D53" t="n">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="E53" t="n">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="F53" t="n">
-        <v>6281</v>
+        <v>21</v>
       </c>
       <c r="G53" t="n">
-        <v>27.06666666666666</v>
+        <v>4575572.889083209</v>
       </c>
       <c r="H53" t="n">
-        <v>27.95166666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2271,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.6</v>
+        <v>28.3</v>
       </c>
       <c r="C54" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
       <c r="D54" t="n">
-        <v>26.6</v>
+        <v>28.3</v>
       </c>
       <c r="E54" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
       <c r="F54" t="n">
-        <v>32662.1649</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>26.97999999999999</v>
+        <v>4575582.889083209</v>
       </c>
       <c r="H54" t="n">
-        <v>27.92666666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2306,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="C55" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D55" t="n">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="E55" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="F55" t="n">
-        <v>2288</v>
+        <v>4293.9013</v>
       </c>
       <c r="G55" t="n">
-        <v>26.89999999999999</v>
+        <v>4571288.987783209</v>
       </c>
       <c r="H55" t="n">
-        <v>27.91</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2341,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="C56" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="D56" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="E56" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="F56" t="n">
-        <v>4623.5831</v>
+        <v>34270.1896</v>
       </c>
       <c r="G56" t="n">
-        <v>26.81333333333333</v>
+        <v>4537018.798183209</v>
       </c>
       <c r="H56" t="n">
-        <v>27.89</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2376,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="C57" t="n">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="D57" t="n">
-        <v>26.4</v>
+        <v>28.2</v>
       </c>
       <c r="E57" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="F57" t="n">
-        <v>11139.6374</v>
+        <v>44394.1552</v>
       </c>
       <c r="G57" t="n">
-        <v>26.81333333333333</v>
+        <v>4581412.953383209</v>
       </c>
       <c r="H57" t="n">
-        <v>27.86666666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2411,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="C58" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="D58" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="E58" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="F58" t="n">
-        <v>837.9124</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>26.71999999999999</v>
+        <v>4581422.953383209</v>
       </c>
       <c r="H58" t="n">
-        <v>27.83833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2446,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C59" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="D59" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="E59" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>2824.5874</v>
       </c>
       <c r="G59" t="n">
-        <v>26.68666666666666</v>
+        <v>4578598.36598321</v>
       </c>
       <c r="H59" t="n">
-        <v>27.81833333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2481,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="C60" t="n">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="D60" t="n">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="E60" t="n">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="F60" t="n">
-        <v>4832.9573</v>
+        <v>7954.8972</v>
       </c>
       <c r="G60" t="n">
-        <v>26.74666666666666</v>
+        <v>4570643.46878321</v>
       </c>
       <c r="H60" t="n">
-        <v>27.78166666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2516,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="C61" t="n">
-        <v>26.1</v>
+        <v>28.2</v>
       </c>
       <c r="D61" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="E61" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="F61" t="n">
-        <v>29222.2723</v>
+        <v>13114.6062</v>
       </c>
       <c r="G61" t="n">
-        <v>26.69333333333333</v>
+        <v>4583758.07498321</v>
       </c>
       <c r="H61" t="n">
-        <v>27.72333333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2551,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="C62" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="D62" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="E62" t="n">
-        <v>25.9</v>
+        <v>27.7</v>
       </c>
       <c r="F62" t="n">
-        <v>29233.2723</v>
+        <v>34004.1239</v>
       </c>
       <c r="G62" t="n">
-        <v>26.65999999999999</v>
+        <v>4549753.95108321</v>
       </c>
       <c r="H62" t="n">
-        <v>27.67833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2586,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="C63" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="E63" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="F63" t="n">
-        <v>47856.9107</v>
+        <v>160011</v>
       </c>
       <c r="G63" t="n">
-        <v>26.65333333333333</v>
+        <v>4389742.95108321</v>
       </c>
       <c r="H63" t="n">
-        <v>27.63833333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2621,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="C64" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D64" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E64" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="F64" t="n">
-        <v>5724.409</v>
+        <v>5344.2333</v>
       </c>
       <c r="G64" t="n">
-        <v>26.69333333333333</v>
+        <v>4384398.71778321</v>
       </c>
       <c r="H64" t="n">
-        <v>27.61</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2656,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="C65" t="n">
-        <v>26.4</v>
+        <v>28.1</v>
       </c>
       <c r="D65" t="n">
-        <v>26.4</v>
+        <v>28.1</v>
       </c>
       <c r="E65" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="F65" t="n">
-        <v>17351.8087</v>
+        <v>452</v>
       </c>
       <c r="G65" t="n">
-        <v>26.69999999999999</v>
+        <v>4384850.71778321</v>
       </c>
       <c r="H65" t="n">
-        <v>27.56166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2691,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="C66" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="E66" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G66" t="n">
-        <v>26.66666666666666</v>
+        <v>4354711.39579253</v>
       </c>
       <c r="H66" t="n">
-        <v>27.51166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2726,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C67" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D67" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="E67" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F67" t="n">
-        <v>22</v>
+        <v>10020</v>
       </c>
       <c r="G67" t="n">
-        <v>26.63333333333333</v>
+        <v>4364731.39579253</v>
       </c>
       <c r="H67" t="n">
-        <v>27.49166666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2761,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="C68" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="D68" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="E68" t="n">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
       <c r="F68" t="n">
-        <v>10528.9406</v>
+        <v>34</v>
       </c>
       <c r="G68" t="n">
-        <v>26.61333333333333</v>
+        <v>4364697.39579253</v>
       </c>
       <c r="H68" t="n">
-        <v>27.45833333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2796,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="C69" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="D69" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="E69" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="F69" t="n">
-        <v>3098</v>
+        <v>80</v>
       </c>
       <c r="G69" t="n">
-        <v>26.59333333333333</v>
+        <v>4364777.39579253</v>
       </c>
       <c r="H69" t="n">
-        <v>27.43166666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2831,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C70" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="D70" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="E70" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>40010</v>
       </c>
       <c r="G70" t="n">
-        <v>26.57333333333333</v>
+        <v>4364777.39579253</v>
       </c>
       <c r="H70" t="n">
-        <v>27.39666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2866,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C71" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="D71" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E71" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>199200.8637</v>
       </c>
       <c r="G71" t="n">
-        <v>26.57999999999999</v>
+        <v>4165576.53209253</v>
       </c>
       <c r="H71" t="n">
-        <v>27.36666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2901,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C72" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="D72" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="E72" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F72" t="n">
-        <v>18133.686</v>
+        <v>3467.7132</v>
       </c>
       <c r="G72" t="n">
-        <v>26.63333333333333</v>
+        <v>4169044.24529253</v>
       </c>
       <c r="H72" t="n">
-        <v>27.35833333333334</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>26.3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2940,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C73" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D73" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E73" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3584.2294</v>
+        <v>6094.27</v>
       </c>
       <c r="G73" t="n">
-        <v>26.62666666666666</v>
+        <v>4162949.97529253</v>
       </c>
       <c r="H73" t="n">
-        <v>27.33500000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2981,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C74" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="D74" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E74" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F74" t="n">
-        <v>3077.373</v>
+        <v>160115.8836</v>
       </c>
       <c r="G74" t="n">
-        <v>26.58666666666666</v>
+        <v>4002834.09169253</v>
       </c>
       <c r="H74" t="n">
-        <v>27.30666666666668</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3024,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="C75" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D75" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="E75" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>213721.6489</v>
       </c>
       <c r="G75" t="n">
-        <v>26.56666666666666</v>
+        <v>4216555.74059253</v>
       </c>
       <c r="H75" t="n">
-        <v>27.27333333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3065,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C76" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="D76" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E76" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F76" t="n">
-        <v>19951.572</v>
+        <v>4607.2653</v>
       </c>
       <c r="G76" t="n">
-        <v>26.61333333333333</v>
+        <v>4221163.00589253</v>
       </c>
       <c r="H76" t="n">
-        <v>27.26000000000001</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3108,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="C77" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="D77" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E77" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="F77" t="n">
-        <v>12746.2922</v>
+        <v>11177.5563</v>
       </c>
       <c r="G77" t="n">
-        <v>26.62</v>
+        <v>4221163.00589253</v>
       </c>
       <c r="H77" t="n">
-        <v>27.23000000000001</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3151,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="C78" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="D78" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="E78" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F78" t="n">
-        <v>10192.8456</v>
+        <v>11728.8442</v>
       </c>
       <c r="G78" t="n">
-        <v>26.60666666666666</v>
+        <v>4209434.16169253</v>
       </c>
       <c r="H78" t="n">
-        <v>27.20000000000001</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3192,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C79" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="D79" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="E79" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F79" t="n">
-        <v>78792.4642</v>
+        <v>5104.3689</v>
       </c>
       <c r="G79" t="n">
-        <v>26.62666666666666</v>
+        <v>4209434.16169253</v>
       </c>
       <c r="H79" t="n">
-        <v>27.17666666666668</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3235,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="C80" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F80" t="n">
-        <v>27670.7749</v>
+        <v>22</v>
       </c>
       <c r="G80" t="n">
-        <v>26.69333333333333</v>
+        <v>4209456.16169253</v>
       </c>
       <c r="H80" t="n">
-        <v>27.15666666666668</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K80" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3278,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.8</v>
+        <v>26.5</v>
       </c>
       <c r="C81" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="D81" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="E81" t="n">
-        <v>27.8</v>
+        <v>26.5</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>7347</v>
       </c>
       <c r="G81" t="n">
-        <v>26.77999999999999</v>
+        <v>4216803.16169253</v>
       </c>
       <c r="H81" t="n">
-        <v>27.14500000000002</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3319,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D82" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E82" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="F82" t="n">
-        <v>1642.9106</v>
+        <v>6281</v>
       </c>
       <c r="G82" t="n">
-        <v>26.8</v>
+        <v>4210522.16169253</v>
       </c>
       <c r="H82" t="n">
-        <v>27.12666666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3360,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="C83" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="D83" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="E83" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3117.1331</v>
+        <v>32662.1649</v>
       </c>
       <c r="G83" t="n">
-        <v>26.83333333333333</v>
+        <v>4177859.99679253</v>
       </c>
       <c r="H83" t="n">
-        <v>27.11333333333335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3401,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="C84" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D84" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E84" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>2288</v>
       </c>
       <c r="G84" t="n">
-        <v>26.9</v>
+        <v>4180147.99679253</v>
       </c>
       <c r="H84" t="n">
-        <v>27.09666666666668</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3442,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="C85" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="D85" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="E85" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="F85" t="n">
-        <v>1646.8027</v>
+        <v>4623.5831</v>
       </c>
       <c r="G85" t="n">
-        <v>26.94666666666667</v>
+        <v>4175524.41369253</v>
       </c>
       <c r="H85" t="n">
-        <v>27.07666666666668</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3483,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="C86" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="D86" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="E86" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="F86" t="n">
-        <v>2813.2454</v>
+        <v>11139.6374</v>
       </c>
       <c r="G86" t="n">
-        <v>26.98</v>
+        <v>4164384.77629253</v>
       </c>
       <c r="H86" t="n">
-        <v>27.06500000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3524,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="E87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="F87" t="n">
-        <v>30317.162</v>
+        <v>837.9124</v>
       </c>
       <c r="G87" t="n">
-        <v>26.97333333333333</v>
+        <v>4164384.77629253</v>
       </c>
       <c r="H87" t="n">
-        <v>27.05333333333335</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3565,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C88" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D88" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E88" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="F88" t="n">
-        <v>11981.557</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>27</v>
+        <v>4164395.77629253</v>
       </c>
       <c r="H88" t="n">
-        <v>27.02666666666668</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3606,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D89" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E89" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>4832.9573</v>
       </c>
       <c r="G89" t="n">
-        <v>27.04666666666667</v>
+        <v>4164395.77629253</v>
       </c>
       <c r="H89" t="n">
-        <v>27.00500000000001</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3647,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="C90" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D90" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="E90" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="F90" t="n">
-        <v>11511.6919</v>
+        <v>29222.2723</v>
       </c>
       <c r="G90" t="n">
-        <v>27.04666666666667</v>
+        <v>4135173.50399253</v>
       </c>
       <c r="H90" t="n">
-        <v>26.98333333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3688,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27</v>
+        <v>26.1</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D91" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E91" t="n">
-        <v>27</v>
+        <v>25.9</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>29233.2723</v>
       </c>
       <c r="G91" t="n">
-        <v>27.06</v>
+        <v>4164406.77629253</v>
       </c>
       <c r="H91" t="n">
-        <v>26.97000000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,33 +3732,36 @@
         <v>26.6</v>
       </c>
       <c r="C92" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="D92" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="E92" t="n">
         <v>26.6</v>
       </c>
       <c r="F92" t="n">
-        <v>258.4363</v>
+        <v>47856.9107</v>
       </c>
       <c r="G92" t="n">
-        <v>27.04666666666667</v>
+        <v>4212263.68699253</v>
       </c>
       <c r="H92" t="n">
-        <v>26.94333333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3770,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="C93" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="D93" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E93" t="n">
         <v>26.4</v>
       </c>
       <c r="F93" t="n">
-        <v>122069.0901</v>
+        <v>5724.409</v>
       </c>
       <c r="G93" t="n">
-        <v>27.01333333333333</v>
+        <v>4206539.27799253</v>
       </c>
       <c r="H93" t="n">
-        <v>26.91500000000001</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,24 +3823,27 @@
         <v>26.4</v>
       </c>
       <c r="F94" t="n">
-        <v>3791.1901</v>
+        <v>17351.8087</v>
       </c>
       <c r="G94" t="n">
-        <v>26.96</v>
+        <v>4189187.46929253</v>
       </c>
       <c r="H94" t="n">
-        <v>26.88833333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3852,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="C95" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="D95" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="E95" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F95" t="n">
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>26.93333333333333</v>
+        <v>4189198.46929253</v>
       </c>
       <c r="H95" t="n">
-        <v>26.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3893,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D96" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E96" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F96" t="n">
-        <v>4551.838</v>
+        <v>22</v>
       </c>
       <c r="G96" t="n">
-        <v>26.88</v>
+        <v>4189220.46929253</v>
       </c>
       <c r="H96" t="n">
-        <v>26.86166666666668</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3934,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="C97" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D97" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E97" t="n">
-        <v>27.2</v>
+        <v>26.1</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>10528.9406</v>
       </c>
       <c r="G97" t="n">
-        <v>26.89333333333333</v>
+        <v>4178691.52869253</v>
       </c>
       <c r="H97" t="n">
-        <v>26.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3975,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="C98" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D98" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E98" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F98" t="n">
-        <v>1622.5388</v>
+        <v>3098</v>
       </c>
       <c r="G98" t="n">
-        <v>26.85333333333333</v>
+        <v>4175593.52869253</v>
       </c>
       <c r="H98" t="n">
-        <v>26.84166666666668</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4016,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="C99" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="D99" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="E99" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="F99" t="n">
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>26.85333333333333</v>
+        <v>4175604.52869253</v>
       </c>
       <c r="H99" t="n">
-        <v>26.83166666666668</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4057,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C100" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D100" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F100" t="n">
-        <v>6131.77305883</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>26.86666666666666</v>
+        <v>4175614.52869253</v>
       </c>
       <c r="H100" t="n">
-        <v>26.82166666666668</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4098,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="C101" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D101" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E101" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="F101" t="n">
-        <v>2826.896</v>
+        <v>18133.686</v>
       </c>
       <c r="G101" t="n">
-        <v>26.87333333333333</v>
+        <v>4193748.21469253</v>
       </c>
       <c r="H101" t="n">
-        <v>26.81166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4139,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C102" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D102" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E102" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>3584.2294</v>
       </c>
       <c r="G102" t="n">
-        <v>26.90666666666666</v>
+        <v>4190163.98529253</v>
       </c>
       <c r="H102" t="n">
-        <v>26.83166666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4180,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="C103" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="D103" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="E103" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="F103" t="n">
-        <v>9975</v>
+        <v>3077.373</v>
       </c>
       <c r="G103" t="n">
-        <v>26.95333333333333</v>
+        <v>4193241.35829253</v>
       </c>
       <c r="H103" t="n">
-        <v>26.82500000000001</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4221,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="C104" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="D104" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="F104" t="n">
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>26.98666666666666</v>
+        <v>4193251.35829253</v>
       </c>
       <c r="H104" t="n">
-        <v>26.82666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4262,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="C105" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="E105" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="F105" t="n">
-        <v>25948.0215</v>
+        <v>19951.572</v>
       </c>
       <c r="G105" t="n">
-        <v>27.06666666666666</v>
+        <v>4213202.93029253</v>
       </c>
       <c r="H105" t="n">
-        <v>26.85666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4303,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="C106" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="D106" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="F106" t="n">
-        <v>80.9854</v>
+        <v>12746.2922</v>
       </c>
       <c r="G106" t="n">
-        <v>27.09333333333333</v>
+        <v>4213202.93029253</v>
       </c>
       <c r="H106" t="n">
-        <v>26.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4344,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C107" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D107" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E107" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F107" t="n">
-        <v>0.375</v>
+        <v>10192.8456</v>
       </c>
       <c r="G107" t="n">
-        <v>27.13999999999999</v>
+        <v>4223395.77589253</v>
       </c>
       <c r="H107" t="n">
-        <v>26.86666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4385,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C108" t="n">
         <v>27.2</v>
       </c>
-      <c r="C108" t="n">
-        <v>27.3</v>
-      </c>
       <c r="D108" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E108" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1605.3956044</v>
+        <v>78792.4642</v>
       </c>
       <c r="G108" t="n">
-        <v>27.2</v>
+        <v>4302188.24009253</v>
       </c>
       <c r="H108" t="n">
-        <v>26.86833333333334</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4426,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="C109" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="D109" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="E109" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="F109" t="n">
-        <v>432</v>
+        <v>27670.7749</v>
       </c>
       <c r="G109" t="n">
-        <v>27.23333333333333</v>
+        <v>4329859.01499253</v>
       </c>
       <c r="H109" t="n">
-        <v>26.87833333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4467,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="C110" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D110" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E110" t="n">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="F110" t="n">
-        <v>5724.5295</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>27.24666666666666</v>
+        <v>4329869.01499253</v>
       </c>
       <c r="H110" t="n">
-        <v>26.89333333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4508,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C111" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D111" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E111" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F111" t="n">
-        <v>1598.625</v>
+        <v>1642.9106</v>
       </c>
       <c r="G111" t="n">
-        <v>27.27999999999999</v>
+        <v>4328226.104392529</v>
       </c>
       <c r="H111" t="n">
-        <v>26.90166666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4549,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C112" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D112" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E112" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F112" t="n">
-        <v>17.1442</v>
+        <v>3117.1331</v>
       </c>
       <c r="G112" t="n">
-        <v>27.28666666666667</v>
+        <v>4331343.23749253</v>
       </c>
       <c r="H112" t="n">
-        <v>26.90333333333334</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,33 +4593,36 @@
         <v>27.2</v>
       </c>
       <c r="C113" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D113" t="n">
         <v>27.2</v>
       </c>
       <c r="E113" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="F113" t="n">
-        <v>2032.0765</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>27.31333333333333</v>
+        <v>4331353.23749253</v>
       </c>
       <c r="H113" t="n">
-        <v>26.90333333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4631,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="C114" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D114" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E114" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="F114" t="n">
-        <v>25973.9344</v>
+        <v>1646.8027</v>
       </c>
       <c r="G114" t="n">
-        <v>27.29333333333333</v>
+        <v>4329706.43479253</v>
       </c>
       <c r="H114" t="n">
-        <v>26.91000000000001</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4672,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="C115" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="D115" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="E115" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="F115" t="n">
-        <v>20691.9807</v>
+        <v>2813.2454</v>
       </c>
       <c r="G115" t="n">
-        <v>27.23999999999999</v>
+        <v>4332519.68019253</v>
       </c>
       <c r="H115" t="n">
-        <v>26.90666666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,40 +4713,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C116" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D116" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E116" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>30317.162</v>
       </c>
       <c r="G116" t="n">
-        <v>27.21333333333332</v>
+        <v>4302202.518192531</v>
       </c>
       <c r="H116" t="n">
-        <v>26.91166666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L116" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,44 +4754,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C117" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="D117" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E117" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F117" t="n">
-        <v>92188.84209999999</v>
+        <v>11981.557</v>
       </c>
       <c r="G117" t="n">
-        <v>27.13999999999999</v>
+        <v>4290220.961192531</v>
       </c>
       <c r="H117" t="n">
-        <v>26.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L117" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,44 +4795,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="C118" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D118" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E118" t="n">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="F118" t="n">
-        <v>52993.9772</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>27.11333333333332</v>
+        <v>4290230.961192531</v>
       </c>
       <c r="H118" t="n">
-        <v>26.92333333333335</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="L118" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,44 +4836,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C119" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D119" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E119" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F119" t="n">
-        <v>3025</v>
+        <v>11511.6919</v>
       </c>
       <c r="G119" t="n">
-        <v>27.05999999999999</v>
+        <v>4278719.269292531</v>
       </c>
       <c r="H119" t="n">
-        <v>26.92000000000001</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L119" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4950,44 +4877,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="C120" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="D120" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E120" t="n">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="F120" t="n">
-        <v>55247.2401</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>26.97999999999999</v>
+        <v>4278729.269292531</v>
       </c>
       <c r="H120" t="n">
-        <v>26.91500000000001</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L120" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,44 +4918,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C121" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D121" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E121" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F121" t="n">
-        <v>11</v>
+        <v>258.4363</v>
       </c>
       <c r="G121" t="n">
-        <v>26.93333333333332</v>
+        <v>4278470.83299253</v>
       </c>
       <c r="H121" t="n">
-        <v>26.92500000000001</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L121" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,42 +4959,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C122" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D122" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E122" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F122" t="n">
-        <v>6898.9917</v>
+        <v>122069.0901</v>
       </c>
       <c r="G122" t="n">
-        <v>26.87999999999999</v>
+        <v>4156401.74289253</v>
       </c>
       <c r="H122" t="n">
-        <v>26.92166666666668</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,41 +5003,36 @@
         <v>26.4</v>
       </c>
       <c r="C123" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="D123" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="E123" t="n">
         <v>26.4</v>
       </c>
       <c r="F123" t="n">
-        <v>3708.3724</v>
+        <v>3791.1901</v>
       </c>
       <c r="G123" t="n">
-        <v>26.83999999999999</v>
+        <v>4156401.74289253</v>
       </c>
       <c r="H123" t="n">
-        <v>26.91500000000001</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L123" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,42 +5041,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="C124" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="D124" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E124" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="F124" t="n">
-        <v>7583.5131</v>
+        <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>26.82666666666665</v>
+        <v>4156412.74289253</v>
       </c>
       <c r="H124" t="n">
-        <v>26.91166666666668</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,42 +5082,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C125" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="D125" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E125" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>4551.838</v>
       </c>
       <c r="G125" t="n">
-        <v>26.79999999999999</v>
+        <v>4156412.74289253</v>
       </c>
       <c r="H125" t="n">
-        <v>26.91833333333334</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,42 +5123,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="C126" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D126" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E126" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F126" t="n">
-        <v>51148.8747</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>26.75999999999999</v>
+        <v>4156422.74289253</v>
       </c>
       <c r="H126" t="n">
-        <v>26.92500000000001</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,42 +5164,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="C127" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="D127" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="E127" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>1622.5388</v>
       </c>
       <c r="G127" t="n">
-        <v>26.76666666666665</v>
+        <v>4154800.20409253</v>
       </c>
       <c r="H127" t="n">
-        <v>26.93666666666668</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5308,42 +5205,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="C128" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D128" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E128" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="F128" t="n">
-        <v>18321.4169</v>
+        <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>26.77999999999999</v>
+        <v>4154811.20409253</v>
       </c>
       <c r="H128" t="n">
-        <v>26.94500000000001</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,42 +5246,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="C129" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D129" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E129" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F129" t="n">
-        <v>13597.547</v>
+        <v>6131.77305883</v>
       </c>
       <c r="G129" t="n">
-        <v>26.78666666666665</v>
+        <v>4160942.97715136</v>
       </c>
       <c r="H129" t="n">
-        <v>26.95833333333335</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,30 +5299,27 @@
         <v>27.3</v>
       </c>
       <c r="F130" t="n">
-        <v>11</v>
+        <v>2826.896</v>
       </c>
       <c r="G130" t="n">
-        <v>26.83999999999999</v>
+        <v>4160942.97715136</v>
       </c>
       <c r="H130" t="n">
-        <v>26.97333333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,42 +5328,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F131" t="n">
-        <v>20689.3065</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>26.86666666666666</v>
+        <v>4160952.97715136</v>
       </c>
       <c r="H131" t="n">
-        <v>26.98333333333334</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5484,42 +5369,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C132" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D132" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E132" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>9975</v>
       </c>
       <c r="G132" t="n">
-        <v>26.93333333333333</v>
+        <v>4150977.97715136</v>
       </c>
       <c r="H132" t="n">
-        <v>26.98833333333334</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,42 +5410,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E133" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F133" t="n">
-        <v>6655.6934</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>26.96666666666666</v>
+        <v>4150987.97715136</v>
       </c>
       <c r="H133" t="n">
-        <v>27.00833333333334</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,42 +5451,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C134" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D134" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E134" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F134" t="n">
-        <v>365</v>
+        <v>25948.0215</v>
       </c>
       <c r="G134" t="n">
-        <v>27.01333333333332</v>
+        <v>4176935.99865136</v>
       </c>
       <c r="H134" t="n">
-        <v>27.02666666666668</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,42 +5492,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C135" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D135" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E135" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F135" t="n">
-        <v>6639.0542</v>
+        <v>80.9854</v>
       </c>
       <c r="G135" t="n">
-        <v>27.04666666666666</v>
+        <v>4176855.01325136</v>
       </c>
       <c r="H135" t="n">
-        <v>27.03500000000001</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,30 +5545,27 @@
         <v>27.3</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>0.375</v>
       </c>
       <c r="G136" t="n">
-        <v>27.08666666666666</v>
+        <v>4176854.63825136</v>
       </c>
       <c r="H136" t="n">
-        <v>27.04333333333335</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,42 +5574,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C137" t="n">
         <v>27.3</v>
       </c>
-      <c r="C137" t="n">
-        <v>27.4</v>
-      </c>
       <c r="D137" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E137" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="F137" t="n">
-        <v>3012.0677</v>
+        <v>1605.3956044</v>
       </c>
       <c r="G137" t="n">
-        <v>27.14666666666666</v>
+        <v>4176854.63825136</v>
       </c>
       <c r="H137" t="n">
-        <v>27.05333333333335</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5748,42 +5615,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C138" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D138" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="E138" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F138" t="n">
-        <v>92235.2776</v>
+        <v>432</v>
       </c>
       <c r="G138" t="n">
-        <v>27.14666666666666</v>
+        <v>4176422.63825136</v>
       </c>
       <c r="H138" t="n">
-        <v>27.05000000000001</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,42 +5656,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C139" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="D139" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E139" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="F139" t="n">
-        <v>90144.04640000001</v>
+        <v>5724.5295</v>
       </c>
       <c r="G139" t="n">
-        <v>27.15333333333333</v>
+        <v>4182147.16775136</v>
       </c>
       <c r="H139" t="n">
-        <v>27.04333333333335</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,42 +5697,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="C140" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="D140" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="E140" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="F140" t="n">
-        <v>9070.986500000001</v>
+        <v>1598.625</v>
       </c>
       <c r="G140" t="n">
-        <v>27.14666666666666</v>
+        <v>4183745.79275136</v>
       </c>
       <c r="H140" t="n">
-        <v>27.03166666666668</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,42 +5738,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="C141" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="D141" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="E141" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>17.1442</v>
       </c>
       <c r="G141" t="n">
-        <v>27.13999999999999</v>
+        <v>4183728.64855136</v>
       </c>
       <c r="H141" t="n">
-        <v>27.01500000000001</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,44 +5779,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>26.4</v>
+        <v>27.2</v>
       </c>
       <c r="C142" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D142" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E142" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="F142" t="n">
-        <v>8940.5857</v>
+        <v>2032.0765</v>
       </c>
       <c r="G142" t="n">
-        <v>27.1</v>
+        <v>4181696.57205136</v>
       </c>
       <c r="H142" t="n">
-        <v>27.01166666666668</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="L142" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5970,42 +5820,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="C143" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D143" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E143" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F143" t="n">
-        <v>186.567</v>
+        <v>25973.9344</v>
       </c>
       <c r="G143" t="n">
-        <v>27.07999999999999</v>
+        <v>4181696.57205136</v>
       </c>
       <c r="H143" t="n">
-        <v>27.00666666666668</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,42 +5861,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="C144" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="D144" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="E144" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F144" t="n">
-        <v>27470.9701</v>
+        <v>20691.9807</v>
       </c>
       <c r="G144" t="n">
-        <v>27.06666666666666</v>
+        <v>4161004.59135136</v>
       </c>
       <c r="H144" t="n">
-        <v>27.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,42 +5902,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="C145" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D145" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E145" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="F145" t="n">
-        <v>863.8312</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>27.03333333333333</v>
+        <v>4161014.59135136</v>
       </c>
       <c r="H145" t="n">
-        <v>26.99500000000001</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,42 +5943,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="D146" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="E146" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>92188.84209999999</v>
       </c>
       <c r="G146" t="n">
-        <v>27.01333333333333</v>
+        <v>4068825.74925136</v>
       </c>
       <c r="H146" t="n">
-        <v>26.99166666666668</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,42 +5984,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="C147" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="D147" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="E147" t="n">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>52993.9772</v>
       </c>
       <c r="G147" t="n">
-        <v>26.99333333333333</v>
+        <v>4121819.72645136</v>
       </c>
       <c r="H147" t="n">
-        <v>26.99333333333334</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6190,42 +6025,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C148" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D148" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E148" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F148" t="n">
-        <v>4455.7663</v>
+        <v>3025</v>
       </c>
       <c r="G148" t="n">
-        <v>26.96</v>
+        <v>4118794.72645136</v>
       </c>
       <c r="H148" t="n">
-        <v>26.99833333333335</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,42 +6066,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="C149" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="D149" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="E149" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="F149" t="n">
-        <v>36900.3689</v>
+        <v>55247.2401</v>
       </c>
       <c r="G149" t="n">
-        <v>26.92666666666667</v>
+        <v>4063547.48635136</v>
       </c>
       <c r="H149" t="n">
-        <v>26.99666666666668</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,42 +6107,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="C150" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D150" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E150" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F150" t="n">
-        <v>74.82470000000001</v>
+        <v>11</v>
       </c>
       <c r="G150" t="n">
-        <v>26.92666666666667</v>
+        <v>4063558.48635136</v>
       </c>
       <c r="H150" t="n">
-        <v>27.00500000000001</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,42 +6148,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C151" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="D151" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E151" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F151" t="n">
-        <v>1714.98</v>
+        <v>6898.9917</v>
       </c>
       <c r="G151" t="n">
-        <v>26.9</v>
+        <v>4056659.49465136</v>
       </c>
       <c r="H151" t="n">
-        <v>27.00333333333335</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6369,39 +6192,1225 @@
         <v>26.4</v>
       </c>
       <c r="C152" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D152" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E152" t="n">
         <v>26.4</v>
       </c>
       <c r="F152" t="n">
+        <v>3708.3724</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4060367.86705136</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7583.5131</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4060367.86705136</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4060377.86705136</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>51148.8747</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4111526.74175136</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4111536.74175136</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18321.4169</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4093215.32485136</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13597.547</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4079617.77785136</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>11</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4079628.77785136</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20689.3065</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4079628.77785136</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4079638.77785136</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6655.6934</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4079638.77785136</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>365</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4079638.77785136</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6639.0542</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4072999.72365136</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4073009.72365136</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3012.0677</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4076021.79135136</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>92235.2776</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3983786.51375136</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>90144.04640000001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4073930.56015136</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9070.986500000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4064859.573651359</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4064869.573651359</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8940.5857</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4064869.573651359</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>186.567</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4064869.573651359</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>27470.9701</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4064869.573651359</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C174" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D174" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E174" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>863.8312</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4064869.573651359</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4064879.573651359</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>10</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4064889.573651359</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4455.7663</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4060433.80735136</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D178" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>36900.3689</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4060433.80735136</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>74.82470000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4060508.63205136</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1714.98</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4058793.65205136</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F181" t="n">
         <v>1002.3059</v>
       </c>
-      <c r="G152" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="H152" t="n">
-        <v>27.00666666666668</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="G181" t="n">
+        <v>4057791.34615136</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="C2" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E2" t="n">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>1486.9565</v>
       </c>
       <c r="G2" t="n">
-        <v>4401830.50488321</v>
+        <v>4556825.24838321</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C3" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F3" t="n">
-        <v>51828.5707</v>
+        <v>5441.2619</v>
       </c>
       <c r="G3" t="n">
-        <v>4350001.93418321</v>
+        <v>4551383.98648321</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -506,25 +513,25 @@
         <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2082.4772</v>
+        <v>31861.0096</v>
       </c>
       <c r="G4" t="n">
-        <v>4347919.456983211</v>
+        <v>4583244.99608321</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="C5" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="E5" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="F5" t="n">
-        <v>917.5228</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>4347919.456983211</v>
+        <v>4583255.99608321</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="E6" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>3325.1577</v>
       </c>
       <c r="G6" t="n">
-        <v>4347909.456983211</v>
+        <v>4579930.83838321</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="D7" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="E7" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="F7" t="n">
-        <v>248260.9812</v>
+        <v>598.8111</v>
       </c>
       <c r="G7" t="n">
-        <v>4099648.475783211</v>
+        <v>4579930.83838321</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,157 +647,143 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C8" t="n">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="D8" t="n">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="E8" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>2974.968</v>
       </c>
       <c r="G8" t="n">
-        <v>4099658.475783211</v>
+        <v>4576955.87038321</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="D9" t="n">
-        <v>27.1</v>
+        <v>28.1</v>
       </c>
       <c r="E9" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F9" t="n">
-        <v>13799.9862</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>4085858.489583211</v>
+        <v>4576933.87038321</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D10" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E10" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="F10" t="n">
-        <v>7037.1287</v>
+        <v>1381.9813</v>
       </c>
       <c r="G10" t="n">
-        <v>4085858.489583211</v>
+        <v>4575551.889083209</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="D11" t="n">
-        <v>27.1</v>
+        <v>28.2</v>
       </c>
       <c r="E11" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>15502.2939</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>4101360.78348321</v>
+        <v>4575572.889083209</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -795,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.7</v>
+        <v>28.3</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="E12" t="n">
-        <v>26.7</v>
+        <v>28.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3809.9863</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>4105170.76978321</v>
+        <v>4575582.889083209</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -830,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C13" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D13" t="n">
         <v>28.2</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F13" t="n">
-        <v>308482.332</v>
+        <v>4293.9013</v>
       </c>
       <c r="G13" t="n">
-        <v>4413653.10178321</v>
+        <v>4571288.987783209</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -865,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E14" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="F14" t="n">
-        <v>42835.8932</v>
+        <v>34270.1896</v>
       </c>
       <c r="G14" t="n">
-        <v>4413653.10178321</v>
+        <v>4537018.798183209</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -900,13 +899,14 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C15" t="n">
         <v>28.2</v>
@@ -918,16 +918,16 @@
         <v>27.8</v>
       </c>
       <c r="F15" t="n">
-        <v>6358.5073</v>
+        <v>44394.1552</v>
       </c>
       <c r="G15" t="n">
-        <v>4420011.60908321</v>
+        <v>4581412.953383209</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -935,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C16" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D16" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F16" t="n">
-        <v>52.1428</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>4420011.60908321</v>
+        <v>4581422.953383209</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D17" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E17" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="F17" t="n">
-        <v>16458.6822</v>
+        <v>2824.5874</v>
       </c>
       <c r="G17" t="n">
-        <v>4403552.92688321</v>
+        <v>4578598.36598321</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1005,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C18" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D18" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E18" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F18" t="n">
-        <v>14688.7681</v>
+        <v>7954.8972</v>
       </c>
       <c r="G18" t="n">
-        <v>4418241.69498321</v>
+        <v>4570643.46878321</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1040,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C19" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D19" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="F19" t="n">
-        <v>45.97</v>
+        <v>13114.6062</v>
       </c>
       <c r="G19" t="n">
-        <v>4418287.66498321</v>
+        <v>4583758.07498321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1075,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>34004.1239</v>
       </c>
       <c r="G20" t="n">
-        <v>4398287.66498321</v>
+        <v>4549753.95108321</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1110,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C21" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>160011</v>
       </c>
       <c r="G21" t="n">
-        <v>4398297.66498321</v>
+        <v>4389742.95108321</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1145,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C22" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D22" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E22" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>5344.2333</v>
       </c>
       <c r="G22" t="n">
-        <v>4398307.66498321</v>
+        <v>4384398.71778321</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1180,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E23" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F23" t="n">
-        <v>392.8571</v>
+        <v>452</v>
       </c>
       <c r="G23" t="n">
-        <v>4398700.52208321</v>
+        <v>4384850.71778321</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1215,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C24" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E24" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>12748.072</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G24" t="n">
-        <v>4385952.45008321</v>
+        <v>4354711.39579253</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1250,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D25" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E25" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>10020</v>
       </c>
       <c r="G25" t="n">
-        <v>4385962.45008321</v>
+        <v>4364731.39579253</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F26" t="n">
-        <v>1152.5736</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>4384809.87648321</v>
+        <v>4364697.39579253</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1320,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,19 +1341,19 @@
         <v>27.9</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E27" t="n">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="F27" t="n">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="G27" t="n">
-        <v>4385251.87648321</v>
+        <v>4364777.39579253</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="C28" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D28" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="F28" t="n">
-        <v>22673.9093</v>
+        <v>40010</v>
       </c>
       <c r="G28" t="n">
-        <v>4407925.785783211</v>
+        <v>4364777.39579253</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.2</v>
+        <v>26.8</v>
       </c>
       <c r="C29" t="n">
-        <v>29.1</v>
+        <v>26.3</v>
       </c>
       <c r="D29" t="n">
-        <v>29.6</v>
+        <v>26.8</v>
       </c>
       <c r="E29" t="n">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="F29" t="n">
-        <v>83923.245</v>
+        <v>199200.8637</v>
       </c>
       <c r="G29" t="n">
-        <v>4491849.030783211</v>
+        <v>4165576.53209253</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28.5</v>
+        <v>26.4</v>
       </c>
       <c r="C30" t="n">
-        <v>29.6</v>
+        <v>27.7</v>
       </c>
       <c r="D30" t="n">
-        <v>29.6</v>
+        <v>27.7</v>
       </c>
       <c r="E30" t="n">
-        <v>28.5</v>
+        <v>26.4</v>
       </c>
       <c r="F30" t="n">
-        <v>1284.3592</v>
+        <v>3467.7132</v>
       </c>
       <c r="G30" t="n">
-        <v>4493133.389983211</v>
+        <v>4169044.24529253</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="C31" t="n">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="D31" t="n">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="E31" t="n">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1316.3512</v>
+        <v>6094.27</v>
       </c>
       <c r="G31" t="n">
-        <v>4491817.03878321</v>
+        <v>4162949.97529253</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1495,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.5</v>
+        <v>26.4</v>
       </c>
       <c r="C32" t="n">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>29.5</v>
+        <v>26.4</v>
       </c>
       <c r="E32" t="n">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>16001.9321</v>
+        <v>160115.8836</v>
       </c>
       <c r="G32" t="n">
-        <v>4507818.97088321</v>
+        <v>4002834.09169253</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1530,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="C33" t="n">
-        <v>28.6</v>
+        <v>26.9</v>
       </c>
       <c r="D33" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="E33" t="n">
-        <v>28.6</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>13650.7057</v>
+        <v>213721.6489</v>
       </c>
       <c r="G33" t="n">
-        <v>4494168.26518321</v>
+        <v>4216555.74059253</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1565,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="C34" t="n">
-        <v>29.3</v>
+        <v>27.2</v>
       </c>
       <c r="D34" t="n">
-        <v>29.4</v>
+        <v>27.2</v>
       </c>
       <c r="E34" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="F34" t="n">
-        <v>26278.2847</v>
+        <v>4607.2653</v>
       </c>
       <c r="G34" t="n">
-        <v>4520446.54988321</v>
+        <v>4221163.00589253</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1600,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="C35" t="n">
-        <v>29.5</v>
+        <v>27.2</v>
       </c>
       <c r="D35" t="n">
-        <v>29.5</v>
+        <v>27.2</v>
       </c>
       <c r="E35" t="n">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="F35" t="n">
-        <v>65605.7038</v>
+        <v>11177.5563</v>
       </c>
       <c r="G35" t="n">
-        <v>4586052.25368321</v>
+        <v>4221163.00589253</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1635,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>28.3</v>
+        <v>26.3</v>
       </c>
       <c r="C36" t="n">
-        <v>27.9</v>
+        <v>26.3</v>
       </c>
       <c r="D36" t="n">
-        <v>28.3</v>
+        <v>26.3</v>
       </c>
       <c r="E36" t="n">
-        <v>27.9</v>
+        <v>26.3</v>
       </c>
       <c r="F36" t="n">
-        <v>40845.1435</v>
+        <v>11728.8442</v>
       </c>
       <c r="G36" t="n">
-        <v>4545207.11018321</v>
+        <v>4209434.16169253</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1670,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C37" t="n">
-        <v>28.6</v>
+        <v>26.3</v>
       </c>
       <c r="D37" t="n">
-        <v>29.3</v>
+        <v>26.4</v>
       </c>
       <c r="E37" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="F37" t="n">
-        <v>41147.4683</v>
+        <v>5104.3689</v>
       </c>
       <c r="G37" t="n">
-        <v>4586354.57848321</v>
+        <v>4209434.16169253</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>28.6</v>
+        <v>26.6</v>
       </c>
       <c r="C38" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="F38" t="n">
-        <v>17092.2837</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n">
-        <v>4569262.29478321</v>
+        <v>4209456.16169253</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="C39" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="D39" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="E39" t="n">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>7347</v>
       </c>
       <c r="G39" t="n">
-        <v>4569273.29478321</v>
+        <v>4216803.16169253</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="C40" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="D40" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="F40" t="n">
-        <v>30516.0825</v>
+        <v>6281</v>
       </c>
       <c r="G40" t="n">
-        <v>4569273.29478321</v>
+        <v>4210522.16169253</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="C41" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D41" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="E41" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="F41" t="n">
-        <v>13963.8671</v>
+        <v>32662.1649</v>
       </c>
       <c r="G41" t="n">
-        <v>4555309.42768321</v>
+        <v>4177859.99679253</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="C42" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="D42" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="E42" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F42" t="n">
-        <v>31907.5937</v>
+        <v>2288</v>
       </c>
       <c r="G42" t="n">
-        <v>4555309.42768321</v>
+        <v>4180147.99679253</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>26.6</v>
       </c>
       <c r="D43" t="n">
-        <v>28</v>
+        <v>26.6</v>
       </c>
       <c r="E43" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="F43" t="n">
-        <v>28.8642</v>
+        <v>4623.5831</v>
       </c>
       <c r="G43" t="n">
-        <v>4555338.29188321</v>
+        <v>4175524.41369253</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C44" t="n">
-        <v>28.6</v>
+        <v>26.3</v>
       </c>
       <c r="D44" t="n">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
       <c r="E44" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="F44" t="n">
-        <v>1486.9565</v>
+        <v>11139.6374</v>
       </c>
       <c r="G44" t="n">
-        <v>4556825.24838321</v>
+        <v>4164384.77629253</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,63 +1979,69 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="C45" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D45" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E45" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="F45" t="n">
-        <v>5441.2619</v>
+        <v>837.9124</v>
       </c>
       <c r="G45" t="n">
-        <v>4551383.98648321</v>
+        <v>4164384.77629253</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="C46" t="n">
-        <v>28.6</v>
+        <v>26.9</v>
       </c>
       <c r="D46" t="n">
-        <v>28.6</v>
+        <v>26.9</v>
       </c>
       <c r="E46" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="F46" t="n">
-        <v>31861.0096</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>4583244.99608321</v>
+        <v>4164395.77629253</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2015,33 +2050,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28.7</v>
+        <v>26.3</v>
       </c>
       <c r="C47" t="n">
-        <v>28.7</v>
+        <v>26.9</v>
       </c>
       <c r="D47" t="n">
-        <v>28.7</v>
+        <v>26.9</v>
       </c>
       <c r="E47" t="n">
-        <v>28.7</v>
+        <v>26.2</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>4832.9573</v>
       </c>
       <c r="G47" t="n">
-        <v>4583255.99608321</v>
+        <v>4164395.77629253</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2050,33 +2092,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>28</v>
+        <v>26.2</v>
       </c>
       <c r="C48" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="D48" t="n">
-        <v>28.6</v>
+        <v>26.2</v>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>26.1</v>
       </c>
       <c r="F48" t="n">
-        <v>3325.1577</v>
+        <v>29222.2723</v>
       </c>
       <c r="G48" t="n">
-        <v>4579930.83838321</v>
+        <v>4135173.50399253</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2085,33 +2134,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="C49" t="n">
-        <v>28.6</v>
+        <v>26.7</v>
       </c>
       <c r="D49" t="n">
-        <v>28.6</v>
+        <v>26.7</v>
       </c>
       <c r="E49" t="n">
-        <v>28.6</v>
+        <v>25.9</v>
       </c>
       <c r="F49" t="n">
-        <v>598.8111</v>
+        <v>29233.2723</v>
       </c>
       <c r="G49" t="n">
-        <v>4579930.83838321</v>
+        <v>4164406.77629253</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2120,33 +2176,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="C50" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="D50" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="E50" t="n">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="F50" t="n">
-        <v>2974.968</v>
+        <v>47856.9107</v>
       </c>
       <c r="G50" t="n">
-        <v>4576955.87038321</v>
+        <v>4212263.68699253</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2155,33 +2218,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C51" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="D51" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="E51" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>5724.409</v>
       </c>
       <c r="G51" t="n">
-        <v>4576933.87038321</v>
+        <v>4206539.27799253</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2190,33 +2260,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="C52" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="D52" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="E52" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="F52" t="n">
-        <v>1381.9813</v>
+        <v>17351.8087</v>
       </c>
       <c r="G52" t="n">
-        <v>4575551.889083209</v>
+        <v>4189187.46929253</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2225,138 +2302,172 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="C53" t="n">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="D53" t="n">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="E53" t="n">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="F53" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>4575572.889083209</v>
+        <v>4189198.46929253</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.3</v>
+        <v>26.6</v>
       </c>
       <c r="C54" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="D54" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="E54" t="n">
-        <v>28.3</v>
+        <v>26.6</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>4575582.889083209</v>
+        <v>4189220.46929253</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="C55" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="D55" t="n">
-        <v>28.2</v>
+        <v>26.7</v>
       </c>
       <c r="E55" t="n">
-        <v>27.9</v>
+        <v>26.1</v>
       </c>
       <c r="F55" t="n">
-        <v>4293.9013</v>
+        <v>10528.9406</v>
       </c>
       <c r="G55" t="n">
-        <v>4571288.987783209</v>
+        <v>4178691.52869253</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C56" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="D56" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E56" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F56" t="n">
-        <v>34270.1896</v>
+        <v>3098</v>
       </c>
       <c r="G56" t="n">
-        <v>4537018.798183209</v>
+        <v>4175593.52869253</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2365,243 +2476,304 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="D57" t="n">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="E57" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="F57" t="n">
-        <v>44394.1552</v>
+        <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>4581412.953383209</v>
+        <v>4175604.52869253</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="C58" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="D58" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="E58" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="F58" t="n">
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>4581422.953383209</v>
+        <v>4175614.52869253</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.9</v>
+        <v>26.2</v>
       </c>
       <c r="C59" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="D59" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E59" t="n">
-        <v>27.9</v>
+        <v>26.2</v>
       </c>
       <c r="F59" t="n">
-        <v>2824.5874</v>
+        <v>18133.686</v>
       </c>
       <c r="G59" t="n">
-        <v>4578598.36598321</v>
+        <v>4193748.21469253</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C60" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="D60" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E60" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="F60" t="n">
-        <v>7954.8972</v>
+        <v>3584.2294</v>
       </c>
       <c r="G60" t="n">
-        <v>4570643.46878321</v>
+        <v>4190163.98529253</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C61" t="n">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="D61" t="n">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="E61" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F61" t="n">
-        <v>13114.6062</v>
+        <v>3077.373</v>
       </c>
       <c r="G61" t="n">
-        <v>4583758.07498321</v>
+        <v>4193241.35829253</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="C62" t="n">
-        <v>28.1</v>
+        <v>26.6</v>
       </c>
       <c r="D62" t="n">
-        <v>28.1</v>
+        <v>26.6</v>
       </c>
       <c r="E62" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="F62" t="n">
-        <v>34004.1239</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>4549753.95108321</v>
+        <v>4193251.35829253</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="D63" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="E63" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="F63" t="n">
-        <v>160011</v>
+        <v>19951.572</v>
       </c>
       <c r="G63" t="n">
-        <v>4389742.95108321</v>
+        <v>4213202.93029253</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2610,33 +2782,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="C64" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="D64" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="E64" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="F64" t="n">
-        <v>5344.2333</v>
+        <v>12746.2922</v>
       </c>
       <c r="G64" t="n">
-        <v>4384398.71778321</v>
+        <v>4213202.93029253</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2645,33 +2824,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="C65" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="D65" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="E65" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="F65" t="n">
-        <v>452</v>
+        <v>10192.8456</v>
       </c>
       <c r="G65" t="n">
-        <v>4384850.71778321</v>
+        <v>4223395.77589253</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2680,33 +2866,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C66" t="n">
         <v>27.2</v>
       </c>
-      <c r="C66" t="n">
-        <v>27</v>
-      </c>
       <c r="D66" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="E66" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F66" t="n">
-        <v>30139.32199068</v>
+        <v>78792.4642</v>
       </c>
       <c r="G66" t="n">
-        <v>4354711.39579253</v>
+        <v>4302188.24009253</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2715,33 +2908,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C67" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D67" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E67" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F67" t="n">
-        <v>10020</v>
+        <v>27670.7749</v>
       </c>
       <c r="G67" t="n">
-        <v>4364731.39579253</v>
+        <v>4329859.01499253</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2750,11 +2950,18 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2773,10 +2980,10 @@
         <v>27.8</v>
       </c>
       <c r="F68" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>4364697.39579253</v>
+        <v>4329869.01499253</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2785,33 +2992,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="C69" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="E69" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>1642.9106</v>
       </c>
       <c r="G69" t="n">
-        <v>4364777.39579253</v>
+        <v>4328226.104392529</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2820,33 +3034,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C70" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="D70" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E70" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="F70" t="n">
-        <v>40010</v>
+        <v>3117.1331</v>
       </c>
       <c r="G70" t="n">
-        <v>4364777.39579253</v>
+        <v>4331343.23749253</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2855,33 +3076,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="C71" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="D71" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E71" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="F71" t="n">
-        <v>199200.8637</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>4165576.53209253</v>
+        <v>4331353.23749253</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2890,72 +3118,82 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="C72" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D72" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E72" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="F72" t="n">
-        <v>3467.7132</v>
+        <v>1646.8027</v>
       </c>
       <c r="G72" t="n">
-        <v>4169044.24529253</v>
+        <v>4329706.43479253</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>26.3</v>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D73" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E73" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F73" t="n">
-        <v>6094.27</v>
+        <v>2813.2454</v>
       </c>
       <c r="G73" t="n">
-        <v>4162949.97529253</v>
+        <v>4332519.68019253</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,77 +3207,77 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F74" t="n">
-        <v>160115.8836</v>
+        <v>30317.162</v>
       </c>
       <c r="G74" t="n">
-        <v>4002834.09169253</v>
+        <v>4302202.518192531</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>26.3</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C75" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="D75" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E75" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="F75" t="n">
-        <v>213721.6489</v>
+        <v>11981.557</v>
       </c>
       <c r="G75" t="n">
-        <v>4216555.74059253</v>
+        <v>4290220.961192531</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3059,38 +3297,37 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="C76" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E76" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="F76" t="n">
-        <v>4607.2653</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>4221163.00589253</v>
+        <v>4290230.961192531</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>26.9</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>26.3</v>
       </c>
@@ -3102,38 +3339,37 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="C77" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D77" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="E77" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F77" t="n">
-        <v>11177.5563</v>
+        <v>11511.6919</v>
       </c>
       <c r="G77" t="n">
-        <v>4221163.00589253</v>
+        <v>4278719.269292531</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>26.3</v>
       </c>
@@ -3145,28 +3381,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="C78" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="E78" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="F78" t="n">
-        <v>11728.8442</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>4209434.16169253</v>
+        <v>4278729.269292531</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3186,38 +3423,37 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C79" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D79" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="E79" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F79" t="n">
-        <v>5104.3689</v>
+        <v>258.4363</v>
       </c>
       <c r="G79" t="n">
-        <v>4209434.16169253</v>
+        <v>4278470.83299253</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>26.3</v>
       </c>
@@ -3229,6 +3465,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3238,29 +3475,27 @@
         <v>26.6</v>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="E80" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="F80" t="n">
-        <v>22</v>
+        <v>122069.0901</v>
       </c>
       <c r="G80" t="n">
-        <v>4209456.16169253</v>
+        <v>4156401.74289253</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>26.3</v>
       </c>
@@ -3272,28 +3507,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C81" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="D81" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="E81" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F81" t="n">
-        <v>7347</v>
+        <v>3791.1901</v>
       </c>
       <c r="G81" t="n">
-        <v>4216803.16169253</v>
+        <v>4156401.74289253</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3313,28 +3549,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C82" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E82" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F82" t="n">
-        <v>6281</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>4210522.16169253</v>
+        <v>4156412.74289253</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,28 +3591,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C83" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E83" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="F83" t="n">
-        <v>32662.1649</v>
+        <v>4551.838</v>
       </c>
       <c r="G83" t="n">
-        <v>4177859.99679253</v>
+        <v>4156412.74289253</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3395,28 +3633,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="C84" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="D84" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="E84" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>2288</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>4180147.99679253</v>
+        <v>4156422.74289253</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3436,28 +3675,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C85" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="D85" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E85" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F85" t="n">
-        <v>4623.5831</v>
+        <v>1622.5388</v>
       </c>
       <c r="G85" t="n">
-        <v>4175524.41369253</v>
+        <v>4154800.20409253</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3477,28 +3717,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.4</v>
+        <v>27.2</v>
       </c>
       <c r="C86" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="D86" t="n">
-        <v>26.4</v>
+        <v>27.2</v>
       </c>
       <c r="E86" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="F86" t="n">
-        <v>11139.6374</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>4164384.77629253</v>
+        <v>4154811.20409253</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3518,28 +3759,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="C87" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="D87" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="E87" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="F87" t="n">
-        <v>837.9124</v>
+        <v>6131.77305883</v>
       </c>
       <c r="G87" t="n">
-        <v>4164384.77629253</v>
+        <v>4160942.97715136</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3559,28 +3801,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="D88" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>2826.896</v>
       </c>
       <c r="G88" t="n">
-        <v>4164395.77629253</v>
+        <v>4160942.97715136</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3600,28 +3843,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="C89" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D89" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E89" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F89" t="n">
-        <v>4832.9573</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>4164395.77629253</v>
+        <v>4160952.97715136</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3641,28 +3885,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="C90" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="D90" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="E90" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="F90" t="n">
-        <v>29222.2723</v>
+        <v>9975</v>
       </c>
       <c r="G90" t="n">
-        <v>4135173.50399253</v>
+        <v>4150977.97715136</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3682,28 +3927,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="C91" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="D91" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="E91" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="F91" t="n">
-        <v>29233.2723</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>4164406.77629253</v>
+        <v>4150987.97715136</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3723,28 +3969,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="C92" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="D92" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="E92" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="F92" t="n">
-        <v>47856.9107</v>
+        <v>25948.0215</v>
       </c>
       <c r="G92" t="n">
-        <v>4212263.68699253</v>
+        <v>4176935.99865136</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3764,28 +4011,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="C93" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="D93" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="E93" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="F93" t="n">
-        <v>5724.409</v>
+        <v>80.9854</v>
       </c>
       <c r="G93" t="n">
-        <v>4206539.27799253</v>
+        <v>4176855.01325136</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3805,28 +4053,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="C94" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="D94" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="F94" t="n">
-        <v>17351.8087</v>
+        <v>0.375</v>
       </c>
       <c r="G94" t="n">
-        <v>4189187.46929253</v>
+        <v>4176854.63825136</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3846,28 +4095,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="C95" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="D95" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="E95" t="n">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>1605.3956044</v>
       </c>
       <c r="G95" t="n">
-        <v>4189198.46929253</v>
+        <v>4176854.63825136</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3887,28 +4137,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="C96" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D96" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E96" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>432</v>
       </c>
       <c r="G96" t="n">
-        <v>4189220.46929253</v>
+        <v>4176422.63825136</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3928,28 +4179,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C97" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="D97" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="E97" t="n">
-        <v>26.1</v>
+        <v>26.9</v>
       </c>
       <c r="F97" t="n">
-        <v>10528.9406</v>
+        <v>5724.5295</v>
       </c>
       <c r="G97" t="n">
-        <v>4178691.52869253</v>
+        <v>4182147.16775136</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3969,28 +4221,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="C98" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D98" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E98" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="F98" t="n">
-        <v>3098</v>
+        <v>1598.625</v>
       </c>
       <c r="G98" t="n">
-        <v>4175593.52869253</v>
+        <v>4183745.79275136</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4010,28 +4263,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="C99" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="D99" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="E99" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="F99" t="n">
-        <v>11</v>
+        <v>17.1442</v>
       </c>
       <c r="G99" t="n">
-        <v>4175604.52869253</v>
+        <v>4183728.64855136</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4051,28 +4305,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="C100" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D100" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="E100" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>2032.0765</v>
       </c>
       <c r="G100" t="n">
-        <v>4175614.52869253</v>
+        <v>4181696.57205136</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4092,28 +4347,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="C101" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="D101" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="E101" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F101" t="n">
-        <v>18133.686</v>
+        <v>25973.9344</v>
       </c>
       <c r="G101" t="n">
-        <v>4193748.21469253</v>
+        <v>4181696.57205136</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4133,28 +4389,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="E102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F102" t="n">
-        <v>3584.2294</v>
+        <v>20691.9807</v>
       </c>
       <c r="G102" t="n">
-        <v>4190163.98529253</v>
+        <v>4161004.59135136</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4174,28 +4431,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="C103" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="D103" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="E103" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F103" t="n">
-        <v>3077.373</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>4193241.35829253</v>
+        <v>4161014.59135136</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4215,28 +4473,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C104" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="D104" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="E104" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>92188.84209999999</v>
       </c>
       <c r="G104" t="n">
-        <v>4193251.35829253</v>
+        <v>4068825.74925136</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4256,28 +4515,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C105" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D105" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E105" t="n">
         <v>26.4</v>
       </c>
       <c r="F105" t="n">
-        <v>19951.572</v>
+        <v>52993.9772</v>
       </c>
       <c r="G105" t="n">
-        <v>4213202.93029253</v>
+        <v>4121819.72645136</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4297,28 +4557,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C106" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D106" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E106" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F106" t="n">
-        <v>12746.2922</v>
+        <v>3025</v>
       </c>
       <c r="G106" t="n">
-        <v>4213202.93029253</v>
+        <v>4118794.72645136</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4338,28 +4599,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="C107" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="D107" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="E107" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="F107" t="n">
-        <v>10192.8456</v>
+        <v>55247.2401</v>
       </c>
       <c r="G107" t="n">
-        <v>4223395.77589253</v>
+        <v>4063547.48635136</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4379,28 +4641,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C108" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D108" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E108" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F108" t="n">
-        <v>78792.4642</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>4302188.24009253</v>
+        <v>4063558.48635136</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4420,28 +4683,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="C109" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="D109" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="E109" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="F109" t="n">
-        <v>27670.7749</v>
+        <v>6898.9917</v>
       </c>
       <c r="G109" t="n">
-        <v>4329859.01499253</v>
+        <v>4056659.49465136</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4461,28 +4725,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C110" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="D110" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="E110" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>3708.3724</v>
       </c>
       <c r="G110" t="n">
-        <v>4329869.01499253</v>
+        <v>4060367.86705136</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4502,28 +4767,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D111" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E111" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="F111" t="n">
-        <v>1642.9106</v>
+        <v>7583.5131</v>
       </c>
       <c r="G111" t="n">
-        <v>4328226.104392529</v>
+        <v>4060367.86705136</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4543,28 +4809,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="C112" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="D112" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="E112" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="F112" t="n">
-        <v>3117.1331</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>4331343.23749253</v>
+        <v>4060377.86705136</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4584,28 +4851,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="C113" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D113" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E113" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>51148.8747</v>
       </c>
       <c r="G113" t="n">
-        <v>4331353.23749253</v>
+        <v>4111526.74175136</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4625,28 +4893,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C114" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D114" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E114" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F114" t="n">
-        <v>1646.8027</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>4329706.43479253</v>
+        <v>4111536.74175136</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4666,28 +4935,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C115" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D115" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E115" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F115" t="n">
-        <v>2813.2454</v>
+        <v>18321.4169</v>
       </c>
       <c r="G115" t="n">
-        <v>4332519.68019253</v>
+        <v>4093215.32485136</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4707,6 +4977,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4725,10 +4996,10 @@
         <v>27</v>
       </c>
       <c r="F116" t="n">
-        <v>30317.162</v>
+        <v>13597.547</v>
       </c>
       <c r="G116" t="n">
-        <v>4302202.518192531</v>
+        <v>4079617.77785136</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4748,28 +5019,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="C117" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="D117" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="E117" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="F117" t="n">
-        <v>11981.557</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>4290220.961192531</v>
+        <v>4079628.77785136</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4789,28 +5061,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C118" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D118" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E118" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>20689.3065</v>
       </c>
       <c r="G118" t="n">
-        <v>4290230.961192531</v>
+        <v>4079628.77785136</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4830,28 +5103,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="C119" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="D119" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="E119" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="F119" t="n">
-        <v>11511.6919</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>4278719.269292531</v>
+        <v>4079638.77785136</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4871,28 +5145,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D120" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="E120" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>6655.6934</v>
       </c>
       <c r="G120" t="n">
-        <v>4278729.269292531</v>
+        <v>4079638.77785136</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4912,28 +5187,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="C121" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="D121" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="E121" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="F121" t="n">
-        <v>258.4363</v>
+        <v>365</v>
       </c>
       <c r="G121" t="n">
-        <v>4278470.83299253</v>
+        <v>4079638.77785136</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4953,28 +5229,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="C122" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="D122" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="E122" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="F122" t="n">
-        <v>122069.0901</v>
+        <v>6639.0542</v>
       </c>
       <c r="G122" t="n">
-        <v>4156401.74289253</v>
+        <v>4072999.72365136</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4994,28 +5271,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="C123" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="D123" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="E123" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="F123" t="n">
-        <v>3791.1901</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>4156401.74289253</v>
+        <v>4073009.72365136</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5035,28 +5313,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C124" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D124" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="E124" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v>3012.0677</v>
       </c>
       <c r="G124" t="n">
-        <v>4156412.74289253</v>
+        <v>4076021.79135136</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5076,28 +5355,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C125" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D125" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E125" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="F125" t="n">
-        <v>4551.838</v>
+        <v>92235.2776</v>
       </c>
       <c r="G125" t="n">
-        <v>4156412.74289253</v>
+        <v>3983786.51375136</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5117,28 +5397,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="C126" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="D126" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="E126" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>90144.04640000001</v>
       </c>
       <c r="G126" t="n">
-        <v>4156422.74289253</v>
+        <v>4073930.56015136</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5158,16 +5439,17 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C127" t="n">
         <v>26.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>26.5</v>
       </c>
       <c r="D127" t="n">
         <v>26.7</v>
@@ -5176,10 +5458,10 @@
         <v>26.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1622.5388</v>
+        <v>9070.986500000001</v>
       </c>
       <c r="G127" t="n">
-        <v>4154800.20409253</v>
+        <v>4064859.573651359</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5199,36 +5481,39 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="C128" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="D128" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="E128" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>4154811.20409253</v>
+        <v>4064869.573651359</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K128" t="n">
         <v>26.3</v>
       </c>
@@ -5240,36 +5525,39 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C129" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="D129" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E129" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F129" t="n">
-        <v>6131.77305883</v>
+        <v>8940.5857</v>
       </c>
       <c r="G129" t="n">
-        <v>4160942.97715136</v>
+        <v>4064869.573651359</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>26.8</v>
+      </c>
       <c r="K129" t="n">
         <v>26.3</v>
       </c>
@@ -5281,36 +5569,39 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="C130" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="D130" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E130" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="F130" t="n">
-        <v>2826.896</v>
+        <v>186.567</v>
       </c>
       <c r="G130" t="n">
-        <v>4160942.97715136</v>
+        <v>4064869.573651359</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>26.8</v>
+      </c>
       <c r="K130" t="n">
         <v>26.3</v>
       </c>
@@ -5322,36 +5613,39 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="C131" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="D131" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="E131" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>27470.9701</v>
       </c>
       <c r="G131" t="n">
-        <v>4160952.97715136</v>
+        <v>4064869.573651359</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>26.8</v>
+      </c>
       <c r="K131" t="n">
         <v>26.3</v>
       </c>
@@ -5363,28 +5657,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="C132" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="D132" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E132" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="F132" t="n">
-        <v>9975</v>
+        <v>863.8312</v>
       </c>
       <c r="G132" t="n">
-        <v>4150977.97715136</v>
+        <v>4064869.573651359</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5404,28 +5699,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C133" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D133" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E133" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F133" t="n">
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>4150987.97715136</v>
+        <v>4064879.573651359</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5445,28 +5741,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C134" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="D134" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="E134" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F134" t="n">
-        <v>25948.0215</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>4176935.99865136</v>
+        <v>4064889.573651359</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5486,36 +5783,39 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="C135" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="D135" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="E135" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="F135" t="n">
-        <v>80.9854</v>
+        <v>4455.7663</v>
       </c>
       <c r="G135" t="n">
-        <v>4176855.01325136</v>
+        <v>4060433.80735136</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K135" t="n">
         <v>26.3</v>
       </c>
@@ -5527,36 +5827,39 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C136" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D136" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E136" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F136" t="n">
-        <v>0.375</v>
+        <v>36900.3689</v>
       </c>
       <c r="G136" t="n">
-        <v>4176854.63825136</v>
+        <v>4060433.80735136</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>26.9</v>
+      </c>
       <c r="K136" t="n">
         <v>26.3</v>
       </c>
@@ -5568,36 +5871,39 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C137" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D137" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E137" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="F137" t="n">
-        <v>1605.3956044</v>
+        <v>74.82470000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>4176854.63825136</v>
+        <v>4060508.63205136</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>26.9</v>
+      </c>
       <c r="K137" t="n">
         <v>26.3</v>
       </c>
@@ -5609,6 +5915,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5627,18 +5934,20 @@
         <v>26.9</v>
       </c>
       <c r="F138" t="n">
-        <v>432</v>
+        <v>1714.98</v>
       </c>
       <c r="G138" t="n">
-        <v>4176422.63825136</v>
+        <v>4058793.65205136</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K138" t="n">
         <v>26.3</v>
       </c>
@@ -5650,36 +5959,39 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1002.3059</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4057791.34615136</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
         <v>26.9</v>
       </c>
-      <c r="C139" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5724.5295</v>
-      </c>
-      <c r="G139" t="n">
-        <v>4182147.16775136</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
         <v>26.3</v>
       </c>
@@ -5691,1728 +6003,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1598.625</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4183745.79275136</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17.1442</v>
-      </c>
-      <c r="G141" t="n">
-        <v>4183728.64855136</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2032.0765</v>
-      </c>
-      <c r="G142" t="n">
-        <v>4181696.57205136</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>25973.9344</v>
-      </c>
-      <c r="G143" t="n">
-        <v>4181696.57205136</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>20691.9807</v>
-      </c>
-      <c r="G144" t="n">
-        <v>4161004.59135136</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>4161014.59135136</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>92188.84209999999</v>
-      </c>
-      <c r="G146" t="n">
-        <v>4068825.74925136</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>52993.9772</v>
-      </c>
-      <c r="G147" t="n">
-        <v>4121819.72645136</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3025</v>
-      </c>
-      <c r="G148" t="n">
-        <v>4118794.72645136</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E149" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>55247.2401</v>
-      </c>
-      <c r="G149" t="n">
-        <v>4063547.48635136</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>11</v>
-      </c>
-      <c r="G150" t="n">
-        <v>4063558.48635136</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>6898.9917</v>
-      </c>
-      <c r="G151" t="n">
-        <v>4056659.49465136</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3708.3724</v>
-      </c>
-      <c r="G152" t="n">
-        <v>4060367.86705136</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7583.5131</v>
-      </c>
-      <c r="G153" t="n">
-        <v>4060367.86705136</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>10</v>
-      </c>
-      <c r="G154" t="n">
-        <v>4060377.86705136</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E155" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F155" t="n">
-        <v>51148.8747</v>
-      </c>
-      <c r="G155" t="n">
-        <v>4111526.74175136</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10</v>
-      </c>
-      <c r="G156" t="n">
-        <v>4111536.74175136</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>18321.4169</v>
-      </c>
-      <c r="G157" t="n">
-        <v>4093215.32485136</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27</v>
-      </c>
-      <c r="F158" t="n">
-        <v>13597.547</v>
-      </c>
-      <c r="G158" t="n">
-        <v>4079617.77785136</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>11</v>
-      </c>
-      <c r="G159" t="n">
-        <v>4079628.77785136</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>20689.3065</v>
-      </c>
-      <c r="G160" t="n">
-        <v>4079628.77785136</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>10</v>
-      </c>
-      <c r="G161" t="n">
-        <v>4079638.77785136</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6655.6934</v>
-      </c>
-      <c r="G162" t="n">
-        <v>4079638.77785136</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>365</v>
-      </c>
-      <c r="G163" t="n">
-        <v>4079638.77785136</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6639.0542</v>
-      </c>
-      <c r="G164" t="n">
-        <v>4072999.72365136</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>10</v>
-      </c>
-      <c r="G165" t="n">
-        <v>4073009.72365136</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D166" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3012.0677</v>
-      </c>
-      <c r="G166" t="n">
-        <v>4076021.79135136</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>92235.2776</v>
-      </c>
-      <c r="G167" t="n">
-        <v>3983786.51375136</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>90144.04640000001</v>
-      </c>
-      <c r="G168" t="n">
-        <v>4073930.56015136</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C169" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>9070.986500000001</v>
-      </c>
-      <c r="G169" t="n">
-        <v>4064859.573651359</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C170" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D170" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F170" t="n">
-        <v>10</v>
-      </c>
-      <c r="G170" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C171" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D171" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E171" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F171" t="n">
-        <v>8940.5857</v>
-      </c>
-      <c r="G171" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D172" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F172" t="n">
-        <v>186.567</v>
-      </c>
-      <c r="G172" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C173" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D173" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F173" t="n">
-        <v>27470.9701</v>
-      </c>
-      <c r="G173" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C174" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D174" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E174" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F174" t="n">
-        <v>863.8312</v>
-      </c>
-      <c r="G174" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>27</v>
-      </c>
-      <c r="C175" t="n">
-        <v>27</v>
-      </c>
-      <c r="D175" t="n">
-        <v>27</v>
-      </c>
-      <c r="E175" t="n">
-        <v>27</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10</v>
-      </c>
-      <c r="G175" t="n">
-        <v>4064879.573651359</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F176" t="n">
-        <v>10</v>
-      </c>
-      <c r="G176" t="n">
-        <v>4064889.573651359</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C177" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D177" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E177" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4455.7663</v>
-      </c>
-      <c r="G177" t="n">
-        <v>4060433.80735136</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C178" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D178" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E178" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F178" t="n">
-        <v>36900.3689</v>
-      </c>
-      <c r="G178" t="n">
-        <v>4060433.80735136</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F179" t="n">
-        <v>74.82470000000001</v>
-      </c>
-      <c r="G179" t="n">
-        <v>4060508.63205136</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C180" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1714.98</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4058793.65205136</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C181" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1002.3059</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4057791.34615136</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>4428589.1305</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>4430685.8432</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>4430685.8432</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>4418241.69498321</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>4507818.97088321</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>4494168.26518321</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>4586052.25368321</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>4545207.11018321</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>4586354.57848321</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>4569262.29478321</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>4569273.29478321</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>4583244.99608321</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>4583255.99608321</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>4579930.83838321</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>4576955.87038321</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>4576933.87038321</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>4575551.889083209</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,21 @@
         <v>4213202.93029253</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4848,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4885,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4922,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4959,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4996,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5033,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5070,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5107,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5144,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5181,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5218,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5255,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5292,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5329,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5366,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5403,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5440,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5477,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5514,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5551,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5588,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5625,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5662,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5699,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5736,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5771,21 @@
         <v>4160952.97715136</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5810,21 @@
         <v>4150977.97715136</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5851,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5888,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5925,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5962,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5999,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6036,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +6071,21 @@
         <v>4182147.16775136</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +6110,21 @@
         <v>4183745.79275136</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,18 +6149,21 @@
         <v>4183728.64855136</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6190,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6576,18 +6225,21 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6612,18 +6264,21 @@
         <v>4161004.59135136</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6648,22 +6303,21 @@
         <v>4161014.59135136</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
         <v>26.5</v>
       </c>
-      <c r="K174" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6688,24 +6342,21 @@
         <v>4068825.74925136</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6730,26 +6381,21 @@
         <v>4121819.72645136</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
         <v>26.4</v>
       </c>
-      <c r="K176" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6774,26 +6420,21 @@
         <v>4118794.72645136</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
         <v>26.9</v>
       </c>
-      <c r="K177" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6818,26 +6459,19 @@
         <v>4063547.48635136</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K178" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6862,26 +6496,19 @@
         <v>4063558.48635136</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K179" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6906,26 +6533,21 @@
         <v>4056659.49465136</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
         <v>26.7</v>
       </c>
-      <c r="K180" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6950,26 +6572,21 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
         <v>26.5</v>
       </c>
-      <c r="K181" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6994,26 +6611,21 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
         <v>26.7</v>
       </c>
-      <c r="K182" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7038,26 +6650,21 @@
         <v>4060377.86705136</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
         <v>26.7</v>
       </c>
-      <c r="K183" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7082,26 +6689,21 @@
         <v>4111526.74175136</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
         <v>26.8</v>
       </c>
-      <c r="K184" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7126,26 +6728,19 @@
         <v>4111536.74175136</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K185" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7170,26 +6765,19 @@
         <v>4093215.32485136</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K186" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7214,26 +6802,19 @@
         <v>4079617.77785136</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K187" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7260,22 +6841,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7300,24 +6876,21 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7344,22 +6917,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7384,24 +6952,21 @@
         <v>4079638.77785136</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7428,22 +6993,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7470,22 +7030,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7512,22 +7067,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7554,22 +7104,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7596,22 +7141,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7638,22 +7178,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7678,24 +7213,21 @@
         <v>4064859.573651359</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7720,24 +7252,21 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7762,24 +7291,21 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7804,24 +7330,21 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7848,22 +7371,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7890,22 +7408,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7932,22 +7445,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7974,22 +7482,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8016,22 +7519,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8058,22 +7556,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8100,22 +7593,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8142,22 +7630,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8184,24 +7667,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>4514774.841</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4467987.914799999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4476504.8828</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4471227.8366</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4471237.8366</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4468229.6203</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4463874.4223</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>4502314.208099999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>4430260.612</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>4428589.1305</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>4430685.8432</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>4430685.8432</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>4429072.3617</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4429072.3617</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>4429083.3617</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>4429083.3617</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4429083.3617</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>4430066.57848321</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4401810.50488321</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4401820.50488321</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4401830.50488321</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>4347919.456983211</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>4347919.456983211</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4347909.456983211</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4418241.69498321</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>4507818.97088321</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>4494168.26518321</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>4586052.25368321</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4545207.11018321</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>4586354.57848321</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>4569262.29478321</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>4569273.29478321</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4583244.99608321</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4583255.99608321</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4579930.83838321</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>4576955.87038321</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>4576933.87038321</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>4575551.889083209</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4807,831 +4807,753 @@
         <v>4213202.93029253</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>12746.2922</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4213202.93029253</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10192.8456</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4223395.77589253</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>78792.4642</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4302188.24009253</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27670.7749</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4329859.01499253</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4329869.01499253</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1642.9106</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4328226.104392529</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3117.1331</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4331343.23749253</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4331353.23749253</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1646.8027</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4329706.43479253</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2813.2454</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4332519.68019253</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27</v>
+      </c>
+      <c r="F145" t="n">
+        <v>30317.162</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4302202.518192531</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C146" t="n">
         <v>26.6</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+      <c r="D146" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11981.557</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4290220.961192531</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4290230.961192531</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11511.6919</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4278719.269292531</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4278729.269292531</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>258.4363</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4278470.83299253</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>122069.0901</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4156401.74289253</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3791.1901</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4156401.74289253</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27</v>
+      </c>
+      <c r="F153" t="n">
+        <v>11</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4156412.74289253</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4551.838</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4156412.74289253</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>27</v>
+      </c>
+      <c r="J154" t="n">
+        <v>27</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4156422.74289253</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>27</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1622.5388</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4154800.20409253</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>27</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>12746.2922</v>
-      </c>
-      <c r="G135" t="n">
-        <v>4213202.93029253</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10192.8456</v>
-      </c>
-      <c r="G136" t="n">
-        <v>4223395.77589253</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>78792.4642</v>
-      </c>
-      <c r="G137" t="n">
-        <v>4302188.24009253</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>27670.7749</v>
-      </c>
-      <c r="G138" t="n">
-        <v>4329859.01499253</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>4329869.01499253</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1642.9106</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4328226.104392529</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3117.1331</v>
-      </c>
-      <c r="G141" t="n">
-        <v>4331343.23749253</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>4331353.23749253</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1646.8027</v>
-      </c>
-      <c r="G143" t="n">
-        <v>4329706.43479253</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2813.2454</v>
-      </c>
-      <c r="G144" t="n">
-        <v>4332519.68019253</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27</v>
-      </c>
-      <c r="F145" t="n">
-        <v>30317.162</v>
-      </c>
-      <c r="G145" t="n">
-        <v>4302202.518192531</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C146" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>11981.557</v>
-      </c>
-      <c r="G146" t="n">
-        <v>4290220.961192531</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27</v>
-      </c>
-      <c r="F147" t="n">
-        <v>10</v>
-      </c>
-      <c r="G147" t="n">
-        <v>4290230.961192531</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>11511.6919</v>
-      </c>
-      <c r="G148" t="n">
-        <v>4278719.269292531</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10</v>
-      </c>
-      <c r="G149" t="n">
-        <v>4278729.269292531</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F150" t="n">
-        <v>258.4363</v>
-      </c>
-      <c r="G150" t="n">
-        <v>4278470.83299253</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>122069.0901</v>
-      </c>
-      <c r="G151" t="n">
-        <v>4156401.74289253</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3791.1901</v>
-      </c>
-      <c r="G152" t="n">
-        <v>4156401.74289253</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27</v>
-      </c>
-      <c r="F153" t="n">
-        <v>11</v>
-      </c>
-      <c r="G153" t="n">
-        <v>4156412.74289253</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4551.838</v>
-      </c>
-      <c r="G154" t="n">
-        <v>4156412.74289253</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>10</v>
-      </c>
-      <c r="G155" t="n">
-        <v>4156422.74289253</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1622.5388</v>
-      </c>
-      <c r="G156" t="n">
-        <v>4154800.20409253</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5660,10 +5582,14 @@
         <v>4154811.20409253</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>27</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,10 +5623,14 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>27</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,10 +5664,14 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,12 +5705,12 @@
         <v>4160952.97715136</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>27</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,12 +5744,12 @@
         <v>4150977.97715136</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>27</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,7 +5786,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>27</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,10 +5822,14 @@
         <v>4176935.99865136</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J163" t="n">
+        <v>27</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,7 +5866,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>27</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,7 +5905,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>27</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,10 +5941,14 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>27</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6037,7 +5985,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>27</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,12 +6021,14 @@
         <v>4182147.16775136</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>26.9</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>27</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6110,12 +6062,14 @@
         <v>4183745.79275136</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>27.2</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>27</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,12 +6103,12 @@
         <v>4183728.64855136</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>27</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,7 +6145,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>27</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6225,12 +6181,12 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>27</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,12 +6220,14 @@
         <v>4161004.59135136</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>26.9</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>27</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6303,12 +6261,14 @@
         <v>4161014.59135136</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>26.5</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>27</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,12 +6302,14 @@
         <v>4068825.74925136</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>26.9</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>27</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6381,12 +6343,14 @@
         <v>4121819.72645136</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>26.4</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>27</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6420,12 +6384,14 @@
         <v>4118794.72645136</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>26.9</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>27</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6459,10 +6425,14 @@
         <v>4063547.48635136</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J178" t="n">
+        <v>27</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,10 +6466,14 @@
         <v>4063558.48635136</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J179" t="n">
+        <v>27</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6533,12 +6507,14 @@
         <v>4056659.49465136</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>26.7</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>27</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,12 +6548,14 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>26.5</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>27</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,12 +6589,14 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>26.7</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>27</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6650,12 +6630,14 @@
         <v>4060377.86705136</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>26.7</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>27</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6689,12 +6671,14 @@
         <v>4111526.74175136</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>26.8</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>27</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6728,10 +6712,14 @@
         <v>4111536.74175136</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J185" t="n">
+        <v>27</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,7 +6756,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>27</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,7 +6795,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>27</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,7 +6834,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>27</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6876,12 +6870,12 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>27</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6918,7 +6912,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>27</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,12 +6948,12 @@
         <v>4079638.77785136</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>27</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,7 +6990,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>27</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7031,7 +7029,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>27</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,7 +7068,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>27</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,7 +7107,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>27</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,7 +7146,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>27</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,7 +7185,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>27</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7213,12 +7221,12 @@
         <v>4064859.573651359</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>27</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7252,12 +7260,14 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>26.7</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>27</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7291,12 +7301,12 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>27</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7330,12 +7340,14 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>26.8</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>27</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7369,10 +7381,14 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J202" t="n">
+        <v>27</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7409,7 +7425,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>27</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,7 +7464,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>27</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,7 +7503,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>27</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,7 +7542,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>27</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,7 +7581,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>27</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7594,7 +7620,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>27</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7631,7 +7659,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>27</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,7 +7698,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>27</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,6 +7712,6 @@
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>4497805.5787</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4514774.841</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4467987.914799999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4476504.8828</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4471227.8366</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4471237.8366</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4468229.6203</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4463874.4223</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>4502314.208099999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>4430260.612</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>4428589.1305</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>4430685.8432</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>4430685.8432</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>4429072.3617</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4429072.3617</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>4429083.3617</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>4429083.3617</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4429083.3617</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>4430066.57848321</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4401810.50488321</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4401820.50488321</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4401830.50488321</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>4347919.456983211</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>4347919.456983211</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4347909.456983211</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,11 +1738,17 @@
         <v>4105170.76978321</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1777,17 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1816,17 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28.1</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1859,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1896,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1933,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1970,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2007,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2044,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2081,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2118,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2155,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2192,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2229,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2266,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2303,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2340,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2377,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2414,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2451,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2488,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2525,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2562,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2599,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2636,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2673,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2710,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2747,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2784,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2817,16 @@
         <v>4555309.42768321</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3256,7 +3380,7 @@
         <v>4581422.953383209</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3413,7 @@
         <v>4578598.36598321</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3446,7 @@
         <v>4570643.46878321</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3479,7 @@
         <v>4583758.07498321</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3512,7 @@
         <v>4549753.95108321</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3545,7 @@
         <v>4389742.95108321</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4609,10 +4733,14 @@
         <v>4175604.52869253</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4645,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5007,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5124,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5280,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5319,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5397,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5553,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5592,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5670,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,15 +5745,17 @@
         <v>4156412.74289253</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>27</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5508,11 +5788,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5547,11 +5827,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5582,13 +5862,11 @@
         <v>4154811.20409253</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5623,13 +5901,11 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5664,13 +5940,11 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5709,7 +5983,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5748,7 +6022,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5787,7 +6061,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5822,13 +6096,11 @@
         <v>4176935.99865136</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5867,7 +6139,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5906,7 +6178,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5941,13 +6213,11 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5986,7 +6256,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6021,13 +6291,11 @@
         <v>4182147.16775136</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6062,13 +6330,11 @@
         <v>4183745.79275136</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6107,7 +6373,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6146,7 +6412,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6185,7 +6451,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6220,13 +6486,11 @@
         <v>4161004.59135136</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6261,13 +6525,11 @@
         <v>4161014.59135136</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6302,13 +6564,11 @@
         <v>4068825.74925136</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6343,13 +6603,11 @@
         <v>4121819.72645136</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6384,13 +6642,11 @@
         <v>4118794.72645136</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6425,13 +6681,11 @@
         <v>4063547.48635136</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6466,13 +6720,11 @@
         <v>4063558.48635136</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6507,13 +6759,11 @@
         <v>4056659.49465136</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6548,13 +6798,11 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6589,13 +6837,11 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6630,13 +6876,11 @@
         <v>4060377.86705136</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6671,13 +6915,11 @@
         <v>4111526.74175136</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6712,13 +6954,11 @@
         <v>4111536.74175136</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6757,7 +6997,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6796,7 +7036,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6835,7 +7075,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6874,7 +7114,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6913,7 +7153,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6952,7 +7192,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6991,7 +7231,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7030,7 +7270,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7069,7 +7309,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7108,7 +7348,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7147,7 +7387,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7186,7 +7426,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7225,7 +7465,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7260,13 +7500,11 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7305,7 +7543,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7340,13 +7578,11 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7381,13 +7617,11 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7426,7 +7660,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7461,11 +7695,13 @@
         <v>4064879.573651359</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J204" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7500,11 +7736,13 @@
         <v>4064889.573651359</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>27</v>
+      </c>
       <c r="J205" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7543,7 +7781,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7582,7 +7820,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7617,11 +7855,13 @@
         <v>4060508.63205136</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J208" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7660,7 +7900,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7699,7 +7939,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7712,6 +7952,6 @@
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -550,7 +550,7 @@
         <v>4524286.291900001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4514793.0607</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4514774.841</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4518841.7303</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>4469848.4858</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4467987.914799999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4476504.8828</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1738,17 +1738,11 @@
         <v>4105170.76978321</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1777,17 +1771,11 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1816,17 +1804,11 @@
         <v>4413653.10178321</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2710,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2747,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2817,16 +2695,14 @@
         <v>4555309.42768321</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3380,7 +3256,7 @@
         <v>4581422.953383209</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3413,7 +3289,7 @@
         <v>4578598.36598321</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3446,7 +3322,7 @@
         <v>4570643.46878321</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3479,7 +3355,7 @@
         <v>4583758.07498321</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3512,7 +3388,7 @@
         <v>4549753.95108321</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3545,7 +3421,7 @@
         <v>4389742.95108321</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4733,14 +4609,10 @@
         <v>4175604.52869253</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J128" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4773,872 +4645,766 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>26.2</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="C130" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18133.686</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4193748.21469253</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3584.2294</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4190163.98529253</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3077.373</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4193241.35829253</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4193251.35829253</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19951.572</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4213202.93029253</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C130" t="n">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>12746.2922</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4213202.93029253</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10192.8456</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4223395.77589253</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>78792.4642</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4302188.24009253</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27670.7749</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4329859.01499253</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4329869.01499253</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1642.9106</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4328226.104392529</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>27.1</v>
       </c>
-      <c r="D130" t="n">
+      <c r="C141" t="n">
         <v>27.1</v>
       </c>
-      <c r="E130" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>18133.686</v>
-      </c>
-      <c r="G130" t="n">
-        <v>4193748.21469253</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
+      <c r="D141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3117.1331</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4331343.23749253</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4331353.23749253</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1646.8027</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4329706.43479253</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2813.2454</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4332519.68019253</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27</v>
+      </c>
+      <c r="F145" t="n">
+        <v>30317.162</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4302202.518192531</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11981.557</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4290220.961192531</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4290230.961192531</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11511.6919</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4278719.269292531</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4278729.269292531</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J149" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>258.4363</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4278470.83299253</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>122069.0901</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4156401.74289253</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3584.2294</v>
-      </c>
-      <c r="G131" t="n">
-        <v>4190163.98529253</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3077.373</v>
-      </c>
-      <c r="G132" t="n">
-        <v>4193241.35829253</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10</v>
-      </c>
-      <c r="G133" t="n">
-        <v>4193251.35829253</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C134" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>19951.572</v>
-      </c>
-      <c r="G134" t="n">
-        <v>4213202.93029253</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>12746.2922</v>
-      </c>
-      <c r="G135" t="n">
-        <v>4213202.93029253</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10192.8456</v>
-      </c>
-      <c r="G136" t="n">
-        <v>4223395.77589253</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>78792.4642</v>
-      </c>
-      <c r="G137" t="n">
-        <v>4302188.24009253</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>27670.7749</v>
-      </c>
-      <c r="G138" t="n">
-        <v>4329859.01499253</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>4329869.01499253</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1642.9106</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4328226.104392529</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3117.1331</v>
-      </c>
-      <c r="G141" t="n">
-        <v>4331343.23749253</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>4331353.23749253</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1646.8027</v>
-      </c>
-      <c r="G143" t="n">
-        <v>4329706.43479253</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2813.2454</v>
-      </c>
-      <c r="G144" t="n">
-        <v>4332519.68019253</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27</v>
-      </c>
-      <c r="F145" t="n">
-        <v>30317.162</v>
-      </c>
-      <c r="G145" t="n">
-        <v>4302202.518192531</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C146" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>11981.557</v>
-      </c>
-      <c r="G146" t="n">
-        <v>4290220.961192531</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27</v>
-      </c>
-      <c r="F147" t="n">
-        <v>10</v>
-      </c>
-      <c r="G147" t="n">
-        <v>4290230.961192531</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>11511.6919</v>
-      </c>
-      <c r="G148" t="n">
-        <v>4278719.269292531</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10</v>
-      </c>
-      <c r="G149" t="n">
-        <v>4278729.269292531</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F150" t="n">
-        <v>258.4363</v>
-      </c>
-      <c r="G150" t="n">
-        <v>4278470.83299253</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>122069.0901</v>
-      </c>
-      <c r="G151" t="n">
-        <v>4156401.74289253</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5671,7 +5437,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5706,11 +5472,13 @@
         <v>4156412.74289253</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J153" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5749,7 +5517,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5788,7 +5556,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5827,7 +5595,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5862,11 +5630,13 @@
         <v>4154811.20409253</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J157" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5905,7 +5675,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5940,11 +5710,13 @@
         <v>4160942.97715136</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J159" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5979,11 +5751,13 @@
         <v>4160952.97715136</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J160" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6018,11 +5792,13 @@
         <v>4150977.97715136</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J161" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6057,11 +5833,13 @@
         <v>4150987.97715136</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J162" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6096,11 +5874,13 @@
         <v>4176935.99865136</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J163" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6135,11 +5915,13 @@
         <v>4176855.01325136</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J164" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6174,11 +5956,13 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J165" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6213,11 +5997,13 @@
         <v>4176854.63825136</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J166" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6256,7 +6042,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6291,11 +6077,13 @@
         <v>4182147.16775136</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J168" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6330,11 +6118,13 @@
         <v>4183745.79275136</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J169" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6369,11 +6159,13 @@
         <v>4183728.64855136</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J170" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6408,11 +6200,13 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J171" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6447,11 +6241,13 @@
         <v>4181696.57205136</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J172" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6486,11 +6282,13 @@
         <v>4161004.59135136</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J173" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6525,11 +6323,13 @@
         <v>4161014.59135136</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J174" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6564,11 +6364,13 @@
         <v>4068825.74925136</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J175" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6603,11 +6405,13 @@
         <v>4121819.72645136</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J176" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6642,11 +6446,13 @@
         <v>4118794.72645136</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J177" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6681,11 +6487,13 @@
         <v>4063547.48635136</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J178" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6720,11 +6528,13 @@
         <v>4063558.48635136</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>26.6</v>
+      </c>
       <c r="J179" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6759,11 +6569,13 @@
         <v>4056659.49465136</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J180" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6798,11 +6610,13 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J181" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6837,11 +6651,13 @@
         <v>4060367.86705136</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J182" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6876,11 +6692,13 @@
         <v>4060377.86705136</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J183" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6915,11 +6733,13 @@
         <v>4111526.74175136</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J184" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6954,11 +6774,13 @@
         <v>4111536.74175136</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J185" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6993,11 +6815,13 @@
         <v>4093215.32485136</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J186" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7032,11 +6856,13 @@
         <v>4079617.77785136</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J187" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7071,11 +6897,13 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>27</v>
+      </c>
       <c r="J188" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7110,11 +6938,13 @@
         <v>4079628.77785136</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J189" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7153,7 +6983,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7192,7 +7022,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7231,7 +7061,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7270,7 +7100,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7305,11 +7135,13 @@
         <v>4073009.72365136</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J194" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7344,11 +7176,13 @@
         <v>4076021.79135136</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J195" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7383,11 +7217,13 @@
         <v>3983786.51375136</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J196" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7422,11 +7258,13 @@
         <v>4073930.56015136</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J197" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7461,11 +7299,13 @@
         <v>4064859.573651359</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J198" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7500,11 +7340,13 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J199" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7539,11 +7381,13 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J200" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7578,11 +7422,13 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J201" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7617,11 +7463,13 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J202" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7656,11 +7504,13 @@
         <v>4064869.573651359</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J203" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7701,7 +7551,7 @@
         <v>26.8</v>
       </c>
       <c r="J204" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7742,7 +7592,7 @@
         <v>27</v>
       </c>
       <c r="J205" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7777,11 +7627,13 @@
         <v>4060433.80735136</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J206" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7816,11 +7668,13 @@
         <v>4060433.80735136</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J207" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7861,7 +7715,7 @@
         <v>26.9</v>
       </c>
       <c r="J208" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7896,11 +7750,13 @@
         <v>4058793.65205136</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J209" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7935,11 +7791,13 @@
         <v>4057791.34615136</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J210" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>

--- a/BackTest/2019-11-01 BackTest CHR.xlsx
+++ b/BackTest/2019-11-01 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>30949.623</v>
       </c>
       <c r="G2" t="n">
-        <v>4527284.4473</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>29478.8686</v>
       </c>
       <c r="G3" t="n">
-        <v>4497805.5787</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>8679.2665</v>
       </c>
       <c r="G4" t="n">
-        <v>4497805.5787</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>26480.7132</v>
       </c>
       <c r="G5" t="n">
-        <v>4524286.291900001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9493.2312</v>
       </c>
       <c r="G6" t="n">
-        <v>4514793.0607</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>18.2197</v>
       </c>
       <c r="G7" t="n">
-        <v>4514774.841</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4066.8893</v>
       </c>
       <c r="G8" t="n">
-        <v>4518841.7303</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>48993.2445</v>
       </c>
       <c r="G9" t="n">
-        <v>4469848.4858</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>29069.7728</v>
       </c>
       <c r="G10" t="n">
-        <v>4469848.4858</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1860.571</v>
       </c>
       <c r="G11" t="n">
-        <v>4467987.914799999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>8516.968000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>4476504.8828</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5277.0462</v>
       </c>
       <c r="G13" t="n">
-        <v>4471227.8366</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>4471237.8366</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3008.2163</v>
       </c>
       <c r="G15" t="n">
-        <v>4468229.6203</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>270.8249</v>
       </c>
       <c r="G16" t="n">
-        <v>4468229.6203</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4355.198</v>
       </c>
       <c r="G17" t="n">
-        <v>4463874.4223</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>38439.7858</v>
       </c>
       <c r="G18" t="n">
-        <v>4502314.208099999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>72053.5961</v>
       </c>
       <c r="G19" t="n">
-        <v>4430260.612</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1671.4815</v>
       </c>
       <c r="G20" t="n">
-        <v>4428589.1305</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2096.7127</v>
       </c>
       <c r="G21" t="n">
-        <v>4430685.8432</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>4430685.8432</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1613.4815</v>
       </c>
       <c r="G23" t="n">
-        <v>4429072.3617</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4132.3492</v>
       </c>
       <c r="G24" t="n">
-        <v>4429072.3617</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>4429083.3617</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5814.964</v>
       </c>
       <c r="G26" t="n">
-        <v>4429083.3617</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>540.4498</v>
       </c>
       <c r="G27" t="n">
-        <v>4429083.3617</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>983.21678321</v>
       </c>
       <c r="G28" t="n">
-        <v>4430066.57848321</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>28256.0736</v>
       </c>
       <c r="G29" t="n">
-        <v>4401810.50488321</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4401820.50488321</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>4401830.50488321</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>51828.5707</v>
       </c>
       <c r="G32" t="n">
-        <v>4350001.93418321</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2082.4772</v>
       </c>
       <c r="G33" t="n">
-        <v>4347919.456983211</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>917.5228</v>
       </c>
       <c r="G34" t="n">
-        <v>4347919.456983211</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>4347909.456983211</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>248260.9812</v>
       </c>
       <c r="G36" t="n">
-        <v>4099648.475783211</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>4099658.475783211</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>13799.9862</v>
       </c>
       <c r="G38" t="n">
-        <v>4085858.489583211</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7037.1287</v>
       </c>
       <c r="G39" t="n">
-        <v>4085858.489583211</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>15502.2939</v>
       </c>
       <c r="G40" t="n">
-        <v>4101360.78348321</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3809.9863</v>
       </c>
       <c r="G41" t="n">
-        <v>4105170.76978321</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>308482.332</v>
       </c>
       <c r="G42" t="n">
-        <v>4413653.10178321</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>42835.8932</v>
       </c>
       <c r="G43" t="n">
-        <v>4413653.10178321</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>6358.5073</v>
       </c>
       <c r="G44" t="n">
-        <v>4420011.60908321</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>52.1428</v>
       </c>
       <c r="G45" t="n">
-        <v>4420011.60908321</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>16458.6822</v>
       </c>
       <c r="G46" t="n">
-        <v>4403552.92688321</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>14688.7681</v>
       </c>
       <c r="G47" t="n">
-        <v>4418241.69498321</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>45.97</v>
       </c>
       <c r="G48" t="n">
-        <v>4418287.66498321</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>20000</v>
       </c>
       <c r="G49" t="n">
-        <v>4398287.66498321</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>4398297.66498321</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>4398307.66498321</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>392.8571</v>
       </c>
       <c r="G52" t="n">
-        <v>4398700.52208321</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>12748.072</v>
       </c>
       <c r="G53" t="n">
-        <v>4385952.45008321</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>4385962.45008321</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1152.5736</v>
       </c>
       <c r="G55" t="n">
-        <v>4384809.87648321</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>442</v>
       </c>
       <c r="G56" t="n">
-        <v>4385251.87648321</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>22673.9093</v>
       </c>
       <c r="G57" t="n">
-        <v>4407925.785783211</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>83923.245</v>
       </c>
       <c r="G58" t="n">
-        <v>4491849.030783211</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1284.3592</v>
       </c>
       <c r="G59" t="n">
-        <v>4493133.389983211</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1316.3512</v>
       </c>
       <c r="G60" t="n">
-        <v>4491817.03878321</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>16001.9321</v>
       </c>
       <c r="G61" t="n">
-        <v>4507818.97088321</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>13650.7057</v>
       </c>
       <c r="G62" t="n">
-        <v>4494168.26518321</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>26278.2847</v>
       </c>
       <c r="G63" t="n">
-        <v>4520446.54988321</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>65605.7038</v>
       </c>
       <c r="G64" t="n">
-        <v>4586052.25368321</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>40845.1435</v>
       </c>
       <c r="G65" t="n">
-        <v>4545207.11018321</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>41147.4683</v>
       </c>
       <c r="G66" t="n">
-        <v>4586354.57848321</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>17092.2837</v>
       </c>
       <c r="G67" t="n">
-        <v>4569262.29478321</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>4569273.29478321</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>30516.0825</v>
       </c>
       <c r="G69" t="n">
-        <v>4569273.29478321</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>13963.8671</v>
       </c>
       <c r="G70" t="n">
-        <v>4555309.42768321</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>31907.5937</v>
       </c>
       <c r="G71" t="n">
-        <v>4555309.42768321</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>28.8642</v>
       </c>
       <c r="G72" t="n">
-        <v>4555338.29188321</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1486.9565</v>
       </c>
       <c r="G73" t="n">
-        <v>4556825.24838321</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5441.2619</v>
       </c>
       <c r="G74" t="n">
-        <v>4551383.98648321</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>31861.0096</v>
       </c>
       <c r="G75" t="n">
-        <v>4583244.99608321</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>4583255.99608321</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3325.1577</v>
       </c>
       <c r="G77" t="n">
-        <v>4579930.83838321</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>598.8111</v>
       </c>
       <c r="G78" t="n">
-        <v>4579930.83838321</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2974.968</v>
       </c>
       <c r="G79" t="n">
-        <v>4576955.87038321</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>22</v>
       </c>
       <c r="G80" t="n">
-        <v>4576933.87038321</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1381.9813</v>
       </c>
       <c r="G81" t="n">
-        <v>4575551.889083209</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>21</v>
       </c>
       <c r="G82" t="n">
-        <v>4575572.889083209</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>4575582.889083209</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>4293.9013</v>
       </c>
       <c r="G84" t="n">
-        <v>4571288.987783209</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>34270.1896</v>
       </c>
       <c r="G85" t="n">
-        <v>4537018.798183209</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>44394.1552</v>
       </c>
       <c r="G86" t="n">
-        <v>4581412.953383209</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>4581422.953383209</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2824.5874</v>
       </c>
       <c r="G88" t="n">
-        <v>4578598.36598321</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>7954.8972</v>
       </c>
       <c r="G89" t="n">
-        <v>4570643.46878321</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>13114.6062</v>
       </c>
       <c r="G90" t="n">
-        <v>4583758.07498321</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>34004.1239</v>
       </c>
       <c r="G91" t="n">
-        <v>4549753.95108321</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>160011</v>
       </c>
       <c r="G92" t="n">
-        <v>4389742.95108321</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>5344.2333</v>
       </c>
       <c r="G93" t="n">
-        <v>4384398.71778321</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>452</v>
       </c>
       <c r="G94" t="n">
-        <v>4384850.71778321</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>30139.32199068</v>
       </c>
       <c r="G95" t="n">
-        <v>4354711.39579253</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>10020</v>
       </c>
       <c r="G96" t="n">
-        <v>4364731.39579253</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>34</v>
       </c>
       <c r="G97" t="n">
-        <v>4364697.39579253</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>80</v>
       </c>
       <c r="G98" t="n">
-        <v>4364777.39579253</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>40010</v>
       </c>
       <c r="G99" t="n">
-        <v>4364777.39579253</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>199200.8637</v>
       </c>
       <c r="G100" t="n">
-        <v>4165576.53209253</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>3467.7132</v>
       </c>
       <c r="G101" t="n">
-        <v>4169044.24529253</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>6094.27</v>
       </c>
       <c r="G102" t="n">
-        <v>4162949.97529253</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>160115.8836</v>
       </c>
       <c r="G103" t="n">
-        <v>4002834.09169253</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>213721.6489</v>
       </c>
       <c r="G104" t="n">
-        <v>4216555.74059253</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4607.2653</v>
       </c>
       <c r="G105" t="n">
-        <v>4221163.00589253</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>11177.5563</v>
       </c>
       <c r="G106" t="n">
-        <v>4221163.00589253</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>11728.8442</v>
       </c>
       <c r="G107" t="n">
-        <v>4209434.16169253</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>5104.3689</v>
       </c>
       <c r="G108" t="n">
-        <v>4209434.16169253</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>22</v>
       </c>
       <c r="G109" t="n">
-        <v>4209456.16169253</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>7347</v>
       </c>
       <c r="G110" t="n">
-        <v>4216803.16169253</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>6281</v>
       </c>
       <c r="G111" t="n">
-        <v>4210522.16169253</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>32662.1649</v>
       </c>
       <c r="G112" t="n">
-        <v>4177859.99679253</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2288</v>
       </c>
       <c r="G113" t="n">
-        <v>4180147.99679253</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,19 @@
         <v>4623.5831</v>
       </c>
       <c r="G114" t="n">
-        <v>4175524.41369253</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I114" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3837,21 @@
         <v>11139.6374</v>
       </c>
       <c r="G115" t="n">
-        <v>4164384.77629253</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3873,23 @@
         <v>837.9124</v>
       </c>
       <c r="G116" t="n">
-        <v>4164384.77629253</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>26.3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,23 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>4164395.77629253</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>26.3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3949,21 @@
         <v>4832.9573</v>
       </c>
       <c r="G118" t="n">
-        <v>4164395.77629253</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3985,21 @@
         <v>29222.2723</v>
       </c>
       <c r="G119" t="n">
-        <v>4135173.50399253</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4021,21 @@
         <v>29233.2723</v>
       </c>
       <c r="G120" t="n">
-        <v>4164406.77629253</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4057,21 @@
         <v>47856.9107</v>
       </c>
       <c r="G121" t="n">
-        <v>4212263.68699253</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4093,21 @@
         <v>5724.409</v>
       </c>
       <c r="G122" t="n">
-        <v>4206539.27799253</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4129,21 @@
         <v>17351.8087</v>
       </c>
       <c r="G123" t="n">
-        <v>4189187.46929253</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4165,21 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>4189198.46929253</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4201,23 @@
         <v>22</v>
       </c>
       <c r="G125" t="n">
-        <v>4189220.46929253</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>26.5</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4239,23 @@
         <v>10528.9406</v>
       </c>
       <c r="G126" t="n">
-        <v>4178691.52869253</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I126" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4277,23 @@
         <v>3098</v>
       </c>
       <c r="G127" t="n">
-        <v>4175593.52869253</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="I127" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4315,23 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>4175604.52869253</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4353,23 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>4175614.52869253</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>26.4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4391,23 @@
         <v>18133.686</v>
       </c>
       <c r="G130" t="n">
-        <v>4193748.21469253</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I130" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4429,21 @@
         <v>3584.2294</v>
       </c>
       <c r="G131" t="n">
-        <v>4190163.98529253</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4465,23 @@
         <v>3077.373</v>
       </c>
       <c r="G132" t="n">
-        <v>4193241.35829253</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,22 +4503,23 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>4193251.35829253</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>26.3</v>
       </c>
       <c r="I133" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J133" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4808,24 +4541,23 @@
         <v>19951.572</v>
       </c>
       <c r="G134" t="n">
-        <v>4213202.93029253</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="I134" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4847,24 +4579,23 @@
         <v>12746.2922</v>
       </c>
       <c r="G135" t="n">
-        <v>4213202.93029253</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4886,18 +4617,23 @@
         <v>10192.8456</v>
       </c>
       <c r="G136" t="n">
-        <v>4223395.77589253</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4919,18 +4655,21 @@
         <v>78792.4642</v>
       </c>
       <c r="G137" t="n">
-        <v>4302188.24009253</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4952,18 +4691,21 @@
         <v>27670.7749</v>
       </c>
       <c r="G138" t="n">
-        <v>4329859.01499253</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4985,18 +4727,21 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>4329869.01499253</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5018,18 +4763,21 @@
         <v>1642.9106</v>
       </c>
       <c r="G140" t="n">
-        <v>4328226.104392529</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5051,18 +4799,21 @@
         <v>3117.1331</v>
       </c>
       <c r="G141" t="n">
-        <v>4331343.23749253</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5084,18 +4835,21 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>4331353.23749253</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5117,18 +4871,21 @@
         <v>1646.8027</v>
       </c>
       <c r="G143" t="n">
-        <v>4329706.43479253</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5150,18 +4907,21 @@
         <v>2813.2454</v>
       </c>
       <c r="G144" t="n">
-        <v>4332519.68019253</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5183,18 +4943,21 @@
         <v>30317.162</v>
       </c>
       <c r="G145" t="n">
-        <v>4302202.518192531</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5216,18 +4979,21 @@
         <v>11981.557</v>
       </c>
       <c r="G146" t="n">
-        <v>4290220.961192531</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5249,18 +5015,21 @@
         <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>4290230.961192531</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5282,18 +5051,21 @@
         <v>11511.6919</v>
       </c>
       <c r="G148" t="n">
-        <v>4278719.269292531</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5315,22 +5087,21 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>4278729.269292531</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J149" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5352,24 +5123,21 @@
         <v>258.4363</v>
       </c>
       <c r="G150" t="n">
-        <v>4278470.83299253</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5391,24 +5159,21 @@
         <v>122069.0901</v>
       </c>
       <c r="G151" t="n">
-        <v>4156401.74289253</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5430,24 +5195,21 @@
         <v>3791.1901</v>
       </c>
       <c r="G152" t="n">
-        <v>4156401.74289253</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5469,26 +5231,21 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>4156412.74289253</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5510,24 +5267,21 @@
         <v>4551.838</v>
       </c>
       <c r="G154" t="n">
-        <v>4156412.74289253</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5549,24 +5303,21 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>4156422.74289253</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5588,24 +5339,21 @@
         <v>1622.5388</v>
       </c>
       <c r="G156" t="n">
-        <v>4154800.20409253</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5627,26 +5375,21 @@
         <v>11</v>
       </c>
       <c r="G157" t="n">
-        <v>4154811.20409253</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J157" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5668,24 +5411,21 @@
         <v>6131.77305883</v>
       </c>
       <c r="G158" t="n">
-        <v>4160942.97715136</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5707,26 +5447,23 @@
         <v>2826.896</v>
       </c>
       <c r="G159" t="n">
-        <v>4160942.97715136</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>27.3</v>
       </c>
       <c r="I159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5748,26 +5485,21 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>4160952.97715136</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J160" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5789,26 +5521,21 @@
         <v>9975</v>
       </c>
       <c r="G161" t="n">
-        <v>4150977.97715136</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J161" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5830,26 +5557,21 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>4150987.97715136</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J162" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5871,26 +5593,21 @@
         <v>25948.0215</v>
       </c>
       <c r="G163" t="n">
-        <v>4176935.99865136</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J163" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5912,26 +5629,21 @@
         <v>80.9854</v>
       </c>
       <c r="G164" t="n">
-        <v>4176855.01325136</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J164" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5953,26 +5665,21 @@
         <v>0.375</v>
       </c>
       <c r="G165" t="n">
-        <v>4176854.63825136</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J165" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5994,26 +5701,21 @@
         <v>1605.3956044</v>
       </c>
       <c r="G166" t="n">
-        <v>4176854.63825136</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J166" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6035,24 +5737,21 @@
         <v>432</v>
       </c>
       <c r="G167" t="n">
-        <v>4176422.63825136</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6074,26 +5773,21 @@
         <v>5724.5295</v>
       </c>
       <c r="G168" t="n">
-        <v>4182147.16775136</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J168" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6115,26 +5809,21 @@
         <v>1598.625</v>
       </c>
       <c r="G169" t="n">
-        <v>4183745.79275136</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J169" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6156,26 +5845,21 @@
         <v>17.1442</v>
       </c>
       <c r="G170" t="n">
-        <v>4183728.64855136</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J170" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6197,26 +5881,21 @@
         <v>2032.0765</v>
       </c>
       <c r="G171" t="n">
-        <v>4181696.57205136</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J171" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6238,26 +5917,21 @@
         <v>25973.9344</v>
       </c>
       <c r="G172" t="n">
-        <v>4181696.57205136</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J172" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6279,26 +5953,21 @@
         <v>20691.9807</v>
       </c>
       <c r="G173" t="n">
-        <v>4161004.59135136</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J173" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6320,26 +5989,23 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>4161014.59135136</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>26.5</v>
       </c>
       <c r="I174" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J174" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6361,26 +6027,21 @@
         <v>92188.84209999999</v>
       </c>
       <c r="G175" t="n">
-        <v>4068825.74925136</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J175" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6402,26 +6063,23 @@
         <v>52993.9772</v>
       </c>
       <c r="G176" t="n">
-        <v>4121819.72645136</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>26.4</v>
       </c>
       <c r="I176" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J176" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6443,26 +6101,23 @@
         <v>3025</v>
       </c>
       <c r="G177" t="n">
-        <v>4118794.72645136</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>26.9</v>
       </c>
       <c r="I177" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J177" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6484,26 +6139,23 @@
         <v>55247.2401</v>
       </c>
       <c r="G178" t="n">
-        <v>4063547.48635136</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>26.7</v>
       </c>
       <c r="I178" t="n">
         <v>26.7</v>
       </c>
-      <c r="J178" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6525,26 +6177,21 @@
         <v>11</v>
       </c>
       <c r="G179" t="n">
-        <v>4063558.48635136</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J179" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6566,26 +6213,21 @@
         <v>6898.9917</v>
       </c>
       <c r="G180" t="n">
-        <v>4056659.49465136</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
         <v>26.7</v>
       </c>
-      <c r="J180" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6607,26 +6249,21 @@
         <v>3708.3724</v>
       </c>
       <c r="G181" t="n">
-        <v>4060367.86705136</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6648,26 +6285,23 @@
         <v>7583.5131</v>
       </c>
       <c r="G182" t="n">
-        <v>4060367.86705136</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>26.7</v>
       </c>
       <c r="I182" t="n">
         <v>26.7</v>
       </c>
-      <c r="J182" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6689,26 +6323,23 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>4060377.86705136</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>26.7</v>
       </c>
       <c r="I183" t="n">
         <v>26.7</v>
       </c>
-      <c r="J183" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6730,26 +6361,23 @@
         <v>51148.8747</v>
       </c>
       <c r="G184" t="n">
-        <v>4111526.74175136</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>26.8</v>
       </c>
       <c r="I184" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6771,26 +6399,23 @@
         <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>4111536.74175136</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>26.9</v>
       </c>
       <c r="I185" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J185" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6812,26 +6437,23 @@
         <v>18321.4169</v>
       </c>
       <c r="G186" t="n">
-        <v>4093215.32485136</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>27.4</v>
       </c>
       <c r="I186" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J186" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6853,26 +6475,21 @@
         <v>13597.547</v>
       </c>
       <c r="G187" t="n">
-        <v>4079617.77785136</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J187" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6894,26 +6511,21 @@
         <v>11</v>
       </c>
       <c r="G188" t="n">
-        <v>4079628.77785136</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>27</v>
-      </c>
-      <c r="J188" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6935,26 +6547,21 @@
         <v>20689.3065</v>
       </c>
       <c r="G189" t="n">
-        <v>4079628.77785136</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J189" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6976,24 +6583,21 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>4079638.77785136</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7015,24 +6619,21 @@
         <v>6655.6934</v>
       </c>
       <c r="G191" t="n">
-        <v>4079638.77785136</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7054,24 +6655,21 @@
         <v>365</v>
       </c>
       <c r="G192" t="n">
-        <v>4079638.77785136</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7093,24 +6691,21 @@
         <v>6639.0542</v>
       </c>
       <c r="G193" t="n">
-        <v>4072999.72365136</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7132,26 +6727,21 @@
         <v>10</v>
       </c>
       <c r="G194" t="n">
-        <v>4073009.72365136</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J194" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7173,26 +6763,21 @@
         <v>3012.0677</v>
       </c>
       <c r="G195" t="n">
-        <v>4076021.79135136</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J195" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7214,26 +6799,21 @@
         <v>92235.2776</v>
       </c>
       <c r="G196" t="n">
-        <v>3983786.51375136</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J196" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7255,26 +6835,21 @@
         <v>90144.04640000001</v>
       </c>
       <c r="G197" t="n">
-        <v>4073930.56015136</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
         <v>26.7</v>
       </c>
-      <c r="J197" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7296,26 +6871,21 @@
         <v>9070.986500000001</v>
       </c>
       <c r="G198" t="n">
-        <v>4064859.573651359</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J198" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7337,26 +6907,23 @@
         <v>10</v>
       </c>
       <c r="G199" t="n">
-        <v>4064869.573651359</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>26.7</v>
       </c>
       <c r="I199" t="n">
         <v>26.7</v>
       </c>
-      <c r="J199" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7378,26 +6945,23 @@
         <v>8940.5857</v>
       </c>
       <c r="G200" t="n">
-        <v>4064869.573651359</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>26.8</v>
       </c>
       <c r="I200" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J200" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7419,26 +6983,23 @@
         <v>186.567</v>
       </c>
       <c r="G201" t="n">
-        <v>4064869.573651359</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>26.8</v>
       </c>
       <c r="I201" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J201" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7460,26 +7021,21 @@
         <v>27470.9701</v>
       </c>
       <c r="G202" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J202" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7501,26 +7057,21 @@
         <v>863.8312</v>
       </c>
       <c r="G203" t="n">
-        <v>4064869.573651359</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J203" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7542,26 +7093,21 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>4064879.573651359</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J204" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7583,26 +7129,23 @@
         <v>10</v>
       </c>
       <c r="G205" t="n">
-        <v>4064889.573651359</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I205" t="n">
-        <v>27</v>
-      </c>
-      <c r="J205" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7624,26 +7167,23 @@
         <v>4455.7663</v>
       </c>
       <c r="G206" t="n">
-        <v>4060433.80735136</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>27.1</v>
       </c>
       <c r="I206" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J206" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7665,26 +7205,23 @@
         <v>36900.3689</v>
       </c>
       <c r="G207" t="n">
-        <v>4060433.80735136</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>26.9</v>
       </c>
       <c r="I207" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J207" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7706,26 +7243,23 @@
         <v>74.82470000000001</v>
       </c>
       <c r="G208" t="n">
-        <v>4060508.63205136</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>26.9</v>
       </c>
       <c r="I208" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J208" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7747,26 +7281,23 @@
         <v>1714.98</v>
       </c>
       <c r="G209" t="n">
-        <v>4058793.65205136</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>27.1</v>
       </c>
       <c r="I209" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J209" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7788,26 +7319,23 @@
         <v>1002.3059</v>
       </c>
       <c r="G210" t="n">
-        <v>4057791.34615136</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>26.9</v>
       </c>
       <c r="I210" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J210" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
